--- a/report/IPB1-2-LENR-COP.xlsx
+++ b/report/IPB1-2-LENR-COP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="-210" windowWidth="21960" windowHeight="13860"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="13860"/>
   </bookViews>
   <sheets>
     <sheet name="IPB2-LENR-COP" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>NQ</t>
   </si>
@@ -145,6 +145,18 @@
   <si>
     <t>H2 (9/20/2016-9/21/2019)</t>
   </si>
+  <si>
+    <t>\ISOPERIBOLIC2_DATA\2016-09-07_Crio_V165_core28b\IPB2_Core_28b-_H2_150C-400C__Run1_day-01.csv : 02.csv</t>
+  </si>
+  <si>
+    <t>H2 (9/7/2016-9/8/2016)</t>
+  </si>
+  <si>
+    <t>H2 (9/5/2016-9/6/2016)</t>
+  </si>
+  <si>
+    <t>\ISOPERIBOLIC2_DATA\2016-09-05_Crio_V164_core28b\IPB2_Core_28b-_H2_150C-400C_CRIO_V164_Run2_day-01.csv : 02.csv</t>
+  </si>
 </sst>
 </file>
 
@@ -196,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +233,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -234,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -331,18 +349,6 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -359,11 +365,1227 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="138">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -811,10 +2033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV52"/>
+  <dimension ref="A1:BE68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6:P11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,67 +2060,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
       <c r="M1" s="41"/>
       <c r="N1" s="21"/>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49" t="s">
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49" t="s">
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49" t="s">
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49" t="s">
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49" t="s">
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
     </row>
     <row r="2" spans="1:47" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -1086,8 +2308,14 @@
       <c r="J3" s="17">
         <v>150</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="55">
+        <f>K4</f>
+        <v>0.54807226651871011</v>
+      </c>
+      <c r="L3" s="55">
+        <f>L4</f>
+        <v>-3.8688175842933603E-2</v>
+      </c>
       <c r="M3" s="43"/>
       <c r="N3" s="18"/>
       <c r="O3"/>
@@ -1166,8 +2394,14 @@
       <c r="J5" s="17">
         <v>250</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="K5" s="55">
+        <f>K6</f>
+        <v>0.486148024665365</v>
+      </c>
+      <c r="L5" s="55">
+        <f>L6</f>
+        <v>2.6552909802438001E-2</v>
+      </c>
       <c r="M5" s="43"/>
       <c r="N5" s="18"/>
       <c r="O5"/>
@@ -1263,8 +2497,14 @@
       <c r="J7" s="17">
         <v>350</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="K7" s="55">
+        <f>K8</f>
+        <v>0.42986521481307871</v>
+      </c>
+      <c r="L7" s="55">
+        <f>L8</f>
+        <v>2.2194633949000231E-2</v>
+      </c>
       <c r="M7" s="43"/>
       <c r="N7" s="18"/>
       <c r="O7"/>
@@ -1668,22 +2908,22 @@
       <c r="AP12" s="3"/>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
-      <c r="J13" s="47" t="s">
+      <c r="J13" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
       <c r="O13" s="6"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1765,23 +3005,23 @@
         <v>-0.11676199999999959</v>
       </c>
       <c r="C15" s="13">
-        <f>R6-R15-(AB6-AB15)*$F$3-$G$3*(AG6+AL6-AG15-AL15)</f>
+        <f t="shared" ref="C15:C20" si="9">R6-R15-(AB6-AB15)*$F$3-$G$3*(AG6+AL6-AG15-AL15)</f>
         <v>1.390708293963665</v>
       </c>
       <c r="D15" s="13">
-        <f>S6-S15-(AC6-AC15)*$F$4-$G$4*(AH6+AM6-AH15-AM15)</f>
+        <f t="shared" ref="D15:D20" si="10">S6-S15-(AC6-AC15)*$F$4-$G$4*(AH6+AM6-AH15-AM15)</f>
         <v>2.0907067909609078</v>
       </c>
       <c r="E15" s="13">
-        <f>T6-T15-(AD6-AD15)*$F$5-$G$5*(AI6+AN6-AI15-AN15)</f>
+        <f t="shared" ref="E15:E20" si="11">T6-T15-(AD6-AD15)*$F$5-$G$5*(AI6+AN6-AI15-AN15)</f>
         <v>1.602239036457755</v>
       </c>
       <c r="F15" s="13">
-        <f>U6-U15-(AE6-AE15)*$F$4-$G$4*(AJ6+AO6-AJ15-AO15)</f>
+        <f t="shared" ref="F15:F20" si="12">U6-U15-(AE6-AE15)*$F$4-$G$4*(AJ6+AO6-AJ15-AO15)</f>
         <v>1.0201870058226272</v>
       </c>
       <c r="G15" s="13">
-        <f>V6-V15-(AF6-AF15)*$F$3-$G$3*(AK6+AP6-AK15-AP15)</f>
+        <f t="shared" ref="G15:G20" si="13">V6-V15-(AF6-AF15)*$F$3-$G$3*(AK6+AP6-AK15-AP15)</f>
         <v>0.53766143818529111</v>
       </c>
       <c r="H15" s="22"/>
@@ -1866,23 +3106,23 @@
         <v>-8.21550000000002E-2</v>
       </c>
       <c r="C16" s="13">
-        <f>R7-R16-(AB7-AB16)*$F$3-$G$3*(AG7+AL7-AG16-AL16)</f>
+        <f t="shared" si="9"/>
         <v>2.0952204954313483</v>
       </c>
       <c r="D16" s="13">
-        <f>S7-S16-(AC7-AC16)*$F$4-$G$4*(AH7+AM7-AH16-AM16)</f>
+        <f t="shared" si="10"/>
         <v>2.7254246531438517</v>
       </c>
       <c r="E16" s="13">
-        <f>T7-T16-(AD7-AD16)*$F$5-$G$5*(AI7+AN7-AI16-AN16)</f>
+        <f t="shared" si="11"/>
         <v>3.0637284232197417</v>
       </c>
       <c r="F16" s="13">
-        <f>U7-U16-(AE7-AE16)*$F$4-$G$4*(AJ7+AO7-AJ16-AO16)</f>
+        <f t="shared" si="12"/>
         <v>2.270362657625971</v>
       </c>
       <c r="G16" s="13">
-        <f>V7-V16-(AF7-AF16)*$F$3-$G$3*(AK7+AP7-AK16-AP16)</f>
+        <f t="shared" si="13"/>
         <v>2.0021091383984704</v>
       </c>
       <c r="H16" s="22"/>
@@ -1967,23 +3207,23 @@
         <v>-6.8196000000000367E-2</v>
       </c>
       <c r="C17" s="13">
-        <f>R8-R17-(AB8-AB17)*$F$3-$G$3*(AG8+AL8-AG17-AL17)</f>
+        <f t="shared" si="9"/>
         <v>0.82487751369300177</v>
       </c>
       <c r="D17" s="13">
-        <f>S8-S17-(AC8-AC17)*$F$4-$G$4*(AH8+AM8-AH17-AM17)</f>
+        <f t="shared" si="10"/>
         <v>1.4912580442282146</v>
       </c>
       <c r="E17" s="13">
-        <f>T8-T17-(AD8-AD17)*$F$5-$G$5*(AI8+AN8-AI17-AN17)</f>
+        <f t="shared" si="11"/>
         <v>2.3816089229660147</v>
       </c>
       <c r="F17" s="13">
-        <f>U8-U17-(AE8-AE17)*$F$4-$G$4*(AJ8+AO8-AJ17-AO17)</f>
+        <f t="shared" si="12"/>
         <v>2.7185892548174975</v>
       </c>
       <c r="G17" s="13">
-        <f>V8-V17-(AF8-AF17)*$F$3-$G$3*(AK8+AP8-AK17-AP17)</f>
+        <f t="shared" si="13"/>
         <v>2.2859922491410547</v>
       </c>
       <c r="H17" s="22"/>
@@ -2068,23 +3308,23 @@
         <v>-0.18775899999999979</v>
       </c>
       <c r="C18" s="13">
-        <f>R9-R18-(AB9-AB18)*$F$3-$G$3*(AG9+AL9-AG18-AL18)</f>
+        <f t="shared" si="9"/>
         <v>1.4533414049499855</v>
       </c>
       <c r="D18" s="13">
-        <f>S9-S18-(AC9-AC18)*$F$4-$G$4*(AH9+AM9-AH18-AM18)</f>
+        <f t="shared" si="10"/>
         <v>2.3240996922773878</v>
       </c>
       <c r="E18" s="13">
-        <f>T9-T18-(AD9-AD18)*$F$5-$G$5*(AI9+AN9-AI18-AN18)</f>
+        <f t="shared" si="11"/>
         <v>3.422229502581462</v>
       </c>
       <c r="F18" s="13">
-        <f>U9-U18-(AE9-AE18)*$F$4-$G$4*(AJ9+AO9-AJ18-AO18)</f>
+        <f t="shared" si="12"/>
         <v>3.5773276863671413</v>
       </c>
       <c r="G18" s="13">
-        <f>V9-V18-(AF9-AF18)*$F$3-$G$3*(AK9+AP9-AK18-AP18)</f>
+        <f t="shared" si="13"/>
         <v>3.3348915142271327</v>
       </c>
       <c r="H18" s="22"/>
@@ -2169,23 +3409,23 @@
         <v>-0.38005100000000169</v>
       </c>
       <c r="C19" s="13">
-        <f>R10-R19-(AB10-AB19)*$F$3-$G$3*(AG10+AL10-AG19-AL19)</f>
+        <f t="shared" si="9"/>
         <v>5.8377778814421406</v>
       </c>
       <c r="D19" s="13">
-        <f>S10-S19-(AC10-AC19)*$F$4-$G$4*(AH10+AM10-AH19-AM19)</f>
+        <f t="shared" si="10"/>
         <v>5.2856912380179981</v>
       </c>
       <c r="E19" s="13">
-        <f>T10-T19-(AD10-AD19)*$F$5-$G$5*(AI10+AN10-AI19-AN19)</f>
+        <f t="shared" si="11"/>
         <v>3.6556329467892463</v>
       </c>
       <c r="F19" s="13">
-        <f>U10-U19-(AE10-AE19)*$F$4-$G$4*(AJ10+AO10-AJ19-AO19)</f>
+        <f t="shared" si="12"/>
         <v>1.8410249381403738</v>
       </c>
       <c r="G19" s="13">
-        <f>V10-V19-(AF10-AF19)*$F$3-$G$3*(AK10+AP10-AK19-AP19)</f>
+        <f t="shared" si="13"/>
         <v>1.6236844339609151</v>
       </c>
       <c r="H19" s="22"/>
@@ -2270,23 +3510,23 @@
         <v>-0.43242000000000047</v>
       </c>
       <c r="C20" s="13">
-        <f>R11-R20-(AB11-AB20)*$F$3-$G$3*(AG11+AL11-AG20-AL20)</f>
+        <f t="shared" si="9"/>
         <v>1.9525025201362749</v>
       </c>
       <c r="D20" s="13">
-        <f>S11-S20-(AC11-AC20)*$F$4-$G$4*(AH11+AM11-AH20-AM20)</f>
+        <f t="shared" si="10"/>
         <v>1.7911972368055191</v>
       </c>
       <c r="E20" s="13">
-        <f>T11-T20-(AD11-AD20)*$F$5-$G$5*(AI11+AN11-AI20-AN20)</f>
+        <f t="shared" si="11"/>
         <v>1.4788525206382519</v>
       </c>
       <c r="F20" s="13">
-        <f>U11-U20-(AE11-AE20)*$F$4-$G$4*(AJ11+AO11-AJ20-AO20)</f>
+        <f t="shared" si="12"/>
         <v>1.6792638122047792</v>
       </c>
       <c r="G20" s="13">
-        <f>V11-V20-(AF11-AF20)*$F$3-$G$3*(AK11+AP11-AK20-AP20)</f>
+        <f t="shared" si="13"/>
         <v>1.9778124122535314</v>
       </c>
       <c r="H20" s="22"/>
@@ -2382,31 +3622,31 @@
     </row>
     <row r="24" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <f t="shared" ref="A24:A29" si="9">A15</f>
+        <f t="shared" ref="A24:A29" si="14">A15</f>
         <v>150</v>
       </c>
       <c r="B24" s="13">
-        <f t="shared" ref="B24:B29" si="10">Q6-Q24</f>
+        <f t="shared" ref="B24:B29" si="15">Q6-Q24</f>
         <v>-2.0669769999999996</v>
       </c>
       <c r="C24" s="13">
-        <f>R6-R24-(AB6-AB24)*$F$3-$G$3*(AG6+AL6-AG24-AL24)</f>
+        <f t="shared" ref="C24:C29" si="16">R6-R24-(AB6-AB24)*$F$3-$G$3*(AG6+AL6-AG24-AL24)</f>
         <v>-2.2120258002429747</v>
       </c>
       <c r="D24" s="13">
-        <f>S6-S24-(AC6-AC24)*$F$4-$G$4*(AH6+AM6-AH24-AM24)</f>
+        <f t="shared" ref="D24:D29" si="17">S6-S24-(AC6-AC24)*$F$4-$G$4*(AH6+AM6-AH24-AM24)</f>
         <v>-2.2380596583163204</v>
       </c>
       <c r="E24" s="13">
-        <f>T6-T24-(AD6-AD24)*$F$5-$G$5*(AI6+AN6-AI24-AN24)</f>
+        <f t="shared" ref="E24:E29" si="18">T6-T24-(AD6-AD24)*$F$5-$G$5*(AI6+AN6-AI24-AN24)</f>
         <v>-3.7123305328296503</v>
       </c>
       <c r="F24" s="13">
-        <f>U6-U24-(AE6-AE24)*$F$4-$G$4*(AJ6+AO6-AJ24-AO24)</f>
+        <f t="shared" ref="F24:F29" si="19">U6-U24-(AE6-AE24)*$F$4-$G$4*(AJ6+AO6-AJ24-AO24)</f>
         <v>-3.4544435903006994</v>
       </c>
       <c r="G24" s="13">
-        <f>V6-V24-(AF6-AF24)*$F$3-$G$3*(AK6+AP6-AK24-AP24)</f>
+        <f t="shared" ref="G24:G29" si="20">V6-V24-(AF6-AF24)*$F$3-$G$3*(AK6+AP6-AK24-AP24)</f>
         <v>-3.3819054126885657</v>
       </c>
       <c r="H24" s="22"/>
@@ -2483,31 +3723,31 @@
     </row>
     <row r="25" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="B25" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>-1.0785589999999985</v>
       </c>
       <c r="C25" s="13">
-        <f>R7-R25-(AB7-AB25)*$F$3-$G$3*(AG7+AL7-AG25-AL25)</f>
+        <f t="shared" si="16"/>
         <v>-0.81540672526305613</v>
       </c>
       <c r="D25" s="13">
-        <f>S7-S25-(AC7-AC25)*$F$4-$G$4*(AH7+AM7-AH25-AM25)</f>
+        <f t="shared" si="17"/>
         <v>-0.52920668237618251</v>
       </c>
       <c r="E25" s="13">
-        <f>T7-T25-(AD7-AD25)*$F$5-$G$5*(AI7+AN7-AI25-AN25)</f>
+        <f t="shared" si="18"/>
         <v>-1.0536356850709505</v>
       </c>
       <c r="F25" s="13">
-        <f>U7-U25-(AE7-AE25)*$F$4-$G$4*(AJ7+AO7-AJ25-AO25)</f>
+        <f t="shared" si="19"/>
         <v>-0.96731905449665478</v>
       </c>
       <c r="G25" s="13">
-        <f>V7-V25-(AF7-AF25)*$F$3-$G$3*(AK7+AP7-AK25-AP25)</f>
+        <f t="shared" si="20"/>
         <v>-1.3921295024019331</v>
       </c>
       <c r="H25" s="22"/>
@@ -2584,31 +3824,31 @@
     </row>
     <row r="26" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>250</v>
       </c>
       <c r="B26" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>-0.91056200000000231</v>
       </c>
       <c r="C26" s="13">
-        <f>R8-R26-(AB8-AB26)*$F$3-$G$3*(AG8+AL8-AG26-AL26)</f>
+        <f t="shared" si="16"/>
         <v>-1.2253598002955104</v>
       </c>
       <c r="D26" s="13">
-        <f>S8-S26-(AC8-AC26)*$F$4-$G$4*(AH8+AM8-AH26-AM26)</f>
+        <f t="shared" si="17"/>
         <v>-0.89558481560629444</v>
       </c>
       <c r="E26" s="13">
-        <f>T8-T26-(AD8-AD26)*$F$5-$G$5*(AI8+AN8-AI26-AN26)</f>
+        <f t="shared" si="18"/>
         <v>-0.88810223542570976</v>
       </c>
       <c r="F26" s="13">
-        <f>U8-U26-(AE8-AE26)*$F$4-$G$4*(AJ8+AO8-AJ26-AO26)</f>
+        <f t="shared" si="19"/>
         <v>0.59649505729938967</v>
       </c>
       <c r="G26" s="13">
-        <f>V8-V26-(AF8-AF26)*$F$3-$G$3*(AK8+AP8-AK26-AP26)</f>
+        <f t="shared" si="20"/>
         <v>0.67704325406474331</v>
       </c>
       <c r="H26" s="22"/>
@@ -2685,31 +3925,31 @@
     </row>
     <row r="27" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>300</v>
       </c>
       <c r="B27" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>-1.1803789999999985</v>
       </c>
       <c r="C27" s="13">
-        <f>R9-R27-(AB9-AB27)*$F$3-$G$3*(AG9+AL9-AG27-AL27)</f>
+        <f t="shared" si="16"/>
         <v>0.44868507265198865</v>
       </c>
       <c r="D27" s="13">
-        <f>S9-S27-(AC9-AC27)*$F$4-$G$4*(AH9+AM9-AH27-AM27)</f>
+        <f t="shared" si="17"/>
         <v>2.1441181310187147</v>
       </c>
       <c r="E27" s="13">
-        <f>T9-T27-(AD9-AD27)*$F$5-$G$5*(AI9+AN9-AI27-AN27)</f>
+        <f t="shared" si="18"/>
         <v>2.0627802361276428</v>
       </c>
       <c r="F27" s="13">
-        <f>U9-U27-(AE9-AE27)*$F$4-$G$4*(AJ9+AO9-AJ27-AO27)</f>
+        <f t="shared" si="19"/>
         <v>2.750786117519632</v>
       </c>
       <c r="G27" s="13">
-        <f>V9-V27-(AF9-AF27)*$F$3-$G$3*(AK9+AP9-AK27-AP27)</f>
+        <f t="shared" si="20"/>
         <v>1.9781229196252115</v>
       </c>
       <c r="H27" s="22"/>
@@ -2786,31 +4026,31 @@
     </row>
     <row r="28" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>350</v>
       </c>
       <c r="B28" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>-1.8728480000000012</v>
       </c>
       <c r="C28" s="13">
-        <f>R10-R28-(AB10-AB28)*$F$3-$G$3*(AG10+AL10-AG28-AL28)</f>
+        <f t="shared" si="16"/>
         <v>0.52672966050113379</v>
       </c>
       <c r="D28" s="13">
-        <f>S10-S28-(AC10-AC28)*$F$4-$G$4*(AH10+AM10-AH28-AM28)</f>
+        <f t="shared" si="17"/>
         <v>-0.22610216093519009</v>
       </c>
       <c r="E28" s="13">
-        <f>T10-T28-(AD10-AD28)*$F$5-$G$5*(AI10+AN10-AI28-AN28)</f>
+        <f t="shared" si="18"/>
         <v>-2.2135830637894514</v>
       </c>
       <c r="F28" s="13">
-        <f>U10-U28-(AE10-AE28)*$F$4-$G$4*(AJ10+AO10-AJ28-AO28)</f>
+        <f t="shared" si="19"/>
         <v>-1.4388247310636857</v>
       </c>
       <c r="G28" s="13">
-        <f>V10-V28-(AF10-AF28)*$F$3-$G$3*(AK10+AP10-AK28-AP28)</f>
+        <f t="shared" si="20"/>
         <v>-1.9503320778383404</v>
       </c>
       <c r="H28" s="22"/>
@@ -2887,31 +4127,31 @@
     </row>
     <row r="29" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="B29" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>-2.3554600000000008</v>
       </c>
       <c r="C29" s="13">
-        <f>R11-R29-(AB11-AB29)*$F$3-$G$3*(AG11+AL11-AG29-AL29)</f>
+        <f t="shared" si="16"/>
         <v>-1.9598437733184275</v>
       </c>
       <c r="D29" s="13">
-        <f>S11-S29-(AC11-AC29)*$F$4-$G$4*(AH11+AM11-AH29-AM29)</f>
+        <f t="shared" si="17"/>
         <v>-2.8700603170286088</v>
       </c>
       <c r="E29" s="13">
-        <f>T11-T29-(AD11-AD29)*$F$5-$G$5*(AI11+AN11-AI29-AN29)</f>
+        <f t="shared" si="18"/>
         <v>-3.8924936757891757</v>
       </c>
       <c r="F29" s="13">
-        <f>U11-U29-(AE11-AE29)*$F$4-$G$4*(AJ11+AO11-AJ29-AO29)</f>
+        <f t="shared" si="19"/>
         <v>-2.3913152697830591</v>
       </c>
       <c r="G29" s="13">
-        <f>V11-V29-(AF11-AF29)*$F$3-$G$3*(AK11+AP11-AK29-AP29)</f>
+        <f t="shared" si="20"/>
         <v>-2.2175022708252454</v>
       </c>
       <c r="H29" s="22"/>
@@ -2986,470 +4226,695 @@
         <v>31.954779049382708</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
       <c r="P30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q30" s="2"/>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+        <v>45</v>
+      </c>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="55"/>
+      <c r="AB30" s="55"/>
+      <c r="AC30" s="55"/>
+      <c r="AD30" s="55"/>
+      <c r="AE30" s="55"/>
+      <c r="AF30" s="55"/>
+      <c r="AG30" s="55"/>
+      <c r="AH30" s="55"/>
+      <c r="AI30" s="55"/>
+      <c r="AJ30" s="55"/>
+      <c r="AK30" s="55"/>
+      <c r="AL30" s="55"/>
+      <c r="AM30" s="55"/>
+      <c r="AN30" s="55"/>
+      <c r="AO30" s="55"/>
+      <c r="AP30" s="55"/>
+    </row>
+    <row r="31" spans="1:42" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="55"/>
+      <c r="AC31" s="55"/>
+      <c r="AD31" s="55"/>
+      <c r="AE31" s="55"/>
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="55"/>
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="55"/>
+      <c r="AJ31" s="55"/>
+      <c r="AK31" s="55"/>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="55"/>
+      <c r="AO31" s="55"/>
+      <c r="AP31" s="55"/>
+    </row>
+    <row r="32" spans="1:42" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="58"/>
+      <c r="AA32" s="58"/>
+      <c r="AB32" s="58"/>
+      <c r="AC32" s="58"/>
+      <c r="AD32" s="58"/>
+      <c r="AE32" s="58"/>
+      <c r="AF32" s="55"/>
+      <c r="AG32" s="55"/>
+      <c r="AH32" s="55"/>
+      <c r="AI32" s="55"/>
+      <c r="AJ32" s="55"/>
+      <c r="AK32" s="55"/>
+      <c r="AL32" s="55"/>
+      <c r="AM32" s="55"/>
+      <c r="AN32" s="55"/>
+      <c r="AO32" s="55"/>
+      <c r="AP32" s="55"/>
+    </row>
+    <row r="33" spans="1:57" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="56">
+        <f>P33</f>
+        <v>150</v>
+      </c>
+      <c r="B33" s="13">
+        <f>Q6-Q33</f>
+        <v>-0.98927500000000101</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13">
+        <f>S6-S33-(AC6-AC33)*$F$4-$G$4*(AH6+AM6-AH33-AM33)</f>
+        <v>3.2249096574213736</v>
+      </c>
+      <c r="E33" s="13">
+        <f>T6-T33-(AD6-AD33)*$F$5-$G$5*(AI6+AN6-AI33-AN33)</f>
+        <v>2.3362336583113508</v>
+      </c>
+      <c r="F33" s="13">
+        <f>U6-U33-(AE6-AE33)*$F$4-$G$4*(AJ6+AO6-AJ33-AO33)</f>
+        <v>0.76971255851415532</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="44">
+        <v>1</v>
+      </c>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22">
+        <f>(X33*$I$33*$K$3+$L$3+$Q33-S33)/(X33*$I$33)</f>
+        <v>1.389123059466763</v>
+      </c>
+      <c r="L33" s="22">
+        <f t="shared" ref="L33:M33" si="21">(Y33*$I$33*$K$3+$L$3+$Q33-T33)/(Y33*$I$33)</f>
+        <v>1.3397786777143008</v>
+      </c>
+      <c r="M33" s="22">
+        <f t="shared" si="21"/>
+        <v>1.4011950937211404</v>
+      </c>
+      <c r="N33" s="22"/>
+      <c r="P33" s="7">
+        <v>150</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>9.6736520000000006</v>
+      </c>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12">
+        <v>6.5815534193548402</v>
+      </c>
+      <c r="T33" s="12">
+        <v>6.3078298387096803</v>
+      </c>
+      <c r="U33" s="12">
+        <v>6.5307742903225803</v>
+      </c>
+      <c r="V33" s="12"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34">
+        <v>3.63047087096774</v>
+      </c>
+      <c r="Y33" s="34">
+        <v>4.2024845806451596</v>
+      </c>
+      <c r="Z33" s="34">
+        <v>3.6386197096774202</v>
+      </c>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12">
+        <v>50.1180807096774</v>
+      </c>
+      <c r="AD33" s="12">
+        <v>50.165017451612897</v>
+      </c>
+      <c r="AE33" s="12">
+        <v>50.1660379677419</v>
+      </c>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="32"/>
+      <c r="AH33" s="32">
+        <v>3.7297872580645199</v>
+      </c>
+      <c r="AI33" s="32">
+        <v>4.1692492258064497</v>
+      </c>
+      <c r="AJ33" s="32">
+        <v>2.98407783870968</v>
+      </c>
+      <c r="AK33" s="32"/>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="12">
+        <v>31.182671483871001</v>
+      </c>
+      <c r="AN33" s="12">
+        <v>30.439076</v>
+      </c>
+      <c r="AO33" s="12">
+        <v>30.873075354838701</v>
+      </c>
+      <c r="AP33" s="12"/>
+      <c r="AQ33"/>
+      <c r="AR33"/>
+      <c r="AS33"/>
+      <c r="AT33"/>
+      <c r="AU33"/>
+      <c r="AV33"/>
+      <c r="AW33"/>
+      <c r="AX33"/>
+      <c r="AY33"/>
+      <c r="AZ33" s="36"/>
+      <c r="BA33" s="36"/>
+      <c r="BB33" s="36"/>
+      <c r="BC33" s="36"/>
+      <c r="BD33" s="36"/>
+      <c r="BE33" s="36"/>
+    </row>
+    <row r="34" spans="1:57" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="56">
+        <f t="shared" ref="A34:A36" si="22">P34</f>
+        <v>200</v>
+      </c>
+      <c r="B34" s="13">
+        <f t="shared" ref="B34:B36" si="23">Q7-Q34</f>
+        <v>-0.74738299999999924</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13">
+        <f t="shared" ref="D34:F36" si="24">S7-S34-(AC7-AC34)*$F$4-$G$4*(AH7+AM7-AH34-AM34)</f>
+        <v>1.3152433803404788</v>
+      </c>
+      <c r="E34" s="13">
+        <f t="shared" ref="E34:E36" si="25">T7-T34-(AD7-AD34)*$F$5-$G$5*(AI7+AN7-AI34-AN34)</f>
+        <v>1.0550331881283443</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="24"/>
+        <v>-9.3074395498870421E-2</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="44">
+        <v>1</v>
+      </c>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22">
+        <f>(X34*$I$34*$K$4+$L$4+$Q34-S34)/(X34*$I$34)</f>
+        <v>1.3448605627177206</v>
+      </c>
+      <c r="L34" s="22">
+        <f t="shared" ref="L34:M34" si="26">(Y34*$I$34*$K$4+$L$4+$Q34-T34)/(Y34*$I$34)</f>
+        <v>1.2883274638388706</v>
+      </c>
+      <c r="M34" s="22">
+        <f t="shared" si="26"/>
+        <v>1.328286836864103</v>
+      </c>
+      <c r="N34" s="22"/>
+      <c r="P34" s="7">
+        <v>200</v>
+      </c>
+      <c r="Q34" s="12">
+        <v>13.785767</v>
+      </c>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12">
+        <v>10.4130027096774</v>
+      </c>
+      <c r="T34" s="12">
+        <v>10.1989359677419</v>
+      </c>
+      <c r="U34" s="12">
+        <v>10.483904774193499</v>
+      </c>
+      <c r="V34" s="12"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34">
+        <v>4.18439393548387</v>
+      </c>
+      <c r="Y34" s="34">
+        <v>4.7931346774193502</v>
+      </c>
+      <c r="Z34" s="34">
+        <v>4.1824059354838701</v>
+      </c>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12">
+        <v>49.9107195483871</v>
+      </c>
+      <c r="AD34" s="12">
+        <v>49.972070225806398</v>
+      </c>
+      <c r="AE34" s="12">
+        <v>50.002038354838703</v>
+      </c>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="32"/>
+      <c r="AH34" s="32">
+        <v>2.5389995483871002</v>
+      </c>
+      <c r="AI34" s="32">
+        <v>2.97494383870968</v>
+      </c>
+      <c r="AJ34" s="32">
+        <v>2.1641670645161302</v>
+      </c>
+      <c r="AK34" s="32"/>
+      <c r="AL34" s="12"/>
+      <c r="AM34" s="12">
+        <v>29.947248645161299</v>
+      </c>
+      <c r="AN34" s="12">
+        <v>29.2137748064516</v>
+      </c>
+      <c r="AO34" s="12">
+        <v>29.687694838709699</v>
+      </c>
+      <c r="AP34" s="12"/>
+      <c r="AQ34"/>
+      <c r="AR34"/>
+      <c r="AS34"/>
+      <c r="AT34"/>
+      <c r="AU34"/>
+      <c r="AV34"/>
+      <c r="AW34"/>
+      <c r="AX34"/>
+      <c r="AY34"/>
+      <c r="AZ34" s="36"/>
+      <c r="BA34" s="36"/>
+      <c r="BB34" s="36"/>
+      <c r="BC34" s="36"/>
+      <c r="BD34" s="36"/>
+      <c r="BE34" s="36"/>
+    </row>
+    <row r="35" spans="1:57" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="56">
+        <f t="shared" si="22"/>
+        <v>250</v>
+      </c>
+      <c r="B35" s="13">
+        <f t="shared" si="23"/>
+        <v>-0.82990600000000114</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13">
+        <f t="shared" si="24"/>
+        <v>-0.88120202121322699</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" si="25"/>
+        <v>-0.54747332963003625</v>
+      </c>
+      <c r="F35" s="13">
+        <f t="shared" si="24"/>
+        <v>-0.56686171699367649</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="44">
+        <v>1</v>
+      </c>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22">
+        <f>(X35*$I$35*$K$5+$L$5+$Q35-S35)/(X35*$I$35)</f>
+        <v>1.3060505144230325</v>
+      </c>
+      <c r="L35" s="22">
+        <f t="shared" ref="L35:M35" si="27">(Y35*$I$35*$K$5+$L$5+$Q35-T35)/(Y35*$I$35)</f>
+        <v>1.2689695106784979</v>
+      </c>
+      <c r="M35" s="22">
+        <f t="shared" si="27"/>
+        <v>1.2833019251802766</v>
+      </c>
+      <c r="N35" s="22"/>
+      <c r="P35" s="7">
+        <v>250</v>
+      </c>
+      <c r="Q35" s="12">
+        <v>18.675742</v>
+      </c>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12">
+        <v>14.7454349677419</v>
+      </c>
+      <c r="T35" s="12">
+        <v>14.391017064516101</v>
+      </c>
+      <c r="U35" s="12">
+        <v>14.859460064516099</v>
+      </c>
+      <c r="V35" s="12"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34">
+        <v>4.8260128387096799</v>
+      </c>
+      <c r="Y35" s="34">
+        <v>5.5073575806451602</v>
+      </c>
+      <c r="Z35" s="34">
+        <v>4.8206937741935496</v>
+      </c>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12">
+        <v>49.691671483870998</v>
+      </c>
+      <c r="AD35" s="12">
+        <v>49.760520483870998</v>
+      </c>
+      <c r="AE35" s="12">
+        <v>49.776057064516102</v>
+      </c>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="32"/>
+      <c r="AH35" s="32">
+        <v>1.8249681612903199</v>
+      </c>
+      <c r="AI35" s="32">
+        <v>2.3772176129032299</v>
+      </c>
+      <c r="AJ35" s="32">
+        <v>1.61334022580645</v>
+      </c>
+      <c r="AK35" s="32"/>
+      <c r="AL35" s="12"/>
+      <c r="AM35" s="12">
+        <v>28.9926969677419</v>
+      </c>
+      <c r="AN35" s="12">
+        <v>28.125794548387098</v>
+      </c>
+      <c r="AO35" s="12">
+        <v>28.8276018387097</v>
+      </c>
+      <c r="AP35" s="12"/>
+      <c r="AQ35"/>
+      <c r="AR35"/>
+      <c r="AS35"/>
+      <c r="AT35"/>
+      <c r="AU35"/>
+      <c r="AV35"/>
+      <c r="AW35"/>
+      <c r="AX35"/>
+      <c r="AY35"/>
+      <c r="AZ35" s="36"/>
+      <c r="BA35" s="36"/>
+      <c r="BB35" s="36"/>
+      <c r="BC35" s="36"/>
+      <c r="BD35" s="36"/>
+      <c r="BE35" s="36"/>
+    </row>
+    <row r="36" spans="1:57" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="56">
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
-      <c r="B33" s="13">
-        <f>Q9-Q33</f>
-        <v>-1.4138449999999985</v>
-      </c>
-      <c r="C33" s="13">
-        <f>R9-R33-(AB9-AB33)*$F$3-$G$3*(AG9+AL9-AG33-AL33)</f>
-        <v>-0.96281279983395374</v>
-      </c>
-      <c r="D33" s="13">
-        <f>S9-S33-(AC9-AC33)*$F$4-$G$4*(AH9+AM9-AH33-AM33)</f>
-        <v>-1.4874922185311226</v>
-      </c>
-      <c r="E33" s="13">
-        <f>T9-T33-(AD9-AD33)*$F$5-$G$5*(AI9+AN9-AI33-AN33)</f>
-        <v>-0.6654500764604443</v>
-      </c>
-      <c r="F33" s="13">
-        <f>U9-U33-(AE9-AE33)*$F$4-$G$4*(AJ9+AO9-AJ33-AO33)</f>
-        <v>-1.6619004208506087</v>
-      </c>
-      <c r="G33" s="13">
-        <f>V9-V33-(AF9-AF33)*$F$3-$G$3*(AK9+AP9-AK33-AP33)</f>
-        <v>-1.1382481177128683</v>
-      </c>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="P33" s="25">
+      <c r="B36" s="13">
+        <f t="shared" si="23"/>
+        <v>-1.4065419999999982</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13">
+        <f t="shared" si="24"/>
+        <v>-0.55408000636518462</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="25"/>
+        <v>-0.71264407975467914</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="24"/>
+        <v>-1.0283174446804997</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="44">
+        <v>1</v>
+      </c>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22">
+        <f>(X36*$I$36*$K$6+$L$6+$Q36-S36)/(X36*$I$36)</f>
+        <v>1.4064520524996162</v>
+      </c>
+      <c r="L36" s="22">
+        <f t="shared" ref="L36:M36" si="28">(Y36*$I$36*$K$6+$L$6+$Q36-T36)/(Y36*$I$36)</f>
+        <v>1.3450611396823555</v>
+      </c>
+      <c r="M36" s="22">
+        <f t="shared" si="28"/>
+        <v>1.3685938317163155</v>
+      </c>
+      <c r="N36" s="22"/>
+      <c r="P36" s="7">
         <v>300</v>
       </c>
-      <c r="Q33" s="12">
-        <v>24.568686</v>
-      </c>
-      <c r="R33" s="12">
-        <v>21.795459000000001</v>
-      </c>
-      <c r="S33" s="12">
-        <v>21.243126</v>
-      </c>
-      <c r="T33" s="12">
-        <v>20.498609999999999</v>
-      </c>
-      <c r="U33" s="12">
-        <v>21.118689</v>
-      </c>
-      <c r="V33" s="12">
-        <v>21.756032000000001</v>
-      </c>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="12">
-        <v>49.758894222222224</v>
-      </c>
-      <c r="AC33" s="12">
-        <v>49.823551490740755</v>
-      </c>
-      <c r="AD33" s="12">
-        <v>50.126772391975265</v>
-      </c>
-      <c r="AE33" s="12">
-        <v>50.336808462962928</v>
-      </c>
-      <c r="AF33" s="12">
-        <v>50.391712796296304</v>
-      </c>
-      <c r="AG33" s="12">
-        <v>1.1143746296296295</v>
-      </c>
-      <c r="AH33" s="12">
-        <v>1.2913240092592591</v>
-      </c>
-      <c r="AI33" s="12">
-        <v>1.8842902391975329</v>
-      </c>
-      <c r="AJ33" s="12">
-        <v>0.97520097222222235</v>
-      </c>
-      <c r="AK33" s="12">
-        <v>0.63998788888888902</v>
-      </c>
-      <c r="AL33" s="12">
-        <v>31.483166537037036</v>
-      </c>
-      <c r="AM33" s="12">
-        <v>28.963608916666661</v>
-      </c>
-      <c r="AN33" s="12">
-        <v>28.439878338734598</v>
-      </c>
-      <c r="AO33" s="12">
-        <v>28.923518148148148</v>
-      </c>
-      <c r="AP33" s="12">
-        <v>31.916907361111107</v>
-      </c>
-      <c r="AQ33" s="25"/>
-      <c r="AR33" s="25"/>
-      <c r="AS33" s="25"/>
-      <c r="AT33" s="25"/>
-      <c r="AU33" s="25"/>
-    </row>
-    <row r="34" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>300</v>
-      </c>
-      <c r="B34" s="13">
-        <f>Q9-Q34</f>
-        <v>-1.4138449999999985</v>
-      </c>
-      <c r="C34" s="13">
-        <f>R9-R34-(AB9-AB34)*$F$3-$G$3*(AG9+AL9-AG34-AL34)</f>
-        <v>-0.37240806096531331</v>
-      </c>
-      <c r="D34" s="13">
-        <f>S9-S34-(AC9-AC34)*$F$4-$G$4*(AH9+AM9-AH34-AM34)</f>
-        <v>-1.2626769716424957</v>
-      </c>
-      <c r="E34" s="13">
-        <f>T9-T34-(AD9-AD34)*$F$5-$G$5*(AI9+AN9-AI34-AN34)</f>
-        <v>-0.66127575520242066</v>
-      </c>
-      <c r="F34" s="13">
-        <f>U9-U34-(AE9-AE34)*$F$4-$G$4*(AJ9+AO9-AJ34-AO34)</f>
-        <v>-1.8105825120797454</v>
-      </c>
-      <c r="G34" s="13">
-        <f>V9-V34-(AF9-AF34)*$F$3-$G$3*(AK9+AP9-AK34-AP34)</f>
-        <v>-1.3184082039938692</v>
-      </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="P34" s="6">
-        <v>300</v>
-      </c>
-      <c r="Q34" s="12">
-        <v>24.568686</v>
-      </c>
-      <c r="R34" s="12">
-        <v>21.795459000000001</v>
-      </c>
-      <c r="S34" s="12">
-        <v>21.243126</v>
-      </c>
-      <c r="T34" s="12">
-        <v>20.498609999999999</v>
-      </c>
-      <c r="U34" s="12">
-        <v>21.118689</v>
-      </c>
-      <c r="V34" s="12">
-        <v>21.756032000000001</v>
-      </c>
-      <c r="AB34" s="12">
-        <v>49.98515523333333</v>
-      </c>
-      <c r="AC34" s="12">
-        <v>49.99636751111111</v>
-      </c>
-      <c r="AD34" s="12">
-        <v>50.127792843518456</v>
-      </c>
-      <c r="AE34" s="12">
-        <v>50.23466196666665</v>
-      </c>
-      <c r="AF34" s="12">
-        <v>50.248673199999999</v>
-      </c>
-      <c r="AG34" s="12">
-        <v>1.1283096666666665</v>
-      </c>
-      <c r="AH34" s="12">
-        <v>1.3120048222222223</v>
-      </c>
-      <c r="AI34" s="12">
-        <v>1.8846894500000035</v>
-      </c>
-      <c r="AJ34" s="12">
-        <v>0.97163143333333324</v>
-      </c>
-      <c r="AK34" s="12">
-        <v>0.64521542222222239</v>
-      </c>
-      <c r="AL34" s="12">
-        <v>31.823907766666675</v>
-      </c>
-      <c r="AM34" s="12">
-        <v>29.002110077777761</v>
-      </c>
-      <c r="AN34" s="12">
-        <v>28.442452605555598</v>
-      </c>
-      <c r="AO34" s="12">
-        <v>28.87734322222223</v>
-      </c>
-      <c r="AP34" s="12">
-        <v>31.868516188888883</v>
-      </c>
-    </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="P35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="4"/>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
-      <c r="AN35" s="4"/>
-      <c r="AO35" s="4"/>
-      <c r="AP35" s="4"/>
-    </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
-      <c r="AE36" s="4"/>
-      <c r="AF36" s="4"/>
-      <c r="AG36" s="4"/>
-      <c r="AH36" s="4"/>
-      <c r="AI36" s="4"/>
-      <c r="AJ36" s="4"/>
-      <c r="AK36" s="4"/>
-      <c r="AL36" s="4"/>
-      <c r="AM36" s="4"/>
-      <c r="AN36" s="4"/>
-      <c r="AO36" s="4"/>
-      <c r="AP36" s="4"/>
-    </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="P37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
-      <c r="AD37" s="4"/>
-      <c r="AE37" s="4"/>
-      <c r="AF37" s="4"/>
-      <c r="AG37" s="4"/>
-      <c r="AH37" s="4"/>
-      <c r="AI37" s="4"/>
-      <c r="AJ37" s="4"/>
-      <c r="AK37" s="4"/>
-      <c r="AL37" s="4"/>
-      <c r="AM37" s="4"/>
-      <c r="AN37" s="4"/>
-      <c r="AO37" s="4"/>
-      <c r="AP37" s="4"/>
-    </row>
-    <row r="38" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <v>300</v>
-      </c>
-      <c r="B38" s="13">
-        <f>Q9-Q38</f>
-        <v>-1.4455039999999997</v>
-      </c>
-      <c r="C38" s="13">
-        <f>R9-R38-(AB9-AB38)*$F$3-$G$3*(AG9+AL9-AG38-AL38)</f>
-        <v>-2.0498580096013583</v>
-      </c>
-      <c r="D38" s="13">
-        <f>S9-S38-(AC9-AC38)*$F$4-$G$4*(AH9+AM9-AH38-AM38)</f>
-        <v>-2.5723586371353098</v>
-      </c>
-      <c r="E38" s="13">
-        <f>T9-T38-(AD9-AD38)*$F$5-$G$5*(AI9+AN9-AI38-AN38)</f>
-        <v>-1.7679528223424115</v>
-      </c>
-      <c r="F38" s="13">
-        <f>U9-U38-(AE9-AE38)*$F$5-$G$5*(AJ9+AO9-AJ38-AO38)</f>
-        <v>-2.3465850441791343</v>
-      </c>
-      <c r="G38" s="13">
-        <f>V9-V38-(AF9-AF38)*$F$3-$G$3*(AK9+AP9-AK38-AP38)</f>
-        <v>-1.6906513985599538</v>
-      </c>
+      <c r="Q36" s="12">
+        <v>24.561382999999999</v>
+      </c>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12">
+        <v>19.330484838709701</v>
+      </c>
+      <c r="T36" s="12">
+        <v>18.9642855483871</v>
+      </c>
+      <c r="U36" s="12">
+        <v>19.554142193548401</v>
+      </c>
+      <c r="V36" s="12"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34">
+        <v>5.7127328709677396</v>
+      </c>
+      <c r="Y36" s="34">
+        <v>6.5474030645161303</v>
+      </c>
+      <c r="Z36" s="34">
+        <v>5.7043658387096796</v>
+      </c>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12">
+        <v>50.137949903225802</v>
+      </c>
+      <c r="AD36" s="12">
+        <v>49.439257258064501</v>
+      </c>
+      <c r="AE36" s="12">
+        <v>49.536264451612901</v>
+      </c>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="32"/>
+      <c r="AH36" s="32">
+        <v>1.1819031612903199</v>
+      </c>
+      <c r="AI36" s="32">
+        <v>2.4040775483871002</v>
+      </c>
+      <c r="AJ36" s="32">
+        <v>1.6126497419354799</v>
+      </c>
+      <c r="AK36" s="32"/>
+      <c r="AL36" s="12"/>
+      <c r="AM36" s="12">
+        <v>27.883549580645202</v>
+      </c>
+      <c r="AN36" s="12">
+        <v>27.0474471935484</v>
+      </c>
+      <c r="AO36" s="12">
+        <v>28.115129516128999</v>
+      </c>
+      <c r="AP36" s="12"/>
+      <c r="AQ36"/>
+      <c r="AR36"/>
+      <c r="AS36"/>
+      <c r="AT36"/>
+      <c r="AU36"/>
+      <c r="AV36"/>
+      <c r="AW36"/>
+      <c r="AX36"/>
+      <c r="AY36"/>
+      <c r="AZ36" s="36"/>
+      <c r="BA36" s="36"/>
+      <c r="BB36" s="36"/>
+      <c r="BC36" s="36"/>
+      <c r="BD36" s="36"/>
+      <c r="BE36" s="36"/>
+    </row>
+    <row r="37" spans="1:57" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="P37" s="7"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
+      <c r="AL37"/>
+      <c r="AM37"/>
+      <c r="AN37"/>
+      <c r="AO37"/>
+      <c r="AP37"/>
+    </row>
+    <row r="38" spans="1:57" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
       <c r="H38" s="22"/>
-      <c r="I38" s="44">
-        <v>1.2</v>
-      </c>
-      <c r="J38" s="45">
-        <f>(W38*$I$38*$K$6+$L$6+$Q38-R38)/(W38*$I$38)</f>
-        <v>1.1958394310364449</v>
-      </c>
-      <c r="K38" s="45">
-        <f>(X38*$I$38*$K$6+$L$6+$Q38-S38)/(X38*$I$38)</f>
-        <v>1.2064193800357024</v>
-      </c>
-      <c r="L38" s="45">
-        <f>(Y38*$I$38*$K$6+$L$6+$Q38-T38)/(Y38*$I$38)</f>
-        <v>1.1996127339145859</v>
-      </c>
-      <c r="M38" s="45">
-        <f>(Z38*$I$38*$K$6+$L$6+$Q38-U38)/(Z38*$I$38)</f>
-        <v>1.2055266017069981</v>
-      </c>
-      <c r="N38" s="45">
-        <f>(AA38*$I$38*$K$6+$L$6+$Q38-V38)/(AA38*$I$38)</f>
-        <v>1.1899907118243938</v>
-      </c>
-      <c r="P38" s="7">
-        <v>300</v>
-      </c>
-      <c r="Q38" s="15">
-        <v>24.600345000000001</v>
-      </c>
-      <c r="R38" s="14">
-        <v>21.781759000000001</v>
-      </c>
-      <c r="S38" s="14">
-        <v>21.22176</v>
-      </c>
-      <c r="T38" s="14">
-        <v>20.634664000000001</v>
-      </c>
-      <c r="U38" s="14">
-        <v>21.185558</v>
-      </c>
-      <c r="V38" s="14">
-        <v>21.772659999999998</v>
-      </c>
-      <c r="W38" s="14">
-        <v>3.3408169666666669</v>
-      </c>
-      <c r="X38" s="14">
-        <v>3.9396470561797745</v>
-      </c>
-      <c r="Y38" s="14">
-        <v>4.6629658739573676</v>
-      </c>
-      <c r="Z38" s="14">
-        <v>3.9864729777777774</v>
-      </c>
-      <c r="AA38" s="14">
-        <v>3.3793511460674144</v>
-      </c>
-      <c r="AB38" s="14">
-        <v>50.213429766666678</v>
-      </c>
-      <c r="AC38" s="14">
-        <v>50.219729600000001</v>
-      </c>
-      <c r="AD38" s="14">
-        <v>50.327576287037097</v>
-      </c>
-      <c r="AE38" s="14">
-        <v>50.420485388888885</v>
-      </c>
-      <c r="AF38" s="14">
-        <v>50.425923699999998</v>
-      </c>
-      <c r="AG38" s="33">
-        <v>-0.14740822222222219</v>
-      </c>
-      <c r="AH38" s="33">
-        <v>0.19618720000000001</v>
-      </c>
-      <c r="AI38" s="33">
-        <v>1.1275081509259253</v>
-      </c>
-      <c r="AJ38" s="33">
-        <v>0.42963937777777794</v>
-      </c>
-      <c r="AK38" s="33">
-        <v>0.16849598888888889</v>
-      </c>
-      <c r="AL38" s="14">
-        <v>31.313106399999995</v>
-      </c>
-      <c r="AM38" s="14">
-        <v>28.679193811111109</v>
-      </c>
-      <c r="AN38" s="14">
-        <v>28.13941986944447</v>
-      </c>
-      <c r="AO38" s="14">
-        <v>28.81640967777777</v>
-      </c>
-      <c r="AP38" s="14">
-        <v>31.855918822222218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <v>600</v>
-      </c>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="P38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="55"/>
+      <c r="Y38" s="55"/>
+      <c r="Z38" s="55"/>
+      <c r="AA38" s="55"/>
+      <c r="AB38" s="55"/>
+      <c r="AC38" s="55"/>
+      <c r="AD38" s="55"/>
+      <c r="AE38" s="55"/>
+      <c r="AF38" s="55"/>
+      <c r="AG38" s="55"/>
+      <c r="AH38" s="55"/>
+      <c r="AI38" s="55"/>
+      <c r="AJ38" s="55"/>
+      <c r="AK38" s="55"/>
+      <c r="AL38" s="55"/>
+      <c r="AM38" s="55"/>
+      <c r="AN38" s="55"/>
+      <c r="AO38" s="55"/>
+      <c r="AP38" s="55"/>
+    </row>
+    <row r="39" spans="1:57" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -3457,1051 +4922,2165 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="22"/>
-      <c r="I39" s="44">
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="55"/>
+      <c r="T39" s="55"/>
+      <c r="U39" s="55"/>
+      <c r="V39" s="55"/>
+      <c r="W39" s="55"/>
+      <c r="X39" s="55"/>
+      <c r="Y39" s="55"/>
+      <c r="Z39" s="55"/>
+      <c r="AA39" s="55"/>
+      <c r="AB39" s="55"/>
+      <c r="AC39" s="55"/>
+      <c r="AD39" s="55"/>
+      <c r="AE39" s="55"/>
+      <c r="AF39" s="55"/>
+      <c r="AG39" s="55"/>
+      <c r="AH39" s="55"/>
+      <c r="AI39" s="55"/>
+      <c r="AJ39" s="55"/>
+      <c r="AK39" s="55"/>
+      <c r="AL39" s="55"/>
+      <c r="AM39" s="55"/>
+      <c r="AN39" s="55"/>
+      <c r="AO39" s="55"/>
+      <c r="AP39" s="55"/>
+    </row>
+    <row r="40" spans="1:57" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="R40" s="58"/>
+      <c r="S40" s="58"/>
+      <c r="T40" s="58"/>
+      <c r="U40" s="58"/>
+      <c r="V40" s="58"/>
+      <c r="W40" s="58"/>
+      <c r="X40" s="58"/>
+      <c r="Y40" s="58"/>
+      <c r="Z40" s="58"/>
+      <c r="AA40" s="58"/>
+      <c r="AB40" s="58"/>
+      <c r="AC40" s="58"/>
+      <c r="AD40" s="58"/>
+      <c r="AE40" s="58"/>
+      <c r="AF40" s="55"/>
+      <c r="AG40" s="55"/>
+      <c r="AH40" s="55"/>
+      <c r="AI40" s="55"/>
+      <c r="AJ40" s="55"/>
+      <c r="AK40" s="55"/>
+      <c r="AL40" s="55"/>
+      <c r="AM40" s="55"/>
+      <c r="AN40" s="55"/>
+      <c r="AO40" s="55"/>
+      <c r="AP40" s="55"/>
+    </row>
+    <row r="41" spans="1:57" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="56">
+        <f>P41</f>
+        <v>150</v>
+      </c>
+      <c r="B41" s="13">
+        <f>Q6-Q41</f>
+        <v>-0.55414700000000039</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13">
+        <f>S6-S41-(AC6-AC41)*$F$4-$G$4*(AH6+AM6-AH41-AM41)</f>
+        <v>1.8188976312115162</v>
+      </c>
+      <c r="E41" s="13">
+        <f>T6-T41-(AD6-AD41)*$F$5-$G$5*(AI6+AN6-AI41-AN41)</f>
+        <v>1.4179228771996006</v>
+      </c>
+      <c r="F41" s="13">
+        <f>U6-U41-(AE6-AE41)*$F$4-$G$4*(AJ6+AO6-AJ41-AO41)</f>
+        <v>6.45598045324558E-3</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="44">
+        <v>1</v>
+      </c>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22">
+        <f>(X41*$I$41*$K$3+$L$3+$Q41-S41)/(X41*$I$41)</f>
+        <v>1.3203727987709568</v>
+      </c>
+      <c r="L41" s="22">
+        <f>(Y41*$I$41*$K$3+$L$3+$Q41-T41)/(Y41*$I$41)</f>
+        <v>1.2465253958514668</v>
+      </c>
+      <c r="M41" s="22">
+        <f>(Z41*$I$41*$K$3+$L$3+$Q41-U41)/(Z41*$I$41)</f>
+        <v>1.3092809170794484</v>
+      </c>
+      <c r="N41" s="22"/>
+      <c r="P41" s="7">
+        <v>150</v>
+      </c>
+      <c r="Q41" s="12">
+        <v>9.238524</v>
+      </c>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12">
+        <v>6.13008229032258</v>
+      </c>
+      <c r="T41" s="12">
+        <v>5.9199886774193597</v>
+      </c>
+      <c r="U41" s="12">
+        <v>6.1598161612903199</v>
+      </c>
+      <c r="V41" s="12"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="34">
+        <v>3.97481732258065</v>
+      </c>
+      <c r="Y41" s="34">
+        <v>4.6958729354838704</v>
+      </c>
+      <c r="Z41" s="34">
+        <v>3.9936746129032299</v>
+      </c>
+      <c r="AA41" s="34"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12">
+        <v>49.9500356451613</v>
+      </c>
+      <c r="AD41" s="12">
+        <v>50.0061939032258</v>
+      </c>
+      <c r="AE41" s="12">
+        <v>50.015281935483898</v>
+      </c>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="32"/>
+      <c r="AH41" s="32">
+        <v>2.9833646129032299</v>
+      </c>
+      <c r="AI41" s="32">
+        <v>3.6240154516129</v>
+      </c>
+      <c r="AJ41" s="32">
+        <v>2.6943278387096798</v>
+      </c>
+      <c r="AK41" s="32"/>
+      <c r="AL41" s="12"/>
+      <c r="AM41" s="12">
+        <v>30.340196032258099</v>
+      </c>
+      <c r="AN41" s="12">
+        <v>29.9184849677419</v>
+      </c>
+      <c r="AO41" s="12">
+        <v>30.234648161290298</v>
+      </c>
+      <c r="AP41" s="12"/>
+      <c r="AQ41"/>
+      <c r="AR41"/>
+      <c r="AS41"/>
+      <c r="AT41"/>
+      <c r="AU41"/>
+      <c r="AV41"/>
+      <c r="AW41"/>
+      <c r="AX41"/>
+      <c r="AY41"/>
+      <c r="AZ41" s="36"/>
+      <c r="BA41" s="36"/>
+      <c r="BB41" s="36"/>
+      <c r="BC41" s="36"/>
+      <c r="BD41" s="36"/>
+      <c r="BE41" s="36"/>
+    </row>
+    <row r="42" spans="1:57" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="56">
+        <f t="shared" ref="A42:A43" si="29">P42</f>
+        <v>200</v>
+      </c>
+      <c r="B42" s="13">
+        <f>Q7-Q42</f>
+        <v>-0.63966399999999979</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13">
+        <f>S7-S42-(AC7-AC42)*$F$4-$G$4*(AH7+AM7-AH42-AM42)</f>
+        <v>0.76793658406791165</v>
+      </c>
+      <c r="E42" s="13">
+        <f>T7-T42-(AD7-AD42)*$F$5-$G$5*(AI7+AN7-AI42-AN42)</f>
+        <v>1.1495651348209377</v>
+      </c>
+      <c r="F42" s="13">
+        <f>U7-U42-(AE7-AE42)*$F$4-$G$4*(AJ7+AO7-AJ42-AO42)</f>
+        <v>-0.23047463567714727</v>
+      </c>
+      <c r="G42" s="13"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="44">
+        <v>1</v>
+      </c>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22">
+        <f>(X42*$I$42*$K$4+$L$4+$Q42-S42)/(X42*$I$42)</f>
+        <v>1.4420799745931816</v>
+      </c>
+      <c r="L42" s="22">
+        <f>(Y42*$I$42*$K$4+$L$4+$Q42-T42)/(Y42*$I$42)</f>
+        <v>1.3305732380079376</v>
+      </c>
+      <c r="M42" s="22">
+        <f>(Z42*$I$42*$K$4+$L$4+$Q42-U42)/(Z42*$I$42)</f>
+        <v>1.415339047254744</v>
+      </c>
+      <c r="N42" s="22"/>
+      <c r="P42" s="7">
+        <v>200</v>
+      </c>
+      <c r="Q42" s="12">
+        <v>13.678048</v>
+      </c>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12">
+        <v>8.38039809677419</v>
+      </c>
+      <c r="T42" s="12">
+        <v>8.3713855806451605</v>
+      </c>
+      <c r="U42" s="12">
+        <v>8.6810899999999993</v>
+      </c>
+      <c r="V42" s="12"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34">
+        <v>5.8824568064516098</v>
+      </c>
+      <c r="Y42" s="34">
+        <v>6.7322270967741904</v>
+      </c>
+      <c r="Z42" s="34">
+        <v>5.7171218064516101</v>
+      </c>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12">
+        <v>49.7165757096774</v>
+      </c>
+      <c r="AD42" s="12">
+        <v>49.816142967741897</v>
+      </c>
+      <c r="AE42" s="12">
+        <v>49.803597741935498</v>
+      </c>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="32"/>
+      <c r="AH42" s="32">
+        <v>2.3114378064516101</v>
+      </c>
+      <c r="AI42" s="32">
+        <v>3.1140747741935502</v>
+      </c>
+      <c r="AJ42" s="32">
+        <v>2.1571873225806399</v>
+      </c>
+      <c r="AK42" s="32"/>
+      <c r="AL42" s="12"/>
+      <c r="AM42" s="12">
+        <v>27.933668129032299</v>
+      </c>
+      <c r="AN42" s="12">
+        <v>27.614249967741902</v>
+      </c>
+      <c r="AO42" s="12">
+        <v>28.055010516128998</v>
+      </c>
+      <c r="AP42" s="12"/>
+      <c r="AQ42"/>
+      <c r="AR42"/>
+      <c r="AS42"/>
+      <c r="AT42"/>
+      <c r="AU42"/>
+      <c r="AV42"/>
+      <c r="AW42"/>
+      <c r="AX42"/>
+      <c r="AY42"/>
+      <c r="AZ42" s="36"/>
+      <c r="BA42" s="36"/>
+      <c r="BB42" s="36"/>
+      <c r="BC42" s="36"/>
+      <c r="BD42" s="36"/>
+      <c r="BE42" s="36"/>
+    </row>
+    <row r="43" spans="1:57" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="56">
+        <f t="shared" si="29"/>
+        <v>250</v>
+      </c>
+      <c r="B43" s="13">
+        <f>Q8-Q43</f>
+        <v>-0.93392500000000211</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13">
+        <f>S8-S43-(AC8-AC43)*$F$4-$G$4*(AH8+AM8-AH43-AM43)</f>
+        <v>-0.74379102283884524</v>
+      </c>
+      <c r="E43" s="13">
+        <f>T8-T43-(AD8-AD43)*$F$5-$G$5*(AI8+AN8-AI43-AN43)</f>
+        <v>0.38391513177978825</v>
+      </c>
+      <c r="F43" s="13">
+        <f>U8-U43-(AE8-AE43)*$F$4-$G$4*(AJ8+AO8-AJ43-AO43)</f>
+        <v>-0.36072244559119215</v>
+      </c>
+      <c r="G43" s="13"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="44">
+        <v>1</v>
+      </c>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22">
+        <f>(X43*$I$43*$K$5+$L$5+$Q43-S43)/(X43*$I$43)</f>
+        <v>1.4382459302529127</v>
+      </c>
+      <c r="L43" s="22">
+        <f>(Y43*$I$43*$K$5+$L$5+$Q43-T43)/(Y43*$I$43)</f>
+        <v>1.346002294823333</v>
+      </c>
+      <c r="M43" s="22">
+        <f>(Z43*$I$43*$K$5+$L$5+$Q43-U43)/(Z43*$I$43)</f>
+        <v>1.3983845576963732</v>
+      </c>
+      <c r="N43" s="22"/>
+      <c r="P43" s="7">
+        <v>250</v>
+      </c>
+      <c r="Q43" s="12">
+        <v>18.779761000000001</v>
+      </c>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12">
+        <v>12.519104677419399</v>
+      </c>
+      <c r="T43" s="12">
+        <v>12.2313438709677</v>
+      </c>
+      <c r="U43" s="12">
+        <v>12.807984129032301</v>
+      </c>
+      <c r="V43" s="12"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34">
+        <v>6.6035322580645204</v>
+      </c>
+      <c r="Y43" s="34">
+        <v>7.6466097419354799</v>
+      </c>
+      <c r="Z43" s="34">
+        <v>6.5754106129032301</v>
+      </c>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12">
+        <v>49.973716096774197</v>
+      </c>
+      <c r="AD43" s="12">
+        <v>49.456389838709697</v>
+      </c>
+      <c r="AE43" s="12">
+        <v>49.527996806451597</v>
+      </c>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="32"/>
+      <c r="AH43" s="32">
+        <v>1.7590518064516101</v>
+      </c>
+      <c r="AI43" s="32">
+        <v>2.8483396774193599</v>
+      </c>
+      <c r="AJ43" s="32">
+        <v>1.9191635806451599</v>
+      </c>
+      <c r="AK43" s="32"/>
+      <c r="AL43" s="12"/>
+      <c r="AM43" s="12">
+        <v>26.860495838709699</v>
+      </c>
+      <c r="AN43" s="12">
+        <v>26.782994838709701</v>
+      </c>
+      <c r="AO43" s="12">
+        <v>27.014090193548402</v>
+      </c>
+      <c r="AP43" s="12"/>
+      <c r="AQ43"/>
+      <c r="AR43"/>
+      <c r="AS43"/>
+      <c r="AT43"/>
+      <c r="AU43"/>
+      <c r="AV43"/>
+      <c r="AW43"/>
+      <c r="AX43"/>
+      <c r="AY43"/>
+      <c r="AZ43" s="36"/>
+      <c r="BA43" s="36"/>
+      <c r="BB43" s="36"/>
+      <c r="BC43" s="36"/>
+      <c r="BD43" s="36"/>
+      <c r="BE43" s="36"/>
+    </row>
+    <row r="44" spans="1:57" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44"/>
+      <c r="AG44"/>
+      <c r="AH44"/>
+      <c r="AI44"/>
+      <c r="AJ44"/>
+      <c r="AK44"/>
+      <c r="AL44"/>
+      <c r="AM44"/>
+      <c r="AN44"/>
+      <c r="AO44"/>
+      <c r="AP44"/>
+      <c r="AQ44"/>
+      <c r="AR44"/>
+      <c r="AS44"/>
+      <c r="AT44"/>
+      <c r="AU44"/>
+      <c r="AV44"/>
+      <c r="AW44"/>
+      <c r="AX44"/>
+      <c r="AY44"/>
+      <c r="AZ44" s="36"/>
+      <c r="BA44" s="36"/>
+      <c r="BB44" s="36"/>
+      <c r="BC44" s="36"/>
+      <c r="BD44" s="36"/>
+      <c r="BE44" s="36"/>
+    </row>
+    <row r="45" spans="1:57" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="P45" s="7"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45"/>
+      <c r="AH45"/>
+      <c r="AI45"/>
+      <c r="AJ45"/>
+      <c r="AK45"/>
+      <c r="AL45"/>
+      <c r="AM45"/>
+      <c r="AN45"/>
+      <c r="AO45"/>
+      <c r="AP45"/>
+    </row>
+    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="P46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+    </row>
+    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>300</v>
+      </c>
+      <c r="B49" s="13">
+        <f>Q9-Q49</f>
+        <v>-1.4138449999999985</v>
+      </c>
+      <c r="C49" s="13">
+        <f>R9-R49-(AB9-AB49)*$F$3-$G$3*(AG9+AL9-AG49-AL49)</f>
+        <v>-0.96281279983395374</v>
+      </c>
+      <c r="D49" s="13">
+        <f>S9-S49-(AC9-AC49)*$F$4-$G$4*(AH9+AM9-AH49-AM49)</f>
+        <v>-1.4874922185311226</v>
+      </c>
+      <c r="E49" s="13">
+        <f>T9-T49-(AD9-AD49)*$F$5-$G$5*(AI9+AN9-AI49-AN49)</f>
+        <v>-0.6654500764604443</v>
+      </c>
+      <c r="F49" s="13">
+        <f>U9-U49-(AE9-AE49)*$F$4-$G$4*(AJ9+AO9-AJ49-AO49)</f>
+        <v>-1.6619004208506087</v>
+      </c>
+      <c r="G49" s="13">
+        <f>V9-V49-(AF9-AF49)*$F$3-$G$3*(AK9+AP9-AK49-AP49)</f>
+        <v>-1.1382481177128683</v>
+      </c>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="P49" s="25">
+        <v>300</v>
+      </c>
+      <c r="Q49" s="12">
+        <v>24.568686</v>
+      </c>
+      <c r="R49" s="12">
+        <v>21.795459000000001</v>
+      </c>
+      <c r="S49" s="12">
+        <v>21.243126</v>
+      </c>
+      <c r="T49" s="12">
+        <v>20.498609999999999</v>
+      </c>
+      <c r="U49" s="12">
+        <v>21.118689</v>
+      </c>
+      <c r="V49" s="12">
+        <v>21.756032000000001</v>
+      </c>
+      <c r="W49" s="25"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="25"/>
+      <c r="Z49" s="25"/>
+      <c r="AA49" s="25"/>
+      <c r="AB49" s="12">
+        <v>49.758894222222224</v>
+      </c>
+      <c r="AC49" s="12">
+        <v>49.823551490740755</v>
+      </c>
+      <c r="AD49" s="12">
+        <v>50.126772391975265</v>
+      </c>
+      <c r="AE49" s="12">
+        <v>50.336808462962928</v>
+      </c>
+      <c r="AF49" s="12">
+        <v>50.391712796296304</v>
+      </c>
+      <c r="AG49" s="12">
+        <v>1.1143746296296295</v>
+      </c>
+      <c r="AH49" s="12">
+        <v>1.2913240092592591</v>
+      </c>
+      <c r="AI49" s="12">
+        <v>1.8842902391975329</v>
+      </c>
+      <c r="AJ49" s="12">
+        <v>0.97520097222222235</v>
+      </c>
+      <c r="AK49" s="12">
+        <v>0.63998788888888902</v>
+      </c>
+      <c r="AL49" s="12">
+        <v>31.483166537037036</v>
+      </c>
+      <c r="AM49" s="12">
+        <v>28.963608916666661</v>
+      </c>
+      <c r="AN49" s="12">
+        <v>28.439878338734598</v>
+      </c>
+      <c r="AO49" s="12">
+        <v>28.923518148148148</v>
+      </c>
+      <c r="AP49" s="12">
+        <v>31.916907361111107</v>
+      </c>
+      <c r="AQ49" s="25"/>
+      <c r="AR49" s="25"/>
+      <c r="AS49" s="25"/>
+      <c r="AT49" s="25"/>
+      <c r="AU49" s="25"/>
+    </row>
+    <row r="50" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>300</v>
+      </c>
+      <c r="B50" s="13">
+        <f>Q9-Q50</f>
+        <v>-1.4138449999999985</v>
+      </c>
+      <c r="C50" s="13">
+        <f>R9-R50-(AB9-AB50)*$F$3-$G$3*(AG9+AL9-AG50-AL50)</f>
+        <v>-0.37240806096531331</v>
+      </c>
+      <c r="D50" s="13">
+        <f>S9-S50-(AC9-AC50)*$F$4-$G$4*(AH9+AM9-AH50-AM50)</f>
+        <v>-1.2626769716424957</v>
+      </c>
+      <c r="E50" s="13">
+        <f>T9-T50-(AD9-AD50)*$F$5-$G$5*(AI9+AN9-AI50-AN50)</f>
+        <v>-0.66127575520242066</v>
+      </c>
+      <c r="F50" s="13">
+        <f>U9-U50-(AE9-AE50)*$F$4-$G$4*(AJ9+AO9-AJ50-AO50)</f>
+        <v>-1.8105825120797454</v>
+      </c>
+      <c r="G50" s="13">
+        <f>V9-V50-(AF9-AF50)*$F$3-$G$3*(AK9+AP9-AK50-AP50)</f>
+        <v>-1.3184082039938692</v>
+      </c>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="P50" s="6">
+        <v>300</v>
+      </c>
+      <c r="Q50" s="12">
+        <v>24.568686</v>
+      </c>
+      <c r="R50" s="12">
+        <v>21.795459000000001</v>
+      </c>
+      <c r="S50" s="12">
+        <v>21.243126</v>
+      </c>
+      <c r="T50" s="12">
+        <v>20.498609999999999</v>
+      </c>
+      <c r="U50" s="12">
+        <v>21.118689</v>
+      </c>
+      <c r="V50" s="12">
+        <v>21.756032000000001</v>
+      </c>
+      <c r="AB50" s="12">
+        <v>49.98515523333333</v>
+      </c>
+      <c r="AC50" s="12">
+        <v>49.99636751111111</v>
+      </c>
+      <c r="AD50" s="12">
+        <v>50.127792843518456</v>
+      </c>
+      <c r="AE50" s="12">
+        <v>50.23466196666665</v>
+      </c>
+      <c r="AF50" s="12">
+        <v>50.248673199999999</v>
+      </c>
+      <c r="AG50" s="12">
+        <v>1.1283096666666665</v>
+      </c>
+      <c r="AH50" s="12">
+        <v>1.3120048222222223</v>
+      </c>
+      <c r="AI50" s="12">
+        <v>1.8846894500000035</v>
+      </c>
+      <c r="AJ50" s="12">
+        <v>0.97163143333333324</v>
+      </c>
+      <c r="AK50" s="12">
+        <v>0.64521542222222239</v>
+      </c>
+      <c r="AL50" s="12">
+        <v>31.823907766666675</v>
+      </c>
+      <c r="AM50" s="12">
+        <v>29.002110077777761</v>
+      </c>
+      <c r="AN50" s="12">
+        <v>28.442452605555598</v>
+      </c>
+      <c r="AO50" s="12">
+        <v>28.87734322222223</v>
+      </c>
+      <c r="AP50" s="12">
+        <v>31.868516188888883</v>
+      </c>
+    </row>
+    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="P51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="4"/>
+      <c r="AH51" s="4"/>
+      <c r="AI51" s="4"/>
+      <c r="AJ51" s="4"/>
+      <c r="AK51" s="4"/>
+      <c r="AL51" s="4"/>
+      <c r="AM51" s="4"/>
+      <c r="AN51" s="4"/>
+      <c r="AO51" s="4"/>
+      <c r="AP51" s="4"/>
+    </row>
+    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="4"/>
+      <c r="AH52" s="4"/>
+      <c r="AI52" s="4"/>
+      <c r="AJ52" s="4"/>
+      <c r="AK52" s="4"/>
+      <c r="AL52" s="4"/>
+      <c r="AM52" s="4"/>
+      <c r="AN52" s="4"/>
+      <c r="AO52" s="4"/>
+      <c r="AP52" s="4"/>
+    </row>
+    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="P53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="4"/>
+      <c r="AE53" s="4"/>
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="4"/>
+      <c r="AH53" s="4"/>
+      <c r="AI53" s="4"/>
+      <c r="AJ53" s="4"/>
+      <c r="AK53" s="4"/>
+      <c r="AL53" s="4"/>
+      <c r="AM53" s="4"/>
+      <c r="AN53" s="4"/>
+      <c r="AO53" s="4"/>
+      <c r="AP53" s="4"/>
+    </row>
+    <row r="54" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>300</v>
+      </c>
+      <c r="B54" s="13">
+        <f>Q9-Q54</f>
+        <v>-1.4455039999999997</v>
+      </c>
+      <c r="C54" s="13">
+        <f>R9-R54-(AB9-AB54)*$F$3-$G$3*(AG9+AL9-AG54-AL54)</f>
+        <v>-2.0498580096013583</v>
+      </c>
+      <c r="D54" s="13">
+        <f>S9-S54-(AC9-AC54)*$F$4-$G$4*(AH9+AM9-AH54-AM54)</f>
+        <v>-2.5723586371353098</v>
+      </c>
+      <c r="E54" s="13">
+        <f>T9-T54-(AD9-AD54)*$F$5-$G$5*(AI9+AN9-AI54-AN54)</f>
+        <v>-1.7679528223424115</v>
+      </c>
+      <c r="F54" s="13">
+        <f>U9-U54-(AE9-AE54)*$F$5-$G$5*(AJ9+AO9-AJ54-AO54)</f>
+        <v>-2.3465850441791343</v>
+      </c>
+      <c r="G54" s="13">
+        <f>V9-V54-(AF9-AF54)*$F$3-$G$3*(AK9+AP9-AK54-AP54)</f>
+        <v>-1.6906513985599538</v>
+      </c>
+      <c r="H54" s="22"/>
+      <c r="I54" s="44">
         <v>1.2</v>
       </c>
-      <c r="J39" s="45">
-        <f>(W39*$I$39*$K$9+$L$9+$Q39-R39)/(W39*$I$39)</f>
+      <c r="J54" s="22">
+        <f>(W54*$I$54*$K$6+$L$6+$Q54-R54)/(W54*$I$54)</f>
+        <v>1.1958394310364449</v>
+      </c>
+      <c r="K54" s="22">
+        <f>(X54*$I$54*$K$6+$L$6+$Q54-S54)/(X54*$I$54)</f>
+        <v>1.2064193800357024</v>
+      </c>
+      <c r="L54" s="22">
+        <f>(Y54*$I$54*$K$6+$L$6+$Q54-T54)/(Y54*$I$54)</f>
+        <v>1.1996127339145859</v>
+      </c>
+      <c r="M54" s="22">
+        <f>(Z54*$I$54*$K$6+$L$6+$Q54-U54)/(Z54*$I$54)</f>
+        <v>1.2055266017069981</v>
+      </c>
+      <c r="N54" s="22">
+        <f>(AA54*$I$54*$K$6+$L$6+$Q54-V54)/(AA54*$I$54)</f>
+        <v>1.1899907118243938</v>
+      </c>
+      <c r="P54" s="7">
+        <v>300</v>
+      </c>
+      <c r="Q54" s="15">
+        <v>24.600345000000001</v>
+      </c>
+      <c r="R54" s="14">
+        <v>21.781759000000001</v>
+      </c>
+      <c r="S54" s="14">
+        <v>21.22176</v>
+      </c>
+      <c r="T54" s="14">
+        <v>20.634664000000001</v>
+      </c>
+      <c r="U54" s="14">
+        <v>21.185558</v>
+      </c>
+      <c r="V54" s="14">
+        <v>21.772659999999998</v>
+      </c>
+      <c r="W54" s="34">
+        <v>3.3408169666666669</v>
+      </c>
+      <c r="X54" s="34">
+        <v>3.9396470561797745</v>
+      </c>
+      <c r="Y54" s="34">
+        <v>4.6629658739573676</v>
+      </c>
+      <c r="Z54" s="34">
+        <v>3.9864729777777774</v>
+      </c>
+      <c r="AA54" s="34">
+        <v>3.3793511460674144</v>
+      </c>
+      <c r="AB54" s="14">
+        <v>50.213429766666678</v>
+      </c>
+      <c r="AC54" s="14">
+        <v>50.219729600000001</v>
+      </c>
+      <c r="AD54" s="14">
+        <v>50.327576287037097</v>
+      </c>
+      <c r="AE54" s="14">
+        <v>50.420485388888885</v>
+      </c>
+      <c r="AF54" s="14">
+        <v>50.425923699999998</v>
+      </c>
+      <c r="AG54" s="33">
+        <v>-0.14740822222222219</v>
+      </c>
+      <c r="AH54" s="33">
+        <v>0.19618720000000001</v>
+      </c>
+      <c r="AI54" s="33">
+        <v>1.1275081509259253</v>
+      </c>
+      <c r="AJ54" s="33">
+        <v>0.42963937777777794</v>
+      </c>
+      <c r="AK54" s="33">
+        <v>0.16849598888888889</v>
+      </c>
+      <c r="AL54" s="14">
+        <v>31.313106399999995</v>
+      </c>
+      <c r="AM54" s="14">
+        <v>28.679193811111109</v>
+      </c>
+      <c r="AN54" s="14">
+        <v>28.13941986944447</v>
+      </c>
+      <c r="AO54" s="14">
+        <v>28.81640967777777</v>
+      </c>
+      <c r="AP54" s="14">
+        <v>31.855918822222218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>600</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="44">
+        <v>1.2</v>
+      </c>
+      <c r="J55" s="22">
+        <f>(W55*$I$55*$K$9+$L$9+$Q55-R55)/(W55*$I$55)</f>
         <v>1.0849254802076338</v>
       </c>
-      <c r="K39" s="45">
-        <f>(X39*$I$39*$K$9+$L$9+$Q39-S39)/(X39*$I$39)</f>
+      <c r="K55" s="22">
+        <f>(X55*$I$55*$K$9+$L$9+$Q55-S55)/(X55*$I$55)</f>
         <v>1.0300271999623831</v>
       </c>
-      <c r="L39" s="45">
-        <f>(Y39*$I$39*$K$9+$L$9+$Q39-T39)/(Y39*$I$39)</f>
+      <c r="L55" s="22">
+        <f>(Y55*$I$55*$K$9+$L$9+$Q55-T55)/(Y55*$I$55)</f>
         <v>1.0320124477349277</v>
       </c>
-      <c r="M39" s="45">
-        <f>(Z39*$I$39*$K$9+$L$9+$Q39-U39)/(Z39*$I$39)</f>
+      <c r="M55" s="22">
+        <f>(Z55*$I$55*$K$9+$L$9+$Q55-U55)/(Z55*$I$55)</f>
         <v>1.0605556953075981</v>
       </c>
-      <c r="N39" s="45">
-        <f>(AA39*$I$39*$K$9+$L$9+$Q39-V39)/(AA39*$I$39)</f>
+      <c r="N55" s="22">
+        <f>(AA55*$I$55*$K$9+$L$9+$Q55-V55)/(AA55*$I$55)</f>
         <v>1.093823460057433</v>
       </c>
-      <c r="P39" s="7">
+      <c r="P55" s="7">
         <v>600</v>
       </c>
-      <c r="Q39" s="15">
+      <c r="Q55" s="15">
         <v>73.938598999999996</v>
       </c>
-      <c r="R39" s="14">
+      <c r="R55" s="14">
         <v>70.882756999999998</v>
       </c>
-      <c r="S39" s="14">
+      <c r="S55" s="14">
         <v>71.125213000000002</v>
       </c>
-      <c r="T39" s="14">
+      <c r="T55" s="14">
         <v>70.928990999999996</v>
       </c>
-      <c r="U39" s="14">
+      <c r="U55" s="14">
         <v>70.981009</v>
       </c>
-      <c r="V39" s="14">
+      <c r="V55" s="14">
         <v>70.826567999999995</v>
       </c>
-      <c r="W39" s="14">
+      <c r="W55" s="34">
         <v>3.7934296777777776</v>
       </c>
-      <c r="X39" s="14">
+      <c r="X55" s="34">
         <v>3.8035571111111115</v>
       </c>
-      <c r="Y39" s="14">
+      <c r="Y55" s="34">
         <v>4.0572507985074626</v>
       </c>
-      <c r="Z39" s="14">
+      <c r="Z55" s="34">
         <v>3.8098573444444432</v>
       </c>
-      <c r="AA39" s="14">
+      <c r="AA55" s="34">
         <v>3.8127473888888881</v>
       </c>
-      <c r="AB39" s="14">
+      <c r="AB55" s="14">
         <v>50.149274399999996</v>
       </c>
-      <c r="AC39" s="14">
+      <c r="AC55" s="14">
         <v>50.131166233333339</v>
       </c>
-      <c r="AD39" s="14">
+      <c r="AD55" s="14">
         <v>50.182322594795501</v>
       </c>
-      <c r="AE39" s="14">
+      <c r="AE55" s="14">
         <v>50.232939277777767</v>
       </c>
-      <c r="AF39" s="14">
+      <c r="AF55" s="14">
         <v>50.249159133333329</v>
       </c>
-      <c r="AG39" s="33">
+      <c r="AG55" s="33">
         <v>0.55690597777777784</v>
       </c>
-      <c r="AH39" s="33">
+      <c r="AH55" s="33">
         <v>0.79732055555555548</v>
       </c>
-      <c r="AI39" s="33">
+      <c r="AI55" s="33">
         <v>1.5783238513011155</v>
       </c>
-      <c r="AJ39" s="33">
+      <c r="AJ55" s="33">
         <v>0.64480167777777775</v>
       </c>
-      <c r="AK39" s="33">
+      <c r="AK55" s="33">
         <v>0.40356326666666664</v>
       </c>
-      <c r="AL39" s="14">
+      <c r="AL55" s="14">
         <v>31.170113433333331</v>
       </c>
-      <c r="AM39" s="14">
+      <c r="AM55" s="14">
         <v>28.871359088888902</v>
       </c>
-      <c r="AN39" s="14">
+      <c r="AN55" s="14">
         <v>28.765051338289958</v>
       </c>
-      <c r="AO39" s="14">
+      <c r="AO55" s="14">
         <v>29.088624822222229</v>
       </c>
-      <c r="AP39" s="14">
+      <c r="AP55" s="14">
         <v>31.39084246666668</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="I40" s="19"/>
-      <c r="P40" s="2" t="s">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="I56" s="19"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="P56" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q40" s="2"/>
-      <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
-    </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="I41" s="19"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
-    </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="I42" s="19"/>
-      <c r="P42" s="2" t="s">
+      <c r="Q56" s="2"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+    </row>
+    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="I57" s="19"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+    </row>
+    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="I58" s="19"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="P58" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Q42" s="2" t="s">
+      <c r="Q58" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
-      <c r="U42"/>
-      <c r="V42"/>
-    </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A43" s="27">
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+    </row>
+    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A59" s="27">
         <f>A15</f>
         <v>150</v>
       </c>
-      <c r="B43" s="13">
-        <f t="shared" ref="B43:B48" si="11">Q6-Q43</f>
+      <c r="B59" s="13">
+        <f>Q6-Q59</f>
         <v>-0.68091800000000013</v>
       </c>
-      <c r="C43" s="13">
-        <f>R6-R43-(AB6-AB43)*$F$3-$G$3*(AG6+AL6-AG43-AL43)</f>
+      <c r="C59" s="13">
+        <f>R6-R59-(AB6-AB59)*$F$3-$G$3*(AG6+AL6-AG59-AL59)</f>
         <v>1.2863805335441501</v>
       </c>
-      <c r="D43" s="13">
-        <f>S6-S43-(AC6-AC43)*$F$4-$G$4*(AH6+AM6-AH43-AM43)</f>
+      <c r="D59" s="13">
+        <f>S6-S59-(AC6-AC59)*$F$4-$G$4*(AH6+AM6-AH59-AM59)</f>
         <v>1.0474494215583219</v>
       </c>
-      <c r="E43" s="13">
-        <f>T6-T43-(AD6-AD43)*$F$5-$G$5*(AI6+AN6-AI43-AN43)</f>
+      <c r="E59" s="13">
+        <f>T6-T59-(AD6-AD59)*$F$5-$G$5*(AI6+AN6-AI59-AN59)</f>
         <v>0.61442981829062449</v>
       </c>
-      <c r="F43" s="13">
-        <f>U6-U43-(AE6-AE43)*$F$4-$G$4*(AJ6+AO6-AJ43-AO43)</f>
+      <c r="F59" s="13">
+        <f>U6-U59-(AE6-AE59)*$F$4-$G$4*(AJ6+AO6-AJ59-AO59)</f>
         <v>0.11831386637835273</v>
       </c>
-      <c r="G43" s="13">
-        <f>V6-V43-(AF6-AF43)*$F$3-$G$3*(AK6+AP6-AK43-AP43)</f>
+      <c r="G59" s="13">
+        <f>V6-V59-(AF6-AF59)*$F$3-$G$3*(AK6+AP6-AK59-AP59)</f>
         <v>0.56869078134640594</v>
       </c>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="22"/>
-      <c r="P43" s="25">
+      <c r="H59" s="22"/>
+      <c r="I59" s="44">
+        <v>1</v>
+      </c>
+      <c r="J59" s="22">
+        <f>(W59*$I$59*$K$3+$L$3+$Q59-R59)/(W59*$I$59)</f>
+        <v>1.122650743411431</v>
+      </c>
+      <c r="K59" s="22">
+        <f>(X59*$I$59*$K$3+$L$3+$Q59-S59)/(X59*$I$59)</f>
+        <v>1.1479627875158687</v>
+      </c>
+      <c r="L59" s="22">
+        <f>(Y59*$I$59*$K$3+$L$3+$Q59-T59)/(Y59*$I$59)</f>
+        <v>1.1218861381649743</v>
+      </c>
+      <c r="M59" s="22">
+        <f>(Z59*$I$59*$K$3+$L$3+$Q59-U59)/(Z59*$I$59)</f>
+        <v>1.1543867164941326</v>
+      </c>
+      <c r="N59" s="22">
+        <f>(AA59*$I$59*$K$3+$L$3+$Q59-V59)/(AA59*$I$59)</f>
+        <v>1.1698890545648439</v>
+      </c>
+      <c r="P59" s="25">
         <v>150</v>
       </c>
-      <c r="Q43" s="31">
+      <c r="Q59" s="31">
         <v>9.3652949999999997</v>
       </c>
-      <c r="R43" s="31">
+      <c r="R59" s="31">
         <v>7.7525440000000003</v>
       </c>
-      <c r="S43" s="31">
+      <c r="S59" s="31">
         <v>7.405424</v>
       </c>
-      <c r="T43" s="31">
+      <c r="T59" s="31">
         <v>7.1758920000000002</v>
       </c>
-      <c r="U43" s="31">
+      <c r="U59" s="31">
         <v>7.3874490000000002</v>
       </c>
-      <c r="V43" s="31">
+      <c r="V59" s="31">
         <v>7.615405</v>
       </c>
-      <c r="W43" s="34">
+      <c r="W59" s="34">
         <v>2.7395088529411749</v>
       </c>
-      <c r="X43" s="34">
+      <c r="X59" s="34">
         <v>3.2025557279411752</v>
       </c>
-      <c r="Y43" s="34">
+      <c r="Y59" s="34">
         <v>3.7481053185185194</v>
       </c>
-      <c r="Z43" s="34">
+      <c r="Z59" s="34">
         <v>3.1982708382352949</v>
       </c>
-      <c r="AA43" s="34">
+      <c r="AA59" s="34">
         <v>2.7519389264705874</v>
       </c>
-      <c r="AB43" s="31">
+      <c r="AB59" s="31">
         <v>50.317934757352951</v>
       </c>
-      <c r="AC43" s="31">
+      <c r="AC59" s="31">
         <v>50.302059941176459</v>
       </c>
-      <c r="AD43" s="31">
+      <c r="AD59" s="31">
         <v>50.35826907777777</v>
       </c>
-      <c r="AE43" s="31">
+      <c r="AE59" s="31">
         <v>50.394934102941207</v>
       </c>
-      <c r="AF43" s="31">
+      <c r="AF59" s="31">
         <v>50.409839176470577</v>
       </c>
-      <c r="AG43" s="34">
+      <c r="AG59" s="34">
         <v>1.8484300661764697</v>
       </c>
-      <c r="AH43" s="34">
+      <c r="AH59" s="34">
         <v>2.2953237058823528</v>
       </c>
-      <c r="AI43" s="34">
+      <c r="AI59" s="34">
         <v>3.0723731259259282</v>
       </c>
-      <c r="AJ43" s="34">
+      <c r="AJ59" s="34">
         <v>2.4716707794117632</v>
       </c>
-      <c r="AK43" s="34">
+      <c r="AK59" s="34">
         <v>1.970071448529412</v>
       </c>
-      <c r="AL43" s="31">
+      <c r="AL59" s="31">
         <v>33.613603654411754</v>
       </c>
-      <c r="AM43" s="31">
+      <c r="AM59" s="31">
         <v>31.191722772058817</v>
       </c>
-      <c r="AN43" s="31">
+      <c r="AN59" s="31">
         <v>30.588618685185175</v>
       </c>
-      <c r="AO43" s="31">
+      <c r="AO59" s="31">
         <v>31.377444279411769</v>
       </c>
-      <c r="AP43" s="31">
+      <c r="AP59" s="31">
         <v>33.866071014705881</v>
       </c>
-      <c r="AQ43" s="35">
+      <c r="AQ59" s="35">
         <v>42629.558425925927</v>
       </c>
-      <c r="AR43" s="35">
+      <c r="AR59" s="35">
         <v>42629.579270833332</v>
       </c>
-      <c r="AS43" s="35">
+      <c r="AS59" s="35">
         <v>42629.600104166668</v>
       </c>
-      <c r="AT43" s="35">
+      <c r="AT59" s="35">
         <v>42629.641782407409</v>
       </c>
-      <c r="AU43" s="35">
+      <c r="AU59" s="35">
         <v>42629.662615740737</v>
       </c>
-      <c r="AV43" s="35">
+      <c r="AV59" s="35">
         <v>42629.68346064815</v>
       </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A44" s="27">
-        <f t="shared" ref="A44:A48" si="12">A16</f>
+    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A60" s="27">
+        <f>A16</f>
         <v>200</v>
       </c>
-      <c r="B44" s="13">
-        <f t="shared" si="11"/>
+      <c r="B60" s="13">
+        <f>Q7-Q60</f>
         <v>-0.81611299999999964</v>
       </c>
-      <c r="C44" s="13">
-        <f>R7-R44-(AB7-AB44)*$F$3-$G$3*(AG7+AL7-AG44-AL44)</f>
+      <c r="C60" s="13">
+        <f>R7-R60-(AB7-AB60)*$F$3-$G$3*(AG7+AL7-AG60-AL60)</f>
         <v>1.1126051337353817</v>
       </c>
-      <c r="D44" s="13">
-        <f>S7-S44-(AC7-AC44)*$F$4-$G$4*(AH7+AM7-AH44-AM44)</f>
+      <c r="D60" s="13">
+        <f>S7-S60-(AC7-AC60)*$F$4-$G$4*(AH7+AM7-AH60-AM60)</f>
         <v>0.40984080387711774</v>
       </c>
-      <c r="E44" s="13">
-        <f>T7-T44-(AD7-AD44)*$F$5-$G$5*(AI7+AN7-AI44-AN44)</f>
+      <c r="E60" s="13">
+        <f>T7-T60-(AD7-AD60)*$F$5-$G$5*(AI7+AN7-AI60-AN60)</f>
         <v>0.26930223883029059</v>
       </c>
-      <c r="F44" s="13">
-        <f>U7-U44-(AE7-AE44)*$F$4-$G$4*(AJ7+AO7-AJ44-AO44)</f>
+      <c r="F60" s="13">
+        <f>U7-U60-(AE7-AE60)*$F$4-$G$4*(AJ7+AO7-AJ60-AO60)</f>
         <v>-0.51161500251792424</v>
       </c>
-      <c r="G44" s="13">
-        <f>V7-V44-(AF7-AF44)*$F$3-$G$3*(AK7+AP7-AK44-AP44)</f>
+      <c r="G60" s="13">
+        <f>V7-V60-(AF7-AF60)*$F$3-$G$3*(AK7+AP7-AK60-AP60)</f>
         <v>1.8898916663767196E-2</v>
       </c>
-      <c r="I44" s="44">
+      <c r="I60" s="44">
         <v>1.06</v>
       </c>
-      <c r="J44" s="45">
-        <f>(W44*$I$44*$K$4+$L$4+$Q44-R44)/(W44*$I$44)</f>
+      <c r="J60" s="22">
+        <f>(W60*$I$60*$K$4+$L$4+$Q60-R60)/(W60*$I$60)</f>
         <v>1.1357423989159772</v>
       </c>
-      <c r="K44" s="45">
-        <f>(X44*$I$44*$K$4+$L$4+$Q44-S44)/(X44*$I$44)</f>
+      <c r="K60" s="22">
+        <f>(X60*$I$60*$K$4+$L$4+$Q60-S60)/(X60*$I$60)</f>
         <v>1.138715554122798</v>
       </c>
-      <c r="L44" s="45">
-        <f>(Y44*$I$44*$K$4+$L$4+$Q44-T44)/(Y44*$I$44)</f>
+      <c r="L60" s="22">
+        <f>(Y60*$I$60*$K$4+$L$4+$Q60-T60)/(Y60*$I$60)</f>
         <v>1.1357390948481383</v>
       </c>
-      <c r="M44" s="45">
-        <f>(Z44*$I$44*$K$4+$L$4+$Q44-U44)/(Z44*$I$44)</f>
+      <c r="M60" s="22">
+        <f>(Z60*$I$60*$K$4+$L$4+$Q60-U60)/(Z60*$I$60)</f>
         <v>1.1798556067236308</v>
       </c>
-      <c r="N44" s="45">
-        <f>(AA44*$I$44*$K$4+$L$4+$Q44-V44)/(AA44*$I$44)</f>
+      <c r="N60" s="22">
+        <f>(AA60*$I$60*$K$4+$L$4+$Q60-V60)/(AA60*$I$60)</f>
         <v>1.1967727309470368</v>
       </c>
-      <c r="P44" s="25">
+      <c r="P60" s="25">
         <v>200</v>
       </c>
-      <c r="Q44" s="31">
+      <c r="Q60" s="31">
         <v>13.854497</v>
       </c>
-      <c r="R44" s="31">
+      <c r="R60" s="31">
         <v>11.869459000000001</v>
       </c>
-      <c r="S44" s="31">
+      <c r="S60" s="31">
         <v>11.513961</v>
       </c>
-      <c r="T44" s="31">
+      <c r="T60" s="31">
         <v>11.135256</v>
       </c>
-      <c r="U44" s="31">
+      <c r="U60" s="31">
         <v>11.350262000000001</v>
       </c>
-      <c r="V44" s="31">
+      <c r="V60" s="31">
         <v>11.662312</v>
       </c>
-      <c r="W44" s="34">
+      <c r="W60" s="34">
         <v>3.124506382352942</v>
       </c>
-      <c r="X44" s="34">
+      <c r="X60" s="34">
         <v>3.6765922794117656</v>
       </c>
-      <c r="Y44" s="34">
+      <c r="Y60" s="34">
         <v>4.3031583494423797</v>
       </c>
-      <c r="Z44" s="34">
+      <c r="Z60" s="34">
         <v>3.681622198529412</v>
       </c>
-      <c r="AA44" s="34">
+      <c r="AA60" s="34">
         <v>3.131801022058823</v>
       </c>
-      <c r="AB44" s="31">
+      <c r="AB60" s="31">
         <v>50.210233124999995</v>
       </c>
-      <c r="AC44" s="31">
+      <c r="AC60" s="31">
         <v>50.223610286764696</v>
       </c>
-      <c r="AD44" s="31">
+      <c r="AD60" s="31">
         <v>50.260238092592623</v>
       </c>
-      <c r="AE44" s="31">
+      <c r="AE60" s="31">
         <v>50.299182404411759</v>
       </c>
-      <c r="AF44" s="31">
+      <c r="AF60" s="31">
         <v>50.3096066985294</v>
       </c>
-      <c r="AG44" s="34">
+      <c r="AG60" s="34">
         <v>1.572048323529412</v>
       </c>
-      <c r="AH44" s="34">
+      <c r="AH60" s="34">
         <v>1.9265483455882355</v>
       </c>
-      <c r="AI44" s="34">
+      <c r="AI60" s="34">
         <v>2.472327722222222</v>
       </c>
-      <c r="AJ44" s="34">
+      <c r="AJ60" s="34">
         <v>1.6559127941176472</v>
       </c>
-      <c r="AK44" s="34">
+      <c r="AK60" s="34">
         <v>1.2450806176470586</v>
       </c>
-      <c r="AL44" s="31">
+      <c r="AL60" s="31">
         <v>33.001755257352954</v>
       </c>
-      <c r="AM44" s="31">
+      <c r="AM60" s="31">
         <v>30.469244544117633</v>
       </c>
-      <c r="AN44" s="31">
+      <c r="AN60" s="31">
         <v>29.611553648148139</v>
       </c>
-      <c r="AO44" s="31">
+      <c r="AO60" s="31">
         <v>30.354952426470589</v>
       </c>
-      <c r="AP44" s="31">
+      <c r="AP60" s="31">
         <v>32.936806169117631</v>
       </c>
-      <c r="AQ44" s="35">
+      <c r="AQ60" s="35">
         <v>42629.78765046296</v>
       </c>
-      <c r="AR44" s="35">
+      <c r="AR60" s="35">
         <v>42629.808483796296</v>
       </c>
-      <c r="AS44" s="35">
+      <c r="AS60" s="35">
         <v>42629.829328703701</v>
       </c>
-      <c r="AT44" s="35">
+      <c r="AT60" s="35">
         <v>42629.871006944442</v>
       </c>
-      <c r="AU44" s="35">
+      <c r="AU60" s="35">
         <v>42629.891840277778</v>
       </c>
-      <c r="AV44" s="35">
+      <c r="AV60" s="35">
         <v>42629.912673611114</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A45" s="27">
-        <f t="shared" si="12"/>
+    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A61" s="27">
+        <f>A17</f>
         <v>250</v>
       </c>
-      <c r="B45" s="13">
-        <f t="shared" si="11"/>
+      <c r="B61" s="13">
+        <f>Q8-Q61</f>
         <v>-1.1027650000000015</v>
       </c>
-      <c r="C45" s="13">
-        <f>R8-R45-(AB8-AB45)*$F$3-$G$3*(AG8+AL8-AG45-AL45)</f>
+      <c r="C61" s="13">
+        <f>R8-R61-(AB8-AB61)*$F$3-$G$3*(AG8+AL8-AG61-AL61)</f>
         <v>-1.376827505326681</v>
       </c>
-      <c r="D45" s="13">
-        <f>S8-S45-(AC8-AC45)*$F$4-$G$4*(AH8+AM8-AH45-AM45)</f>
+      <c r="D61" s="13">
+        <f>S8-S61-(AC8-AC61)*$F$4-$G$4*(AH8+AM8-AH61-AM61)</f>
         <v>-1.9250633904971435</v>
       </c>
-      <c r="E45" s="13">
-        <f>T8-T45-(AD8-AD45)*$F$5-$G$5*(AI8+AN8-AI45-AN45)</f>
+      <c r="E61" s="13">
+        <f>T8-T61-(AD8-AD61)*$F$5-$G$5*(AI8+AN8-AI61-AN61)</f>
         <v>-1.4924977215813389</v>
       </c>
-      <c r="F45" s="13">
-        <f>U8-U45-(AE8-AE45)*$F$4-$G$4*(AJ8+AO8-AJ45-AO45)</f>
+      <c r="F61" s="13">
+        <f>U8-U61-(AE8-AE61)*$F$4-$G$4*(AJ8+AO8-AJ61-AO61)</f>
         <v>-0.9914127577694305</v>
       </c>
-      <c r="G45" s="13">
-        <f>V8-V45-(AF8-AF45)*$F$3-$G$3*(AK8+AP8-AK45-AP45)</f>
+      <c r="G61" s="13">
+        <f>V8-V61-(AF8-AF61)*$F$3-$G$3*(AK8+AP8-AK61-AP61)</f>
         <v>-0.51408493228776742</v>
       </c>
-      <c r="I45" s="22"/>
-      <c r="P45" s="25">
+      <c r="I61" s="44">
+        <v>1</v>
+      </c>
+      <c r="J61" s="22">
+        <f>(W61*$I$61*$K$5+$L$5+$Q61-R61)/(W61*$I$61)</f>
+        <v>1.2278238294213655</v>
+      </c>
+      <c r="K61" s="22">
+        <f>(X61*$I$61*$K$5+$L$5+$Q61-S61)/(X61*$I$61)</f>
+        <v>1.2150305089173148</v>
+      </c>
+      <c r="L61" s="22">
+        <f>(Y61*$I$61*$K$5+$L$5+$Q61-T61)/(Y61*$I$61)</f>
+        <v>1.2017478889615114</v>
+      </c>
+      <c r="M61" s="22">
+        <f>(Z61*$I$61*$K$5+$L$5+$Q61-U61)/(Z61*$I$61)</f>
+        <v>1.2168953355793821</v>
+      </c>
+      <c r="N61" s="22">
+        <f>(AA61*$I$61*$K$5+$L$5+$Q61-V61)/(AA61*$I$61)</f>
+        <v>1.2374194883977547</v>
+      </c>
+      <c r="P61" s="25">
         <v>250</v>
       </c>
-      <c r="Q45" s="31">
+      <c r="Q61" s="31">
         <v>18.948601</v>
       </c>
-      <c r="R45" s="31">
+      <c r="R61" s="31">
         <v>16.339908999999999</v>
       </c>
-      <c r="S45" s="31">
+      <c r="S61" s="31">
         <v>15.886266000000001</v>
       </c>
-      <c r="T45" s="31">
+      <c r="T61" s="31">
         <v>15.400482</v>
       </c>
-      <c r="U45" s="31">
+      <c r="U61" s="31">
         <v>15.872680000000001</v>
       </c>
-      <c r="V45" s="31">
+      <c r="V61" s="31">
         <v>16.297443999999999</v>
       </c>
-      <c r="W45" s="34">
+      <c r="W61" s="34">
         <v>3.5530954264705885</v>
       </c>
-      <c r="X45" s="34">
+      <c r="X61" s="34">
         <v>4.2378407720588243</v>
       </c>
-      <c r="Y45" s="34">
+      <c r="Y61" s="34">
         <v>4.9953501784386614</v>
       </c>
-      <c r="Z45" s="34">
+      <c r="Z61" s="34">
         <v>4.2456179632352944</v>
       </c>
-      <c r="AA45" s="34">
+      <c r="AA61" s="34">
         <v>3.5642374814814812</v>
       </c>
-      <c r="AB45" s="31">
+      <c r="AB61" s="31">
         <v>50.083218058823526</v>
       </c>
-      <c r="AC45" s="31">
+      <c r="AC61" s="31">
         <v>50.102803632352945</v>
       </c>
-      <c r="AD45" s="31">
+      <c r="AD61" s="31">
         <v>50.145700074074071</v>
       </c>
-      <c r="AE45" s="31">
+      <c r="AE61" s="31">
         <v>50.189539772058815</v>
       </c>
-      <c r="AF45" s="31">
+      <c r="AF61" s="31">
         <v>50.196468733333354</v>
       </c>
-      <c r="AG45" s="34">
+      <c r="AG61" s="34">
         <v>0.7696370735294118</v>
       </c>
-      <c r="AH45" s="34">
+      <c r="AH61" s="34">
         <v>1.1010494558823527</v>
       </c>
-      <c r="AI45" s="34">
+      <c r="AI61" s="34">
         <v>1.7526941259259261</v>
       </c>
-      <c r="AJ45" s="34">
+      <c r="AJ61" s="34">
         <v>1.1609854705882352</v>
       </c>
-      <c r="AK45" s="34">
+      <c r="AK61" s="34">
         <v>0.67208695555555553</v>
       </c>
-      <c r="AL45" s="31">
+      <c r="AL61" s="31">
         <v>32.043459750000011</v>
       </c>
-      <c r="AM45" s="31">
+      <c r="AM61" s="31">
         <v>29.448269117647047</v>
       </c>
-      <c r="AN45" s="31">
+      <c r="AN61" s="31">
         <v>28.484480296296283</v>
       </c>
-      <c r="AO45" s="31">
+      <c r="AO61" s="31">
         <v>29.468997272058825</v>
       </c>
-      <c r="AP45" s="31">
+      <c r="AP61" s="31">
         <v>32.166191133333314</v>
       </c>
-      <c r="AQ45" s="35">
+      <c r="AQ61" s="35">
         <v>42630.016863425924</v>
       </c>
-      <c r="AR45" s="35">
+      <c r="AR61" s="35">
         <v>42630.037708333337</v>
       </c>
-      <c r="AS45" s="35">
+      <c r="AS61" s="35">
         <v>42630.058541666665</v>
       </c>
-      <c r="AT45" s="35">
+      <c r="AT61" s="35">
         <v>42630.100219907406</v>
       </c>
-      <c r="AU45" s="35">
+      <c r="AU61" s="35">
         <v>42630.121064814812</v>
       </c>
-      <c r="AV45" s="35">
+      <c r="AV61" s="35">
         <v>42630.141782407409</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A46" s="27">
-        <f t="shared" si="12"/>
+    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A62" s="27">
+        <f>A18</f>
         <v>300</v>
       </c>
-      <c r="B46" s="13">
-        <f t="shared" si="11"/>
+      <c r="B62" s="13">
+        <f>Q9-Q62</f>
         <v>-1.4296480000000003</v>
       </c>
-      <c r="C46" s="13">
-        <f>R9-R46-(AB9-AB46)*$F$3-$G$3*(AG9+AL9-AG46-AL46)</f>
+      <c r="C62" s="13">
+        <f>R9-R62-(AB9-AB62)*$F$3-$G$3*(AG9+AL9-AG62-AL62)</f>
         <v>-1.3287895944710584</v>
       </c>
-      <c r="D46" s="13">
-        <f>S9-S46-(AC9-AC46)*$F$4-$G$4*(AH9+AM9-AH46-AM46)</f>
+      <c r="D62" s="13">
+        <f>S9-S62-(AC9-AC62)*$F$4-$G$4*(AH9+AM9-AH62-AM62)</f>
         <v>-2.3771746253882751</v>
       </c>
-      <c r="E46" s="13">
-        <f>T9-T46-(AD9-AD46)*$F$5-$G$5*(AI9+AN9-AI46-AN46)</f>
+      <c r="E62" s="13">
+        <f>T9-T62-(AD9-AD62)*$F$5-$G$5*(AI9+AN9-AI62-AN62)</f>
         <v>-2.3107307535152231</v>
       </c>
-      <c r="F46" s="13">
-        <f>U9-U46-(AE9-AE46)*$F$4-$G$4*(AJ9+AO9-AJ46-AO46)</f>
+      <c r="F62" s="13">
+        <f>U9-U62-(AE9-AE62)*$F$4-$G$4*(AJ9+AO9-AJ62-AO62)</f>
         <v>-2.2824035495442487</v>
       </c>
-      <c r="G46" s="13">
-        <f>V9-V46-(AF9-AF46)*$F$3-$G$3*(AK9+AP9-AK46-AP46)</f>
+      <c r="G62" s="13">
+        <f>V9-V62-(AF9-AF62)*$F$3-$G$3*(AK9+AP9-AK62-AP62)</f>
         <v>-1.7535859533270028</v>
       </c>
-      <c r="I46" s="44">
+      <c r="I62" s="44">
         <v>1.06</v>
       </c>
-      <c r="J46" s="45">
-        <f>(W46*$I$46*$K$6+$L$6+$Q46-R46)/(W46*$I$46)</f>
+      <c r="J62" s="22">
+        <f>(W62*$I$62*$K$6+$L$6+$Q62-R62)/(W62*$I$62)</f>
         <v>1.2930605526455645</v>
       </c>
-      <c r="K46" s="45">
-        <f>(X46*$I$46*$K$6+$L$6+$Q46-S46)/(X46*$I$46)</f>
+      <c r="K62" s="22">
+        <f>(X62*$I$62*$K$6+$L$6+$Q62-S62)/(X62*$I$62)</f>
         <v>1.2137181629357161</v>
       </c>
-      <c r="L46" s="45">
-        <f>(Y46*$I$46*$K$6+$L$6+$Q46-T46)/(Y46*$I$46)</f>
+      <c r="L62" s="22">
+        <f>(Y62*$I$62*$K$6+$L$6+$Q62-T62)/(Y62*$I$62)</f>
         <v>1.2146242983440707</v>
       </c>
-      <c r="M46" s="45">
-        <f>(Z46*$I$46*$K$6+$L$6+$Q46-U46)/(Z46*$I$46)</f>
+      <c r="M62" s="22">
+        <f>(Z62*$I$62*$K$6+$L$6+$Q62-U62)/(Z62*$I$62)</f>
         <v>1.2430628046558734</v>
       </c>
-      <c r="N46" s="45">
-        <f>(AA46*$I$46*$K$6+$L$6+$Q46-V46)/(AA46*$I$46)</f>
+      <c r="N62" s="22">
+        <f>(AA62*$I$62*$K$6+$L$6+$Q62-V62)/(AA62*$I$62)</f>
         <v>1.2381915557846961</v>
       </c>
-      <c r="P46" s="25">
+      <c r="P62" s="25">
         <v>300</v>
       </c>
-      <c r="Q46" s="31">
+      <c r="Q62" s="31">
         <v>24.584489000000001</v>
       </c>
-      <c r="R46" s="31">
+      <c r="R62" s="31">
         <v>21.267337999999999</v>
       </c>
-      <c r="S46" s="31">
+      <c r="S62" s="31">
         <v>20.948191000000001</v>
       </c>
-      <c r="T46" s="31">
+      <c r="T62" s="31">
         <v>20.243701000000001</v>
       </c>
-      <c r="U46" s="31">
+      <c r="U62" s="31">
         <v>20.788577</v>
       </c>
-      <c r="V46" s="31">
+      <c r="V62" s="31">
         <v>21.490016000000001</v>
       </c>
-      <c r="W46" s="34">
+      <c r="W62" s="34">
         <v>3.9092684044117654</v>
       </c>
-      <c r="X46" s="34">
+      <c r="X62" s="34">
         <v>4.7493974044117646</v>
       </c>
-      <c r="Y46" s="34">
+      <c r="Y62" s="34">
         <v>5.6558230962962952</v>
       </c>
-      <c r="Z46" s="34">
+      <c r="Z62" s="34">
         <v>4.7642073676470602</v>
       </c>
-      <c r="AA46" s="34">
+      <c r="AA62" s="34">
         <v>3.9151511102941159</v>
       </c>
-      <c r="AB46" s="31">
+      <c r="AB62" s="31">
         <v>49.926560110294126</v>
       </c>
-      <c r="AC46" s="31">
+      <c r="AC62" s="31">
         <v>49.929095757352961</v>
       </c>
-      <c r="AD46" s="31">
+      <c r="AD62" s="31">
         <v>49.990274825925958</v>
       </c>
-      <c r="AE46" s="31">
+      <c r="AE62" s="31">
         <v>50.040242374999991</v>
       </c>
-      <c r="AF46" s="31">
+      <c r="AF62" s="31">
         <v>50.065050161764667</v>
       </c>
-      <c r="AG46" s="34">
+      <c r="AG62" s="34">
         <v>0.2820431911764707</v>
       </c>
-      <c r="AH46" s="34">
+      <c r="AH62" s="34">
         <v>0.53424416911764705</v>
       </c>
-      <c r="AI46" s="34">
+      <c r="AI62" s="34">
         <v>1.2621952481481482</v>
       </c>
-      <c r="AJ46" s="34">
+      <c r="AJ62" s="34">
         <v>0.63496296323529411</v>
       </c>
-      <c r="AK46" s="34">
+      <c r="AK62" s="34">
         <v>0.45394387499999983</v>
       </c>
-      <c r="AL46" s="31">
+      <c r="AL62" s="31">
         <v>31.329671051470587</v>
       </c>
-      <c r="AM46" s="31">
+      <c r="AM62" s="31">
         <v>28.521643242647059</v>
       </c>
-      <c r="AN46" s="31">
+      <c r="AN62" s="31">
         <v>27.431618037037062</v>
       </c>
-      <c r="AO46" s="31">
+      <c r="AO62" s="31">
         <v>28.634437683823521</v>
       </c>
-      <c r="AP46" s="31">
+      <c r="AP62" s="31">
         <v>31.563732904411754</v>
       </c>
-      <c r="AQ46" s="35">
+      <c r="AQ62" s="35">
         <v>42630.245972222219</v>
       </c>
-      <c r="AR46" s="35">
+      <c r="AR62" s="35">
         <v>42630.266805555555</v>
       </c>
-      <c r="AS46" s="35">
+      <c r="AS62" s="35">
         <v>42630.28765046296</v>
       </c>
-      <c r="AT46" s="35">
+      <c r="AT62" s="35">
         <v>42630.329328703701</v>
       </c>
-      <c r="AU46" s="35">
+      <c r="AU62" s="35">
         <v>42630.350162037037</v>
       </c>
-      <c r="AV46" s="35">
+      <c r="AV62" s="35">
         <v>42630.370995370373</v>
       </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A47" s="27">
-        <f t="shared" si="12"/>
+    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A63" s="27">
+        <f>A19</f>
         <v>350</v>
       </c>
-      <c r="B47" s="13">
-        <f t="shared" si="11"/>
+      <c r="B63" s="13">
+        <f>Q10-Q63</f>
         <v>-1.9317400000000013</v>
       </c>
-      <c r="C47" s="13">
-        <f>R10-R47-(AB10-AB47)*$F$3-$G$3*(AG10+AL10-AG47-AL47)</f>
+      <c r="C63" s="13">
+        <f>R10-R63-(AB10-AB63)*$F$3-$G$3*(AG10+AL10-AG63-AL63)</f>
         <v>-0.58144543866217768</v>
       </c>
-      <c r="D47" s="13">
-        <f>S10-S47-(AC10-AC47)*$F$4-$G$4*(AH10+AM10-AH47-AM47)</f>
+      <c r="D63" s="13">
+        <f>S10-S63-(AC10-AC63)*$F$4-$G$4*(AH10+AM10-AH63-AM63)</f>
         <v>-1.8220250001328591</v>
       </c>
-      <c r="E47" s="13">
-        <f>T10-T47-(AD10-AD47)*$F$5-$G$5*(AI10+AN10-AI47-AN47)</f>
+      <c r="E63" s="13">
+        <f>T10-T63-(AD10-AD63)*$F$5-$G$5*(AI10+AN10-AI63-AN63)</f>
         <v>-2.4705913383838216</v>
       </c>
-      <c r="F47" s="13">
-        <f>U10-U47-(AE10-AE47)*$F$4-$G$4*(AJ10+AO10-AJ47-AO47)</f>
+      <c r="F63" s="13">
+        <f>U10-U63-(AE10-AE63)*$F$4-$G$4*(AJ10+AO10-AJ63-AO63)</f>
         <v>-2.4404086306257273</v>
       </c>
-      <c r="G47" s="13">
-        <f>V10-V47-(AF10-AF47)*$F$3-$G$3*(AK10+AP10-AK47-AP47)</f>
+      <c r="G63" s="13">
+        <f>V10-V63-(AF10-AF63)*$F$3-$G$3*(AK10+AP10-AK63-AP63)</f>
         <v>-1.6588989249396757</v>
       </c>
-      <c r="I47" s="22"/>
-      <c r="P47" s="25">
+      <c r="I63" s="44">
+        <v>1</v>
+      </c>
+      <c r="J63" s="22">
+        <f>(W63*$I$63*$K$7+$L$7+$Q63-R63)/(W63*$I$63)</f>
+        <v>1.1259191669120006</v>
+      </c>
+      <c r="K63" s="22">
+        <f>(X63*$I$62*$K$6+$L$6+$Q63-S63)/(X63*$I$62)</f>
+        <v>1.1490370497664577</v>
+      </c>
+      <c r="L63" s="22">
+        <f>(Y63*$I$62*$K$6+$L$6+$Q63-T63)/(Y63*$I$62)</f>
+        <v>1.1198559995574884</v>
+      </c>
+      <c r="M63" s="22">
+        <f>(Z63*$I$62*$K$6+$L$6+$Q63-U63)/(Z63*$I$62)</f>
+        <v>1.1329296105113278</v>
+      </c>
+      <c r="N63" s="22">
+        <f>(AA63*$I$62*$K$6+$L$6+$Q63-V63)/(AA63*$I$62)</f>
+        <v>1.148653576391796</v>
+      </c>
+      <c r="P63" s="25">
         <v>350</v>
       </c>
-      <c r="Q47" s="31">
+      <c r="Q63" s="31">
         <v>30.748023</v>
       </c>
-      <c r="R47" s="31">
+      <c r="R63" s="31">
         <v>28.138611999999998</v>
       </c>
-      <c r="S47" s="31">
+      <c r="S63" s="31">
         <v>27.770403999999999</v>
       </c>
-      <c r="T47" s="31">
+      <c r="T63" s="31">
         <v>27.460035000000001</v>
       </c>
-      <c r="U47" s="31">
+      <c r="U63" s="31">
         <v>27.838999000000001</v>
       </c>
-      <c r="V47" s="31">
+      <c r="V63" s="31">
         <v>28.107513000000001</v>
       </c>
-      <c r="W47" s="34">
+      <c r="W63" s="34">
         <v>3.7807495037037047</v>
       </c>
-      <c r="X47" s="34">
+      <c r="X63" s="34">
         <v>4.2754131323529414</v>
       </c>
-      <c r="Y47" s="34">
+      <c r="Y63" s="34">
         <v>4.9343317592592619</v>
       </c>
-      <c r="Z47" s="34">
+      <c r="Z63" s="34">
         <v>4.2818352279411753</v>
       </c>
-      <c r="AA47" s="34">
+      <c r="AA63" s="34">
         <v>3.7978505661764692</v>
       </c>
-      <c r="AB47" s="31">
+      <c r="AB63" s="31">
         <v>49.766055492647041</v>
       </c>
-      <c r="AC47" s="31">
+      <c r="AC63" s="31">
         <v>49.793189647058824</v>
       </c>
-      <c r="AD47" s="31">
+      <c r="AD63" s="31">
         <v>49.838368492592615</v>
       </c>
-      <c r="AE47" s="31">
+      <c r="AE63" s="31">
         <v>49.887185448529401</v>
       </c>
-      <c r="AF47" s="31">
+      <c r="AF63" s="31">
         <v>49.912033220588235</v>
       </c>
-      <c r="AG47" s="34">
+      <c r="AG63" s="34">
         <v>1.3925241985294112</v>
       </c>
-      <c r="AH47" s="34">
+      <c r="AH63" s="34">
         <v>1.9651612132352942</v>
       </c>
-      <c r="AI47" s="34">
+      <c r="AI63" s="34">
         <v>2.8977689555555548</v>
       </c>
-      <c r="AJ47" s="34">
+      <c r="AJ63" s="34">
         <v>2.245346205882353</v>
       </c>
-      <c r="AK47" s="34">
+      <c r="AK63" s="34">
         <v>1.8961428676470584</v>
       </c>
-      <c r="AL47" s="31">
+      <c r="AL63" s="31">
         <v>32.352111426470579</v>
       </c>
-      <c r="AM47" s="31">
+      <c r="AM63" s="31">
         <v>30.042719264705887</v>
       </c>
-      <c r="AN47" s="31">
+      <c r="AN63" s="31">
         <v>29.20733226296295</v>
       </c>
-      <c r="AO47" s="31">
+      <c r="AO63" s="31">
         <v>30.148019007352932</v>
       </c>
-      <c r="AP47" s="31">
+      <c r="AP63" s="31">
         <v>32.669558124999995</v>
       </c>
-      <c r="AQ47" s="35">
+      <c r="AQ63" s="35">
         <v>42630.475185185183</v>
       </c>
-      <c r="AR47" s="35">
+      <c r="AR63" s="35">
         <v>42630.496030092596</v>
       </c>
-      <c r="AS47" s="35">
+      <c r="AS63" s="35">
         <v>42630.516863425924</v>
       </c>
-      <c r="AT47" s="35">
+      <c r="AT63" s="35">
         <v>42630.558541666665</v>
       </c>
-      <c r="AU47" s="35">
+      <c r="AU63" s="35">
         <v>42630.579386574071</v>
       </c>
-      <c r="AV47" s="35">
+      <c r="AV63" s="35">
         <v>42630.600219907406</v>
       </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A48" s="27">
-        <f t="shared" si="12"/>
+    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A64" s="27">
+        <f>A20</f>
         <v>400</v>
       </c>
-      <c r="B48" s="13">
-        <f t="shared" si="11"/>
+      <c r="B64" s="13">
+        <f>Q11-Q64</f>
         <v>-2.4245609999999971</v>
       </c>
-      <c r="C48" s="13">
-        <f>R11-R48-(AB11-AB48)*$F$3-$G$3*(AG11+AL11-AG48-AL48)</f>
+      <c r="C64" s="13">
+        <f>R11-R64-(AB11-AB64)*$F$3-$G$3*(AG11+AL11-AG64-AL64)</f>
         <v>-1.9439680548184053</v>
       </c>
-      <c r="D48" s="13">
-        <f>S11-S48-(AC11-AC48)*$F$4-$G$4*(AH11+AM11-AH48-AM48)</f>
+      <c r="D64" s="13">
+        <f>S11-S64-(AC11-AC64)*$F$4-$G$4*(AH11+AM11-AH64-AM64)</f>
         <v>-3.1649659423394869</v>
       </c>
-      <c r="E48" s="13">
-        <f>T11-T48-(AD11-AD48)*$F$5-$G$5*(AI11+AN11-AI48-AN48)</f>
+      <c r="E64" s="13">
+        <f>T11-T64-(AD11-AD64)*$F$5-$G$5*(AI11+AN11-AI64-AN64)</f>
         <v>-3.4878556984759892</v>
       </c>
-      <c r="F48" s="13">
-        <f>U11-U48-(AE11-AE48)*$F$4-$G$4*(AJ11+AO11-AJ48-AO48)</f>
+      <c r="F64" s="13">
+        <f>U11-U64-(AE11-AE64)*$F$4-$G$4*(AJ11+AO11-AJ64-AO64)</f>
         <v>-2.9380786872502096</v>
       </c>
-      <c r="G48" s="13">
-        <f>V11-V48-(AF11-AF48)*$F$3-$G$3*(AK11+AP11-AK48-AP48)</f>
+      <c r="G64" s="13">
+        <f>V11-V64-(AF11-AF64)*$F$3-$G$3*(AK11+AP11-AK64-AP64)</f>
         <v>-2.0153141262129681</v>
       </c>
-      <c r="I48" s="44">
+      <c r="I64" s="44">
         <v>1.06</v>
       </c>
-      <c r="J48" s="45">
-        <f>(W48*$I$48*$K$8+$L$8+$Q48-R48)/(W48*$I$48)</f>
+      <c r="J64" s="22">
+        <f>(W64*$I$64*$K$8+$L$8+$Q64-R64)/(W64*$I$64)</f>
         <v>1.1082948047716192</v>
       </c>
-      <c r="K48" s="45">
-        <f>(X48*$I$48*$K$8+$L$8+$Q48-S48)/(X48*$I$48)</f>
+      <c r="K64" s="22">
+        <f>(X64*$I$64*$K$8+$L$8+$Q64-S64)/(X64*$I$64)</f>
         <v>1.082600782216151</v>
       </c>
-      <c r="L48" s="45">
-        <f>(Y48*$I$48*$K$8+$L$8+$Q48-T48)/(Y48*$I$48)</f>
+      <c r="L64" s="22">
+        <f>(Y64*$I$64*$K$8+$L$8+$Q64-T64)/(Y64*$I$64)</f>
         <v>1.0091152061809914</v>
       </c>
-      <c r="M48" s="45">
-        <f>(Z48*$I$48*$K$8+$L$8+$Q48-U48)/(Z48*$I$48)</f>
+      <c r="M64" s="22">
+        <f>(Z64*$I$64*$K$8+$L$8+$Q64-U64)/(Z64*$I$64)</f>
         <v>1.0566655541757102</v>
       </c>
-      <c r="N48" s="45">
-        <f>(AA48*$I$48*$K$8+$L$8+$Q48-V48)/(AA48*$I$48)</f>
+      <c r="N64" s="22">
+        <f>(AA64*$I$64*$K$8+$L$8+$Q64-V64)/(AA64*$I$64)</f>
         <v>1.0521948750550463</v>
       </c>
-      <c r="P48" s="25">
+      <c r="P64" s="25">
         <v>400</v>
       </c>
-      <c r="Q48" s="31">
+      <c r="Q64" s="31">
         <v>37.718347999999999</v>
       </c>
-      <c r="R48" s="31">
+      <c r="R64" s="31">
         <v>35.002822999999999</v>
       </c>
-      <c r="S48" s="31">
+      <c r="S64" s="31">
         <v>34.929299</v>
       </c>
-      <c r="T48" s="31">
+      <c r="T64" s="31">
         <v>34.972788000000001</v>
       </c>
-      <c r="U48" s="31">
+      <c r="U64" s="31">
         <v>35.036107000000001</v>
       </c>
-      <c r="V48" s="31">
+      <c r="V64" s="31">
         <v>35.217022999999998</v>
       </c>
-      <c r="W48" s="34">
+      <c r="W64" s="34">
         <v>3.8069600882352916</v>
       </c>
-      <c r="X48" s="34">
+      <c r="X64" s="34">
         <v>4.0630797037037061</v>
       </c>
-      <c r="Y48" s="34">
+      <c r="Y64" s="34">
         <v>4.5077070629629663</v>
       </c>
-      <c r="Z48" s="34">
+      <c r="Z64" s="34">
         <v>4.0704419117647062</v>
       </c>
-      <c r="AA48" s="34">
+      <c r="AA64" s="34">
         <v>3.8254305588235269</v>
       </c>
-      <c r="AB48" s="31">
+      <c r="AB64" s="31">
         <v>49.568976426470584</v>
       </c>
-      <c r="AC48" s="31">
+      <c r="AC64" s="31">
         <v>49.601936251851832</v>
       </c>
-      <c r="AD48" s="31">
+      <c r="AD64" s="31">
         <v>49.655772359259231</v>
       </c>
-      <c r="AE48" s="31">
+      <c r="AE64" s="31">
         <v>49.719976308823519</v>
       </c>
-      <c r="AF48" s="31">
+      <c r="AF64" s="31">
         <v>49.736532705882361</v>
       </c>
-      <c r="AG48" s="34">
+      <c r="AG64" s="34">
         <v>1.5327790735294118</v>
       </c>
-      <c r="AH48" s="34">
+      <c r="AH64" s="34">
         <v>1.905926474074074</v>
       </c>
-      <c r="AI48" s="34">
+      <c r="AI64" s="34">
         <v>2.6742972148148159</v>
       </c>
-      <c r="AJ48" s="34">
+      <c r="AJ64" s="34">
         <v>1.9964650588235295</v>
       </c>
-      <c r="AK48" s="34">
+      <c r="AK64" s="34">
         <v>1.564611117647059</v>
       </c>
-      <c r="AL48" s="31">
+      <c r="AL64" s="31">
         <v>32.307303323529425</v>
       </c>
-      <c r="AM48" s="31">
+      <c r="AM64" s="31">
         <v>30.113826266666674</v>
       </c>
-      <c r="AN48" s="31">
+      <c r="AN64" s="31">
         <v>29.463074388888899</v>
       </c>
-      <c r="AO48" s="31">
+      <c r="AO64" s="31">
         <v>30.189149382352952</v>
       </c>
-      <c r="AP48" s="31">
+      <c r="AP64" s="31">
         <v>32.525560580882356</v>
       </c>
-      <c r="AQ48" s="35">
+      <c r="AQ64" s="35">
         <v>42630.704409722224</v>
       </c>
-      <c r="AR48" s="35">
+      <c r="AR64" s="35">
         <v>42630.725243055553</v>
       </c>
-      <c r="AS48" s="35">
+      <c r="AS64" s="35">
         <v>42630.745972222219</v>
       </c>
-      <c r="AT48" s="35">
+      <c r="AT64" s="35">
         <v>42630.78765046296</v>
       </c>
-      <c r="AU48" s="35">
+      <c r="AU64" s="35">
         <v>42630.808483796296</v>
       </c>
-      <c r="AV48" s="35">
+      <c r="AV64" s="35">
         <v>42630.829328703701</v>
       </c>
     </row>
-    <row r="49" spans="9:48" x14ac:dyDescent="0.25">
-      <c r="I49" s="40"/>
-      <c r="P49"/>
-      <c r="Q49"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-    </row>
-    <row r="50" spans="9:48" x14ac:dyDescent="0.25">
-      <c r="P50"/>
-      <c r="Q50"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-    </row>
-    <row r="52" spans="9:48" x14ac:dyDescent="0.25">
-      <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
-      <c r="T52"/>
-      <c r="U52"/>
-      <c r="V52"/>
-      <c r="W52"/>
-      <c r="X52"/>
-      <c r="Y52"/>
-      <c r="Z52"/>
-      <c r="AA52"/>
-      <c r="AB52"/>
-      <c r="AC52"/>
-      <c r="AD52"/>
-      <c r="AE52"/>
-      <c r="AF52"/>
-      <c r="AG52"/>
-      <c r="AH52"/>
-      <c r="AI52"/>
-      <c r="AJ52"/>
-      <c r="AK52"/>
-      <c r="AL52"/>
-      <c r="AM52"/>
-      <c r="AN52"/>
-      <c r="AO52"/>
-      <c r="AP52"/>
-      <c r="AQ52" s="36"/>
-      <c r="AR52" s="36"/>
-      <c r="AS52" s="36"/>
-      <c r="AT52" s="36"/>
-      <c r="AU52" s="36"/>
-      <c r="AV52" s="36"/>
+    <row r="65" spans="9:48" x14ac:dyDescent="0.25">
+      <c r="I65" s="40"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+    </row>
+    <row r="66" spans="9:48" x14ac:dyDescent="0.25">
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+    </row>
+    <row r="68" spans="9:48" x14ac:dyDescent="0.25">
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68"/>
+      <c r="AE68"/>
+      <c r="AF68"/>
+      <c r="AG68"/>
+      <c r="AH68"/>
+      <c r="AI68"/>
+      <c r="AJ68"/>
+      <c r="AK68"/>
+      <c r="AL68"/>
+      <c r="AM68"/>
+      <c r="AN68"/>
+      <c r="AO68"/>
+      <c r="AP68"/>
+      <c r="AQ68" s="36"/>
+      <c r="AR68" s="36"/>
+      <c r="AS68" s="36"/>
+      <c r="AT68" s="36"/>
+      <c r="AU68" s="36"/>
+      <c r="AV68" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4517,51 +7096,119 @@
     <mergeCell ref="J1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:G20">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="33" operator="greaterThan">
       <formula>3.19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:G29">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="31" operator="greaterThan">
       <formula>3.19</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:G34">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
+  <conditionalFormatting sqref="C49:G50">
+    <cfRule type="cellIs" dxfId="53" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="29" operator="greaterThan">
       <formula>3.19</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:G38">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="greaterThan">
+  <conditionalFormatting sqref="C54:G54">
+    <cfRule type="cellIs" dxfId="51" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="27" operator="greaterThan">
       <formula>3.19</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C48">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="C59:C64">
+    <cfRule type="cellIs" dxfId="49" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="23" operator="greaterThan">
       <formula>3.19</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:G48">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D59:G64">
+    <cfRule type="cellIs" dxfId="47" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="21" operator="greaterThan">
+      <formula>3.19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:G43">
+    <cfRule type="cellIs" dxfId="45" priority="18" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="19" operator="greaterThan">
+      <formula>3.19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C35 G33:G35">
+    <cfRule type="cellIs" dxfId="43" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="17" operator="greaterThan">
+      <formula>3.19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="cellIs" dxfId="41" priority="14" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="15" operator="greaterThan">
+      <formula>3.19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D36">
+    <cfRule type="cellIs" dxfId="39" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="13" operator="greaterThan">
+      <formula>3.19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:F36">
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="11" operator="greaterThan">
+      <formula>3.19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:E36">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="greaterThan">
+      <formula>3.19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33:N36">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+      <formula>1.3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41:M43">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+      <formula>1.3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54:N55">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
-      <formula>3.19</formula>
+      <formula>1.3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J59:N64">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>1.3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4573,8 +7220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA45" sqref="AA45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4587,7 +7234,7 @@
     <col min="6" max="6" width="9.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="3.125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="53" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="49" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.375" style="16" customWidth="1"/>
     <col min="11" max="11" width="10.375" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1" customWidth="1"/>
@@ -4602,32 +7249,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="20"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="48" t="s">
+      <c r="I1" s="46"/>
+      <c r="J1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
       <c r="N1" s="21"/>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
       <c r="W1" s="8" t="s">
         <v>39</v>
       </c>
@@ -4635,35 +7282,35 @@
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
-      <c r="AB1" s="49" t="s">
+      <c r="AB1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49" t="s">
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49" t="s">
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49" t="s">
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
     </row>
     <row r="2" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -4688,7 +7335,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="23"/>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="47" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="17" t="s">
@@ -4850,7 +7497,7 @@
         <v>1.1434730538922155</v>
       </c>
       <c r="H3" s="22"/>
-      <c r="I3" s="52"/>
+      <c r="I3" s="48"/>
       <c r="J3" s="17">
         <v>150</v>
       </c>
@@ -4888,7 +7535,7 @@
         <v>1.1467404378157326</v>
       </c>
       <c r="H4" s="22"/>
-      <c r="I4" s="52"/>
+      <c r="I4" s="48"/>
       <c r="J4" s="17">
         <v>200</v>
       </c>
@@ -4928,7 +7575,7 @@
         <v>1.1654411764705883</v>
       </c>
       <c r="H5" s="22"/>
-      <c r="I5" s="52"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="17">
         <v>250</v>
       </c>
@@ -5401,23 +8048,23 @@
       <c r="AQ11" s="3"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="17"/>
-      <c r="J12" s="47" t="s">
+      <c r="J12" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
       <c r="O12" s="39"/>
-      <c r="P12" s="57" t="s">
+      <c r="P12" s="53" t="s">
         <v>5</v>
       </c>
       <c r="Q12" s="3"/>
@@ -5497,7 +8144,7 @@
       <c r="M14" s="39"/>
       <c r="N14" s="17"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="56"/>
+      <c r="P14" s="52"/>
       <c r="Q14" s="2" t="s">
         <v>34</v>
       </c>
@@ -5511,27 +8158,27 @@
         <v>0.11542700000000039</v>
       </c>
       <c r="C15" s="13">
-        <f>R6-R15-(AB6-AB15)*$F$3-$G$3*(AG6+AL6-AG15-AL15)</f>
+        <f t="shared" ref="C15:C20" si="1">R6-R15-(AB6-AB15)*$F$3-$G$3*(AG6+AL6-AG15-AL15)</f>
         <v>-0.58551839767979907</v>
       </c>
       <c r="D15" s="13">
-        <f>S6-S15-(AC6-AC15)*$F$4-$G$4*(AH6+AM6-AH15-AM15)</f>
+        <f t="shared" ref="D15:D20" si="2">S6-S15-(AC6-AC15)*$F$4-$G$4*(AH6+AM6-AH15-AM15)</f>
         <v>-0.56920281147956309</v>
       </c>
       <c r="E15" s="13">
-        <f>T6-T15-(AD6-AD15)*$F$5-$G$5*(AI6+AN6-AI15-AN15)</f>
+        <f t="shared" ref="E15:E20" si="3">T6-T15-(AD6-AD15)*$F$5-$G$5*(AI6+AN6-AI15-AN15)</f>
         <v>-1.2185220067116702</v>
       </c>
       <c r="F15" s="13">
-        <f>U6-U15-(AE6-AE15)*$F$4-$G$4*(AJ6+AO6-AJ15-AO15)</f>
+        <f t="shared" ref="F15:F20" si="4">U6-U15-(AE6-AE15)*$F$4-$G$4*(AJ6+AO6-AJ15-AO15)</f>
         <v>-1.2934297836322592</v>
       </c>
       <c r="G15" s="13">
-        <f>V6-V15-(AF6-AF15)*$F$3-$G$3*(AK6+AP6-AK15-AP15)</f>
+        <f t="shared" ref="G15:G20" si="5">V6-V15-(AF6-AF15)*$F$3-$G$3*(AK6+AP6-AK15-AP15)</f>
         <v>-1.2142054011014094</v>
       </c>
       <c r="H15" s="22"/>
-      <c r="I15" s="52"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="17"/>
       <c r="N15" s="17"/>
       <c r="P15" s="39">
@@ -5607,31 +8254,31 @@
         <v>200</v>
       </c>
       <c r="B16" s="13">
-        <f t="shared" ref="B15:B20" si="1">Q7-Q16</f>
+        <f t="shared" ref="B16:B20" si="6">Q7-Q16</f>
         <v>-0.18823400000000134</v>
       </c>
       <c r="C16" s="13">
-        <f>R7-R16-(AB7-AB16)*$F$3-$G$3*(AG7+AL7-AG16-AL16)</f>
+        <f t="shared" si="1"/>
         <v>-0.64670396425486643</v>
       </c>
       <c r="D16" s="13">
-        <f>S7-S16-(AC7-AC16)*$F$4-$G$4*(AH7+AM7-AH16-AM16)</f>
+        <f t="shared" si="2"/>
         <v>-1.531930268265818</v>
       </c>
       <c r="E16" s="13">
-        <f>T7-T16-(AD7-AD16)*$F$5-$G$5*(AI7+AN7-AI16-AN16)</f>
+        <f t="shared" si="3"/>
         <v>-1.8035355966455966</v>
       </c>
       <c r="F16" s="13">
-        <f>U7-U16-(AE7-AE16)*$F$4-$G$4*(AJ7+AO7-AJ16-AO16)</f>
+        <f t="shared" si="4"/>
         <v>-1.3687584959361057</v>
       </c>
       <c r="G16" s="13">
-        <f>V7-V16-(AF7-AF16)*$F$3-$G$3*(AK7+AP7-AK16-AP16)</f>
+        <f t="shared" si="5"/>
         <v>-0.56889870508180707</v>
       </c>
       <c r="H16" s="22"/>
-      <c r="I16" s="52"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="17"/>
       <c r="N16" s="17"/>
       <c r="P16" s="39">
@@ -5707,31 +8354,31 @@
         <v>250</v>
       </c>
       <c r="B17" s="13">
+        <f t="shared" si="6"/>
+        <v>-0.42232699999999923</v>
+      </c>
+      <c r="C17" s="13">
         <f t="shared" si="1"/>
-        <v>-0.42232699999999923</v>
-      </c>
-      <c r="C17" s="13">
-        <f>R8-R17-(AB8-AB17)*$F$3-$G$3*(AG8+AL8-AG17-AL17)</f>
         <v>-0.64761725331956987</v>
       </c>
       <c r="D17" s="13">
-        <f>S8-S17-(AC8-AC17)*$F$4-$G$4*(AH8+AM8-AH17-AM17)</f>
+        <f t="shared" si="2"/>
         <v>-0.58533339020061614</v>
       </c>
       <c r="E17" s="13">
-        <f>T8-T17-(AD8-AD17)*$F$5-$G$5*(AI8+AN8-AI17-AN17)</f>
+        <f t="shared" si="3"/>
         <v>-1.4195562873832297</v>
       </c>
       <c r="F17" s="13">
-        <f>U8-U17-(AE8-AE17)*$F$4-$G$4*(AJ8+AO8-AJ17-AO17)</f>
+        <f t="shared" si="4"/>
         <v>-1.3512506205705908</v>
       </c>
       <c r="G17" s="13">
-        <f>V8-V17-(AF8-AF17)*$F$3-$G$3*(AK8+AP8-AK17-AP17)</f>
+        <f t="shared" si="5"/>
         <v>-1.0671519792638884</v>
       </c>
       <c r="H17" s="22"/>
-      <c r="I17" s="52"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="17"/>
       <c r="N17" s="17"/>
       <c r="P17" s="39">
@@ -5807,31 +8454,31 @@
         <v>300</v>
       </c>
       <c r="B18" s="13">
+        <f t="shared" si="6"/>
+        <v>-0.43538299999999808</v>
+      </c>
+      <c r="C18" s="13">
         <f t="shared" si="1"/>
-        <v>-0.43538299999999808</v>
-      </c>
-      <c r="C18" s="13">
-        <f>R9-R18-(AB9-AB18)*$F$3-$G$3*(AG9+AL9-AG18-AL18)</f>
         <v>-0.90186822175645731</v>
       </c>
       <c r="D18" s="13">
-        <f>S9-S18-(AC9-AC18)*$F$4-$G$4*(AH9+AM9-AH18-AM18)</f>
+        <f t="shared" si="2"/>
         <v>-0.5985401774302519</v>
       </c>
       <c r="E18" s="13">
-        <f>T9-T18-(AD9-AD18)*$F$5-$G$5*(AI9+AN9-AI18-AN18)</f>
+        <f t="shared" si="3"/>
         <v>-0.3310379871956417</v>
       </c>
       <c r="F18" s="13">
-        <f>U9-U18-(AE9-AE18)*$F$4-$G$4*(AJ9+AO9-AJ18-AO18)</f>
+        <f t="shared" si="4"/>
         <v>-4.9427198272405493E-2</v>
       </c>
       <c r="G18" s="13">
-        <f>V9-V18-(AF9-AF18)*$F$3-$G$3*(AK9+AP9-AK18-AP18)</f>
+        <f t="shared" si="5"/>
         <v>0.34138990693689775</v>
       </c>
       <c r="H18" s="22"/>
-      <c r="I18" s="52"/>
+      <c r="I18" s="48"/>
       <c r="J18" s="17"/>
       <c r="N18" s="17"/>
       <c r="P18" s="39">
@@ -5907,31 +8554,31 @@
         <v>350</v>
       </c>
       <c r="B19" s="13">
+        <f t="shared" si="6"/>
+        <v>-0.68053600000000003</v>
+      </c>
+      <c r="C19" s="13">
         <f t="shared" si="1"/>
-        <v>-0.68053600000000003</v>
-      </c>
-      <c r="C19" s="13">
-        <f>R10-R19-(AB10-AB19)*$F$3-$G$3*(AG10+AL10-AG19-AL19)</f>
         <v>0.18176449856475818</v>
       </c>
       <c r="D19" s="13">
-        <f>S10-S19-(AC10-AC19)*$F$4-$G$4*(AH10+AM10-AH19-AM19)</f>
+        <f t="shared" si="2"/>
         <v>-1.0732379136865269</v>
       </c>
       <c r="E19" s="13">
-        <f>T10-T19-(AD10-AD19)*$F$5-$G$5*(AI10+AN10-AI19-AN19)</f>
+        <f t="shared" si="3"/>
         <v>-1.9660168171592518</v>
       </c>
       <c r="F19" s="13">
-        <f>U10-U19-(AE10-AE19)*$F$4-$G$4*(AJ10+AO10-AJ19-AO19)</f>
+        <f t="shared" si="4"/>
         <v>-1.0836316476116767</v>
       </c>
       <c r="G19" s="13">
-        <f>V10-V19-(AF10-AF19)*$F$3-$G$3*(AK10+AP10-AK19-AP19)</f>
+        <f t="shared" si="5"/>
         <v>-1.0531913820662506</v>
       </c>
       <c r="H19" s="22"/>
-      <c r="I19" s="52"/>
+      <c r="I19" s="48"/>
       <c r="J19" s="17"/>
       <c r="N19" s="17"/>
       <c r="P19" s="39">
@@ -6007,31 +8654,31 @@
         <v>400</v>
       </c>
       <c r="B20" s="13">
+        <f t="shared" si="6"/>
+        <v>-0.49248199999999542</v>
+      </c>
+      <c r="C20" s="13">
         <f t="shared" si="1"/>
-        <v>-0.49248199999999542</v>
-      </c>
-      <c r="C20" s="13">
-        <f>R11-R20-(AB11-AB20)*$F$3-$G$3*(AG11+AL11-AG20-AL20)</f>
         <v>-1.4245323525394198</v>
       </c>
       <c r="D20" s="13">
-        <f>S11-S20-(AC11-AC20)*$F$4-$G$4*(AH11+AM11-AH20-AM20)</f>
+        <f t="shared" si="2"/>
         <v>-1.8969280044729411</v>
       </c>
       <c r="E20" s="13">
-        <f>T11-T20-(AD11-AD20)*$F$5-$G$5*(AI11+AN11-AI20-AN20)</f>
+        <f t="shared" si="3"/>
         <v>-1.8914122893223444</v>
       </c>
       <c r="F20" s="13">
-        <f>U11-U20-(AE11-AE20)*$F$4-$G$4*(AJ11+AO11-AJ20-AO20)</f>
+        <f t="shared" si="4"/>
         <v>-3.8765377649504149</v>
       </c>
       <c r="G20" s="13">
-        <f>V11-V20-(AF11-AF20)*$F$3-$G$3*(AK11+AP11-AK20-AP20)</f>
+        <f t="shared" si="5"/>
         <v>-3.6122474310283801</v>
       </c>
       <c r="H20" s="22"/>
-      <c r="I20" s="52"/>
+      <c r="I20" s="48"/>
       <c r="J20" s="17"/>
       <c r="N20" s="17"/>
       <c r="P20" s="39">
@@ -6103,22 +8750,22 @@
       <c r="AQ20" s="3"/>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="P21" s="57" t="s">
+      <c r="P21" s="53" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="P22" s="56"/>
+      <c r="P22" s="52"/>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="P23" s="56"/>
+      <c r="P23" s="52"/>
       <c r="Q23" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:43" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
-        <f t="shared" ref="A24:A29" si="2">A15</f>
+        <f t="shared" ref="A24:A29" si="7">A15</f>
         <v>150</v>
       </c>
       <c r="B24" s="13">
@@ -6126,27 +8773,27 @@
         <v>-0.18053199999999947</v>
       </c>
       <c r="C24" s="13">
-        <f>R6-R24-(AB6-AB24)*$F$3-$G$3*(AG6+AL6-AG24-AL24)</f>
+        <f t="shared" ref="C24:C29" si="8">R6-R24-(AB6-AB24)*$F$3-$G$3*(AG6+AL6-AG24-AL24)</f>
         <v>-0.28244904044162933</v>
       </c>
       <c r="D24" s="13">
-        <f>S6-S24-(AC6-AC24)*$F$4-$G$4*(AH6+AM6-AH24-AM24)</f>
+        <f t="shared" ref="D24:D29" si="9">S6-S24-(AC6-AC24)*$F$4-$G$4*(AH6+AM6-AH24-AM24)</f>
         <v>-0.55211948547842771</v>
       </c>
       <c r="E24" s="13">
-        <f>T6-T24-(AD6-AD24)*$F$5-$G$5*(AI6+AN6-AI24-AN24)</f>
+        <f t="shared" ref="E24:E29" si="10">T6-T24-(AD6-AD24)*$F$5-$G$5*(AI6+AN6-AI24-AN24)</f>
         <v>-1.2806876227753319</v>
       </c>
       <c r="F24" s="13">
-        <f>U6-U24-(AE6-AE24)*$F$4-$G$4*(AJ6+AO6-AJ24-AO24)</f>
+        <f t="shared" ref="F24:F29" si="11">U6-U24-(AE6-AE24)*$F$4-$G$4*(AJ6+AO6-AJ24-AO24)</f>
         <v>-1.1256331392179493</v>
       </c>
       <c r="G24" s="13">
-        <f>V6-V24-(AF6-AF24)*$F$3-$G$3*(AK6+AP6-AK24-AP24)</f>
+        <f t="shared" ref="G24:G29" si="12">V6-V24-(AF6-AF24)*$F$3-$G$3*(AK6+AP6-AK24-AP24)</f>
         <v>-2.2091838044552516</v>
       </c>
       <c r="H24" s="22"/>
-      <c r="I24" s="52"/>
+      <c r="I24" s="48"/>
       <c r="J24" s="17"/>
       <c r="N24" s="17"/>
       <c r="P24" s="25">
@@ -6219,7 +8866,7 @@
     </row>
     <row r="25" spans="1:43" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="B25" s="13">
@@ -6227,27 +8874,27 @@
         <v>-0.31693200000000132</v>
       </c>
       <c r="C25" s="13">
-        <f>R7-R25-(AB7-AB25)*$F$3-$G$3*(AG7+AL7-AG25-AL25)</f>
+        <f t="shared" si="8"/>
         <v>-0.96970171920232762</v>
       </c>
       <c r="D25" s="13">
-        <f>S7-S25-(AC7-AC25)*$F$4-$G$4*(AH7+AM7-AH25-AM25)</f>
+        <f t="shared" si="9"/>
         <v>-2.2314136996698926</v>
       </c>
       <c r="E25" s="13">
-        <f>T7-T25-(AD7-AD25)*$F$5-$G$5*(AI7+AN7-AI25-AN25)</f>
+        <f t="shared" si="10"/>
         <v>-2.2550739374211966</v>
       </c>
       <c r="F25" s="13">
-        <f>U7-U25-(AE7-AE25)*$F$4-$G$4*(AJ7+AO7-AJ25-AO25)</f>
+        <f t="shared" si="11"/>
         <v>-1.8107941634570084</v>
       </c>
       <c r="G25" s="13">
-        <f>V7-V25-(AF7-AF25)*$F$3-$G$3*(AK7+AP7-AK25-AP25)</f>
+        <f t="shared" si="12"/>
         <v>-1.8629536076591575</v>
       </c>
       <c r="H25" s="22"/>
-      <c r="I25" s="52"/>
+      <c r="I25" s="48"/>
       <c r="J25" s="17"/>
       <c r="N25" s="17"/>
       <c r="P25" s="25">
@@ -6320,7 +8967,7 @@
     </row>
     <row r="26" spans="1:43" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>250</v>
       </c>
       <c r="B26" s="13">
@@ -6328,27 +8975,27 @@
         <v>-0.65840899999999891</v>
       </c>
       <c r="C26" s="13">
-        <f>R8-R26-(AB8-AB26)*$F$3-$G$3*(AG8+AL8-AG26-AL26)</f>
+        <f t="shared" si="8"/>
         <v>-1.7282189413978828</v>
       </c>
       <c r="D26" s="13">
-        <f>S8-S26-(AC8-AC26)*$F$4-$G$4*(AH8+AM8-AH26-AM26)</f>
+        <f t="shared" si="9"/>
         <v>-1.6523218285957797</v>
       </c>
       <c r="E26" s="13">
-        <f>T8-T26-(AD8-AD26)*$F$5-$G$5*(AI8+AN8-AI26-AN26)</f>
+        <f t="shared" si="10"/>
         <v>-1.5288974084394757</v>
       </c>
       <c r="F26" s="13">
-        <f>U8-U26-(AE8-AE26)*$F$4-$G$4*(AJ8+AO8-AJ26-AO26)</f>
+        <f t="shared" si="11"/>
         <v>-2.1257515072458832</v>
       </c>
       <c r="G26" s="13">
-        <f>V8-V26-(AF8-AF26)*$F$3-$G$3*(AK8+AP8-AK26-AP26)</f>
+        <f t="shared" si="12"/>
         <v>-1.7253601607741622</v>
       </c>
       <c r="H26" s="22"/>
-      <c r="I26" s="52"/>
+      <c r="I26" s="48"/>
       <c r="J26" s="17"/>
       <c r="N26" s="17"/>
       <c r="P26" s="25">
@@ -6421,7 +9068,7 @@
     </row>
     <row r="27" spans="1:43" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="B27" s="13">
@@ -6429,27 +9076,27 @@
         <v>-0.39415499999999781</v>
       </c>
       <c r="C27" s="13">
-        <f>R9-R27-(AB9-AB27)*$F$3-$G$3*(AG9+AL9-AG27-AL27)</f>
+        <f t="shared" si="8"/>
         <v>-1.7807124647421431</v>
       </c>
       <c r="D27" s="13">
-        <f>S9-S27-(AC9-AC27)*$F$4-$G$4*(AH9+AM9-AH27-AM27)</f>
+        <f t="shared" si="9"/>
         <v>-2.4321933505780065</v>
       </c>
       <c r="E27" s="13">
-        <f>T9-T27-(AD9-AD27)*$F$5-$G$5*(AI9+AN9-AI27-AN27)</f>
+        <f t="shared" si="10"/>
         <v>-2.3995657800133467</v>
       </c>
       <c r="F27" s="13">
-        <f>U9-U27-(AE9-AE27)*$F$4-$G$4*(AJ9+AO9-AJ27-AO27)</f>
+        <f t="shared" si="11"/>
         <v>-0.85377054567501787</v>
       </c>
       <c r="G27" s="13">
-        <f>V9-V27-(AF9-AF27)*$F$3-$G$3*(AK9+AP9-AK27-AP27)</f>
+        <f t="shared" si="12"/>
         <v>-0.56849139505752477</v>
       </c>
       <c r="H27" s="22"/>
-      <c r="I27" s="52"/>
+      <c r="I27" s="48"/>
       <c r="J27" s="17"/>
       <c r="N27" s="17"/>
       <c r="P27" s="25">
@@ -6522,7 +9169,7 @@
     </row>
     <row r="28" spans="1:43" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>350</v>
       </c>
       <c r="B28" s="13">
@@ -6530,27 +9177,27 @@
         <v>-0.81459000000000259</v>
       </c>
       <c r="C28" s="13">
-        <f>R10-R28-(AB10-AB28)*$F$3-$G$3*(AG10+AL10-AG28-AL28)</f>
+        <f t="shared" si="8"/>
         <v>-0.31845564044984709</v>
       </c>
       <c r="D28" s="13">
-        <f>S10-S28-(AC10-AC28)*$F$4-$G$4*(AH10+AM10-AH28-AM28)</f>
+        <f t="shared" si="9"/>
         <v>-1.4610367839440914</v>
       </c>
       <c r="E28" s="13">
-        <f>T10-T28-(AD10-AD28)*$F$5-$G$5*(AI10+AN10-AI28-AN28)</f>
+        <f t="shared" si="10"/>
         <v>-1.6506542658958672</v>
       </c>
       <c r="F28" s="13">
-        <f>U10-U28-(AE10-AE28)*$F$4-$G$4*(AJ10+AO10-AJ28-AO28)</f>
+        <f t="shared" si="11"/>
         <v>-2.487316235025232</v>
       </c>
       <c r="G28" s="13">
-        <f>V10-V28-(AF10-AF28)*$F$3-$G$3*(AK10+AP10-AK28-AP28)</f>
+        <f t="shared" si="12"/>
         <v>-2.256729754594355</v>
       </c>
       <c r="H28" s="22"/>
-      <c r="I28" s="52"/>
+      <c r="I28" s="48"/>
       <c r="J28" s="17"/>
       <c r="N28" s="17"/>
       <c r="P28" s="25">
@@ -6623,7 +9270,7 @@
     </row>
     <row r="29" spans="1:43" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="B29" s="13">
@@ -6631,27 +9278,27 @@
         <v>-0.49177999999999855</v>
       </c>
       <c r="C29" s="13">
-        <f>R11-R29-(AB11-AB29)*$F$3-$G$3*(AG11+AL11-AG29-AL29)</f>
+        <f t="shared" si="8"/>
         <v>-3.4603626653909849</v>
       </c>
       <c r="D29" s="13">
-        <f>S11-S29-(AC11-AC29)*$F$4-$G$4*(AH11+AM11-AH29-AM29)</f>
+        <f t="shared" si="9"/>
         <v>-3.6384390822336776</v>
       </c>
       <c r="E29" s="13">
-        <f>T11-T29-(AD11-AD29)*$F$5-$G$5*(AI11+AN11-AI29-AN29)</f>
+        <f t="shared" si="10"/>
         <v>-3.7657997570929118</v>
       </c>
       <c r="F29" s="13">
-        <f>U11-U29-(AE11-AE29)*$F$4-$G$4*(AJ11+AO11-AJ29-AO29)</f>
+        <f t="shared" si="11"/>
         <v>-3.1968612967550438</v>
       </c>
       <c r="G29" s="13">
-        <f>V11-V29-(AF11-AF29)*$F$3-$G$3*(AK11+AP11-AK29-AP29)</f>
+        <f t="shared" si="12"/>
         <v>-3.0653317871144354</v>
       </c>
       <c r="H29" s="22"/>
-      <c r="I29" s="52"/>
+      <c r="I29" s="48"/>
       <c r="J29" s="17"/>
       <c r="N29" s="17"/>
       <c r="P29" s="25">
@@ -6723,7 +9370,7 @@
       <c r="AQ29" s="3"/>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="P30" s="57" t="s">
+      <c r="P30" s="53" t="s">
         <v>42</v>
       </c>
       <c r="R30" s="5"/>
@@ -6733,7 +9380,7 @@
       <c r="V30" s="5"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="P31" s="56"/>
+      <c r="P31" s="52"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
@@ -6741,7 +9388,7 @@
       <c r="V31" s="5"/>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="P32" s="56"/>
+      <c r="P32" s="52"/>
       <c r="Q32" s="2" t="s">
         <v>41</v>
       </c>
@@ -6759,7 +9406,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
-      <c r="I33" s="52">
+      <c r="I33" s="48">
         <v>1</v>
       </c>
       <c r="K33" s="45"/>
@@ -6848,7 +9495,7 @@
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
-      <c r="I34" s="52"/>
+      <c r="I34" s="48"/>
       <c r="P34" s="7">
         <v>275</v>
       </c>
@@ -6932,7 +9579,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="I35" s="52">
+      <c r="I35" s="48">
         <v>1</v>
       </c>
       <c r="K35" s="45">
@@ -6971,7 +9618,7 @@
       <c r="Y35" s="34">
         <v>7.8037977283237003</v>
       </c>
-      <c r="Z35" s="55">
+      <c r="Z35" s="51">
         <v>2.5987815303030302</v>
       </c>
       <c r="AA35" s="32"/>
@@ -7030,7 +9677,7 @@
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
-      <c r="I36" s="52"/>
+      <c r="I36" s="48"/>
       <c r="P36" s="7">
         <v>325</v>
       </c>
@@ -7049,7 +9696,7 @@
       </c>
       <c r="V36" s="30"/>
       <c r="W36" s="32"/>
-      <c r="X36" s="55">
+      <c r="X36" s="51">
         <v>2.7795193970588201</v>
       </c>
       <c r="Y36" s="34">
@@ -7114,7 +9761,7 @@
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
-      <c r="I37" s="52">
+      <c r="I37" s="48">
         <v>1</v>
       </c>
       <c r="K37" s="45">
@@ -7212,7 +9859,7 @@
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="I38" s="54"/>
+      <c r="I38" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7227,17 +9874,17 @@
     <mergeCell ref="AB1:AF1"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:G20">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:G29">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:G38">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/report/IPB1-2-LENR-COP.xlsx
+++ b/report/IPB1-2-LENR-COP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="13860" activeTab="1"/>
+    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="13860"/>
   </bookViews>
   <sheets>
     <sheet name="IPB2-LENR-COP" sheetId="5" r:id="rId1"/>
@@ -418,6 +418,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,10 +431,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC79"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74:F75"/>
+    <sheetView tabSelected="1" topLeftCell="N16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15:Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,66 +959,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="57"/>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
       <c r="L1" s="35"/>
       <c r="M1" s="18"/>
-      <c r="O1" s="65" t="s">
+      <c r="O1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65" t="s">
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65" t="s">
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65" t="s">
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65" t="s">
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65" t="s">
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
     </row>
     <row r="2" spans="1:45" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -1317,25 +1317,39 @@
       <c r="N6" s="51">
         <v>150</v>
       </c>
-      <c r="O6" s="26">
-        <v>8.6843769999999996</v>
-      </c>
-      <c r="P6" s="26">
-        <v>4.9812500000000002</v>
-      </c>
-      <c r="Q6" s="26">
-        <v>5.2165020000000002</v>
-      </c>
-      <c r="R6" s="26">
-        <v>5.2375619999999996</v>
-      </c>
-      <c r="S6" s="26">
-        <v>5.2005520000000001</v>
-      </c>
-      <c r="T6" s="26">
-        <v>5.0144120000000001</v>
-      </c>
-      <c r="U6" s="3"/>
+      <c r="O6" s="5">
+        <v>8.7210560975609805</v>
+      </c>
+      <c r="P6" s="5">
+        <v>5.0763659024390204</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>5.2430148292682901</v>
+      </c>
+      <c r="R6" s="5">
+        <v>5.2219754146341399</v>
+      </c>
+      <c r="S6" s="5">
+        <v>5.1942029024390202</v>
+      </c>
+      <c r="T6" s="5">
+        <v>4.9778476097561004</v>
+      </c>
+      <c r="U6" s="5">
+        <v>4.3285149756097603</v>
+      </c>
+      <c r="V6" s="5">
+        <v>4.3473004390243899</v>
+      </c>
+      <c r="W6" s="5">
+        <v>4.4963125365853696</v>
+      </c>
+      <c r="X6" s="5">
+        <v>4.3625634878048798</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>4.2588713170731696</v>
+      </c>
       <c r="Z6" s="26">
         <v>50.081449819875772</v>
       </c>
@@ -1399,25 +1413,39 @@
       <c r="N7" s="51">
         <v>200</v>
       </c>
-      <c r="O7" s="26">
-        <v>13.038384000000001</v>
-      </c>
-      <c r="P7" s="26">
-        <v>8.8671330000000008</v>
-      </c>
-      <c r="Q7" s="26">
-        <v>9.0081450000000007</v>
-      </c>
-      <c r="R7" s="26">
-        <v>9.0730989999999991</v>
-      </c>
-      <c r="S7" s="26">
-        <v>9.0175079999999994</v>
-      </c>
-      <c r="T7" s="26">
-        <v>8.7723239999999993</v>
-      </c>
-      <c r="U7" s="3"/>
+      <c r="O7" s="5">
+        <v>13.009960878048799</v>
+      </c>
+      <c r="P7" s="5">
+        <v>8.8354832195122004</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>9.0208656341463396</v>
+      </c>
+      <c r="R7" s="5">
+        <v>9.0633916585365899</v>
+      </c>
+      <c r="S7" s="5">
+        <v>9.0146242439024409</v>
+      </c>
+      <c r="T7" s="5">
+        <v>8.7720393658536597</v>
+      </c>
+      <c r="U7" s="5">
+        <v>4.7535660975609799</v>
+      </c>
+      <c r="V7" s="5">
+        <v>4.6420389512195097</v>
+      </c>
+      <c r="W7" s="5">
+        <v>5.0551444634146403</v>
+      </c>
+      <c r="X7" s="5">
+        <v>4.75249204878049</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>4.7941613414634201</v>
+      </c>
       <c r="Z7" s="26">
         <v>49.535082481481481</v>
       </c>
@@ -1479,25 +1507,39 @@
       <c r="N8" s="51">
         <v>250</v>
       </c>
-      <c r="O8" s="26">
-        <v>17.845835999999998</v>
-      </c>
-      <c r="P8" s="26">
-        <v>12.982799999999999</v>
-      </c>
-      <c r="Q8" s="26">
-        <v>13.226203999999999</v>
-      </c>
-      <c r="R8" s="26">
-        <v>13.229721</v>
-      </c>
-      <c r="S8" s="26">
-        <v>13.255761</v>
-      </c>
-      <c r="T8" s="26">
-        <v>12.998151</v>
-      </c>
-      <c r="U8" s="3"/>
+      <c r="O8" s="5">
+        <v>17.810158000000001</v>
+      </c>
+      <c r="P8" s="5">
+        <v>12.999576609756099</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>13.207124</v>
+      </c>
+      <c r="R8" s="5">
+        <v>13.245294048780501</v>
+      </c>
+      <c r="S8" s="5">
+        <v>13.222196487804901</v>
+      </c>
+      <c r="T8" s="5">
+        <v>12.964943926829299</v>
+      </c>
+      <c r="U8" s="5">
+        <v>5.2124018780487802</v>
+      </c>
+      <c r="V8" s="5">
+        <v>5.2098148780487801</v>
+      </c>
+      <c r="W8" s="5">
+        <v>5.2418982195122004</v>
+      </c>
+      <c r="X8" s="5">
+        <v>5.1870692439024397</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>5.2199840000000002</v>
+      </c>
       <c r="Z8" s="26">
         <v>50.514650283950616</v>
       </c>
@@ -1559,25 +1601,39 @@
       <c r="N9" s="51">
         <v>300</v>
       </c>
-      <c r="O9" s="26">
-        <v>23.154841000000001</v>
-      </c>
-      <c r="P9" s="26">
-        <v>18.454291999999999</v>
-      </c>
-      <c r="Q9" s="26">
-        <v>18.647829000000002</v>
-      </c>
-      <c r="R9" s="26">
-        <v>18.629128999999999</v>
-      </c>
-      <c r="S9" s="26">
-        <v>18.705877999999998</v>
-      </c>
-      <c r="T9" s="26">
-        <v>18.568588999999999</v>
-      </c>
-      <c r="U9" s="3"/>
+      <c r="O9" s="5">
+        <v>23.136116365853699</v>
+      </c>
+      <c r="P9" s="5">
+        <v>18.484168219512199</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>18.641023951219498</v>
+      </c>
+      <c r="R9" s="5">
+        <v>18.645231756097601</v>
+      </c>
+      <c r="S9" s="5">
+        <v>18.700204146341498</v>
+      </c>
+      <c r="T9" s="5">
+        <v>18.5678587560976</v>
+      </c>
+      <c r="U9" s="5">
+        <v>5.2298430487804897</v>
+      </c>
+      <c r="V9" s="5">
+        <v>5.2536127804878099</v>
+      </c>
+      <c r="W9" s="5">
+        <v>5.2943798048780497</v>
+      </c>
+      <c r="X9" s="5">
+        <v>5.2108569024390201</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>5.1423252926829299</v>
+      </c>
       <c r="Z9" s="26">
         <v>50.194638493827142</v>
       </c>
@@ -1632,25 +1688,39 @@
       <c r="N10" s="51">
         <v>350</v>
       </c>
-      <c r="O10" s="26">
-        <v>28.816282999999999</v>
-      </c>
-      <c r="P10" s="26">
-        <v>24.161366000000001</v>
-      </c>
-      <c r="Q10" s="26">
-        <v>24.185735999999999</v>
-      </c>
-      <c r="R10" s="26">
-        <v>24.136887999999999</v>
-      </c>
-      <c r="S10" s="26">
-        <v>24.237901000000001</v>
-      </c>
-      <c r="T10" s="26">
-        <v>24.155904</v>
-      </c>
-      <c r="U10" s="3"/>
+      <c r="O10" s="5">
+        <v>28.8216432439024</v>
+      </c>
+      <c r="P10" s="5">
+        <v>24.097453999999999</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>24.170908975609802</v>
+      </c>
+      <c r="R10" s="5">
+        <v>24.169508463414601</v>
+      </c>
+      <c r="S10" s="5">
+        <v>24.219334317073201</v>
+      </c>
+      <c r="T10" s="5">
+        <v>24.1238325609756</v>
+      </c>
+      <c r="U10" s="5">
+        <v>5.3974686829268297</v>
+      </c>
+      <c r="V10" s="5">
+        <v>5.5020794634146304</v>
+      </c>
+      <c r="W10" s="5">
+        <v>5.7537716097561002</v>
+      </c>
+      <c r="X10" s="5">
+        <v>5.4640830975609802</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>5.3495836585365799</v>
+      </c>
       <c r="Z10" s="26">
         <v>49.770143444444443</v>
       </c>
@@ -1701,25 +1771,39 @@
       <c r="N11" s="51">
         <v>400</v>
       </c>
-      <c r="O11" s="26">
-        <v>35.293787000000002</v>
-      </c>
-      <c r="P11" s="26">
-        <v>30.484376000000001</v>
-      </c>
-      <c r="Q11" s="26">
-        <v>30.661413</v>
-      </c>
-      <c r="R11" s="26">
-        <v>30.682766000000001</v>
-      </c>
-      <c r="S11" s="26">
-        <v>30.687512000000002</v>
-      </c>
-      <c r="T11" s="26">
-        <v>30.469847999999999</v>
-      </c>
-      <c r="U11" s="3"/>
+      <c r="O11" s="5">
+        <v>35.253009024390302</v>
+      </c>
+      <c r="P11" s="5">
+        <v>30.467073634146299</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>30.631360341463399</v>
+      </c>
+      <c r="R11" s="5">
+        <v>30.6883767804878</v>
+      </c>
+      <c r="S11" s="5">
+        <v>30.661907219512202</v>
+      </c>
+      <c r="T11" s="5">
+        <v>30.504182512195101</v>
+      </c>
+      <c r="U11" s="5">
+        <v>5.4885656585365901</v>
+      </c>
+      <c r="V11" s="5">
+        <v>5.5364490243902402</v>
+      </c>
+      <c r="W11" s="5">
+        <v>5.7535874146341497</v>
+      </c>
+      <c r="X11" s="5">
+        <v>5.5315318780487797</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>5.4668443170731704</v>
+      </c>
       <c r="Z11" s="26">
         <v>49.192380203703678</v>
       </c>
@@ -1794,21 +1878,21 @@
       <c r="AN12" s="3"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="51"/>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
       <c r="N13" s="50"/>
       <c r="O13" s="2"/>
       <c r="P13" s="3"/>
@@ -1833,7 +1917,7 @@
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
     </row>
-    <row r="14" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1878,33 +1962,33 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:45" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>150</v>
       </c>
       <c r="B15" s="12">
         <f t="shared" ref="B15:B20" si="8">O6-O15</f>
-        <v>-0.11676199999999959</v>
+        <v>-8.0082902439018611E-2</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" ref="C15:C20" si="9">P6-P15-(Z6-Z15)*$F$3-$G$3*(AE6+AJ6-AE15-AJ15)</f>
-        <v>1.390708293963665</v>
+        <v>1.4858241964026853</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" ref="D15:D20" si="10">Q6-Q15-(AA6-AA15)*$F$4-$G$4*(AF6+AK6-AF15-AK15)</f>
-        <v>2.0907067909609078</v>
+        <v>2.1172196202291977</v>
       </c>
       <c r="E15" s="12">
         <f t="shared" ref="E15:E20" si="11">R6-R15-(AB6-AB15)*$F$5-$G$5*(AG6+AL6-AG15-AL15)</f>
-        <v>1.602239036457755</v>
+        <v>1.5866524510918953</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" ref="F15:F20" si="12">S6-S15-(AC6-AC15)*$F$4-$G$4*(AH6+AM6-AH15-AM15)</f>
-        <v>1.0201870058226272</v>
+        <v>1.0138379082616473</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" ref="G15:G20" si="13">T6-T15-(AD6-AD15)*$F$3-$G$3*(AI6+AN6-AI15-AN15)</f>
-        <v>0.53766143818529111</v>
+        <v>0.50109704794139143</v>
       </c>
       <c r="H15" s="59"/>
       <c r="I15" s="16"/>
@@ -1930,8 +2014,21 @@
       <c r="T15" s="11">
         <v>6.7645369999999998</v>
       </c>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
+      <c r="U15" s="30">
+        <v>4.1361880731707297</v>
+      </c>
+      <c r="V15" s="30">
+        <v>4.3474236341463399</v>
+      </c>
+      <c r="W15" s="30">
+        <v>4.7067426341463401</v>
+      </c>
+      <c r="X15" s="30">
+        <v>4.3054952439024401</v>
+      </c>
+      <c r="Y15" s="30">
+        <v>4.0509642682926801</v>
+      </c>
       <c r="Z15" s="11">
         <v>49.67689667901233</v>
       </c>
@@ -1978,33 +2075,33 @@
         <v>33.845613388888893</v>
       </c>
     </row>
-    <row r="16" spans="1:45" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>200</v>
       </c>
       <c r="B16" s="12">
         <f t="shared" si="8"/>
-        <v>-8.21550000000002E-2</v>
+        <v>-0.11057812195120142</v>
       </c>
       <c r="C16" s="12">
         <f t="shared" si="9"/>
-        <v>2.0952204954313483</v>
+        <v>2.0635707149435478</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="10"/>
-        <v>2.7254246531438517</v>
+        <v>2.7381452872901906</v>
       </c>
       <c r="E16" s="12">
         <f t="shared" si="11"/>
-        <v>3.0637284232197417</v>
+        <v>3.0540210817563325</v>
       </c>
       <c r="F16" s="12">
         <f t="shared" si="12"/>
-        <v>2.270362657625971</v>
+        <v>2.2674789015284125</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="13"/>
-        <v>2.0021091383984704</v>
+        <v>2.0018245042521308</v>
       </c>
       <c r="H16" s="59"/>
       <c r="I16" s="16"/>
@@ -2030,8 +2127,21 @@
       <c r="T16" s="11">
         <v>10.927697</v>
       </c>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
+      <c r="U16" s="30">
+        <v>4.2207100243902396</v>
+      </c>
+      <c r="V16" s="30">
+        <v>4.4534984146341499</v>
+      </c>
+      <c r="W16" s="30">
+        <v>4.8375487804878103</v>
+      </c>
+      <c r="X16" s="30">
+        <v>4.4199972195121902</v>
+      </c>
+      <c r="Y16" s="30">
+        <v>4.1368712195121997</v>
+      </c>
       <c r="Z16" s="11">
         <v>50.346032475308611</v>
       </c>
@@ -2078,33 +2188,33 @@
         <v>33.534486962962937</v>
       </c>
     </row>
-    <row r="17" spans="1:40" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>250</v>
       </c>
       <c r="B17" s="12">
         <f t="shared" si="8"/>
-        <v>-6.8196000000000367E-2</v>
+        <v>-0.10387399999999758</v>
       </c>
       <c r="C17" s="12">
         <f t="shared" si="9"/>
-        <v>0.82487751369300177</v>
+        <v>0.84165412344910173</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="10"/>
-        <v>1.4912580442282146</v>
+        <v>1.4721780442282157</v>
       </c>
       <c r="E17" s="12">
         <f t="shared" si="11"/>
-        <v>2.3816089229660147</v>
+        <v>2.3971819717465159</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="12"/>
-        <v>2.7185892548174975</v>
+        <v>2.6850247426223985</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="13"/>
-        <v>2.2859922491410547</v>
+        <v>2.2527851759703541</v>
       </c>
       <c r="H17" s="59"/>
       <c r="I17" s="16"/>
@@ -2130,8 +2240,21 @@
       <c r="T17" s="11">
         <v>15.491982999999999</v>
       </c>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
+      <c r="U17" s="30">
+        <v>4.3989898536585397</v>
+      </c>
+      <c r="V17" s="30">
+        <v>4.73202246341463</v>
+      </c>
+      <c r="W17" s="30">
+        <v>5.1495511463414596</v>
+      </c>
+      <c r="X17" s="30">
+        <v>4.7147114146341504</v>
+      </c>
+      <c r="Y17" s="30">
+        <v>4.3482527560975601</v>
+      </c>
       <c r="Z17" s="11">
         <v>49.962694938271611</v>
       </c>
@@ -2178,33 +2301,33 @@
         <v>33.250925080246908</v>
       </c>
     </row>
-    <row r="18" spans="1:40" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>300</v>
       </c>
       <c r="B18" s="12">
         <f t="shared" si="8"/>
-        <v>-0.18775899999999979</v>
+        <v>-0.20648363414630211</v>
       </c>
       <c r="C18" s="12">
         <f t="shared" si="9"/>
-        <v>1.4533414049499855</v>
+        <v>1.4832176244621857</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="10"/>
-        <v>2.3240996922773878</v>
+        <v>2.3172946434968846</v>
       </c>
       <c r="E18" s="12">
         <f t="shared" si="11"/>
-        <v>3.422229502581462</v>
+        <v>3.4383322586790643</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="12"/>
-        <v>3.5773276863671413</v>
+        <v>3.5716538327086411</v>
       </c>
       <c r="G18" s="12">
         <f t="shared" si="13"/>
-        <v>3.3348915142271327</v>
+        <v>3.3341612703247332</v>
       </c>
       <c r="H18" s="59"/>
       <c r="I18" s="16"/>
@@ -2230,8 +2353,21 @@
       <c r="T18" s="11">
         <v>20.355385999999999</v>
       </c>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
+      <c r="U18" s="30">
+        <v>4.7771441707317104</v>
+      </c>
+      <c r="V18" s="30">
+        <v>5.2444260731707297</v>
+      </c>
+      <c r="W18" s="30">
+        <v>5.8601588536585396</v>
+      </c>
+      <c r="X18" s="30">
+        <v>5.2442006341463401</v>
+      </c>
+      <c r="Y18" s="30">
+        <v>4.7376532195121897</v>
+      </c>
       <c r="Z18" s="11">
         <v>49.485893975308649</v>
       </c>
@@ -2278,33 +2414,33 @@
         <v>33.511662024691354</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>350</v>
       </c>
       <c r="B19" s="12">
         <f t="shared" si="8"/>
-        <v>-0.38005100000000169</v>
+        <v>-0.37469075609759983</v>
       </c>
       <c r="C19" s="12">
         <f t="shared" si="9"/>
-        <v>5.8377778814421406</v>
+        <v>5.7738658814421386</v>
       </c>
       <c r="D19" s="12">
         <f t="shared" si="10"/>
-        <v>5.2856912380179981</v>
+        <v>5.2708642136278012</v>
       </c>
       <c r="E19" s="12">
         <f t="shared" si="11"/>
-        <v>3.6556329467892463</v>
+        <v>3.6882534102038487</v>
       </c>
       <c r="F19" s="12">
         <f t="shared" si="12"/>
-        <v>1.8410249381403738</v>
+        <v>1.8224582552135744</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="13"/>
-        <v>1.6236844339609151</v>
+        <v>1.5916129949365159</v>
       </c>
       <c r="H19" s="59"/>
       <c r="I19" s="16"/>
@@ -2330,8 +2466,21 @@
       <c r="T19" s="11">
         <v>26.094124999999998</v>
       </c>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
+      <c r="U19" s="30">
+        <v>4.6365968536585402</v>
+      </c>
+      <c r="V19" s="30">
+        <v>5.2241946097560996</v>
+      </c>
+      <c r="W19" s="30">
+        <v>5.7329977560975598</v>
+      </c>
+      <c r="X19" s="30">
+        <v>5.2051493902438999</v>
+      </c>
+      <c r="Y19" s="30">
+        <v>4.8250316585365898</v>
+      </c>
       <c r="Z19" s="11">
         <v>50.446400222222202</v>
       </c>
@@ -2378,33 +2527,33 @@
         <v>34.013159197530882</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>400</v>
       </c>
       <c r="B20" s="12">
         <f t="shared" si="8"/>
-        <v>-0.43242000000000047</v>
+        <v>-0.47319797560970045</v>
       </c>
       <c r="C20" s="12">
         <f t="shared" si="9"/>
-        <v>1.9525025201362749</v>
+        <v>1.935200154282573</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="10"/>
-        <v>1.7911972368055191</v>
+        <v>1.7611445782689183</v>
       </c>
       <c r="E20" s="12">
         <f t="shared" si="11"/>
-        <v>1.4788525206382519</v>
+        <v>1.4844633011260515</v>
       </c>
       <c r="F20" s="12">
         <f t="shared" si="12"/>
-        <v>1.6792638122047792</v>
+        <v>1.653659031716979</v>
       </c>
       <c r="G20" s="12">
         <f t="shared" si="13"/>
-        <v>1.9778124122535314</v>
+        <v>2.0121469244486332</v>
       </c>
       <c r="H20" s="59"/>
       <c r="I20" s="16"/>
@@ -2430,8 +2579,21 @@
       <c r="T20" s="11">
         <v>32.583193000000001</v>
       </c>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
+      <c r="U20" s="30">
+        <v>4.8053285853658503</v>
+      </c>
+      <c r="V20" s="30">
+        <v>5.1339934146341504</v>
+      </c>
+      <c r="W20" s="30">
+        <v>5.4964972195122002</v>
+      </c>
+      <c r="X20" s="30">
+        <v>5.1257212195121999</v>
+      </c>
+      <c r="Y20" s="30">
+        <v>4.6557813902438996</v>
+      </c>
       <c r="Z20" s="11">
         <v>50.213392648148151</v>
       </c>
@@ -2478,17 +2640,17 @@
         <v>33.422970740740723</v>
       </c>
     </row>
-    <row r="21" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="N21" s="50" t="s">
         <v>26</v>
       </c>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="N22" s="50"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="N23" s="50" t="s">
         <v>40</v>
       </c>
@@ -2496,34 +2658,34 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:40" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f t="shared" ref="A24:A29" si="14">A15</f>
         <v>150</v>
       </c>
       <c r="B24" s="12">
         <f t="shared" ref="B24:B29" si="15">O6-O24</f>
-        <v>-2.0669769999999996</v>
+        <v>-2.0302979024390186</v>
       </c>
       <c r="C24" s="12">
         <f t="shared" ref="C24:C29" si="16">P6-P24-(Z6-Z24)*$F$3-$G$3*(AE6+AJ6-AE24-AJ24)</f>
-        <v>-2.2120258002429747</v>
+        <v>-2.1169098978039544</v>
       </c>
       <c r="D24" s="12">
         <f t="shared" ref="D24:D29" si="17">Q6-Q24-(AA6-AA24)*$F$4-$G$4*(AF6+AK6-AF24-AK24)</f>
-        <v>-2.2380596583163204</v>
+        <v>-2.2115468290480305</v>
       </c>
       <c r="E24" s="12">
         <f t="shared" ref="E24:E29" si="18">R6-R24-(AB6-AB24)*$F$5-$G$5*(AG6+AL6-AG24-AL24)</f>
-        <v>-3.7123305328296503</v>
+        <v>-3.72791711819551</v>
       </c>
       <c r="F24" s="12">
         <f t="shared" ref="F24:F29" si="19">S6-S24-(AC6-AC24)*$F$4-$G$4*(AH6+AM6-AH24-AM24)</f>
-        <v>-3.4544435903006994</v>
+        <v>-3.4607926878616793</v>
       </c>
       <c r="G24" s="12">
         <f t="shared" ref="G24:G29" si="20">T6-T24-(AD6-AD24)*$F$3-$G$3*(AI6+AN6-AI24-AN24)</f>
-        <v>-3.3819054126885657</v>
+        <v>-3.4184698029324654</v>
       </c>
       <c r="H24" s="59"/>
       <c r="I24" s="16"/>
@@ -2596,34 +2758,34 @@
         <v>29.56214413580248</v>
       </c>
     </row>
-    <row r="25" spans="1:40" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="B25" s="12">
         <f t="shared" si="15"/>
-        <v>-1.0785589999999985</v>
+        <v>-1.1069821219511997</v>
       </c>
       <c r="C25" s="12">
         <f t="shared" si="16"/>
-        <v>-0.81540672526305613</v>
+        <v>-0.84705650575085656</v>
       </c>
       <c r="D25" s="12">
         <f t="shared" si="17"/>
-        <v>-0.52920668237618251</v>
+        <v>-0.51648604822984368</v>
       </c>
       <c r="E25" s="12">
         <f t="shared" si="18"/>
-        <v>-1.0536356850709505</v>
+        <v>-1.0633430265343597</v>
       </c>
       <c r="F25" s="12">
         <f t="shared" si="19"/>
-        <v>-0.96731905449665478</v>
+        <v>-0.97020281059421332</v>
       </c>
       <c r="G25" s="12">
         <f t="shared" si="20"/>
-        <v>-1.3921295024019331</v>
+        <v>-1.3924141365482727</v>
       </c>
       <c r="H25" s="59"/>
       <c r="I25" s="16"/>
@@ -2696,34 +2858,34 @@
         <v>32.567175160493818</v>
       </c>
     </row>
-    <row r="26" spans="1:40" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <f t="shared" si="14"/>
         <v>250</v>
       </c>
       <c r="B26" s="12">
         <f t="shared" si="15"/>
-        <v>-0.91056200000000231</v>
+        <v>-0.94623999999999953</v>
       </c>
       <c r="C26" s="12">
         <f t="shared" si="16"/>
-        <v>-1.2253598002955104</v>
+        <v>-1.2085831905394104</v>
       </c>
       <c r="D26" s="12">
         <f t="shared" si="17"/>
-        <v>-0.89558481560629444</v>
+        <v>-0.91466481560629331</v>
       </c>
       <c r="E26" s="12">
         <f t="shared" si="18"/>
-        <v>-0.88810223542570976</v>
+        <v>-0.87252918664520851</v>
       </c>
       <c r="F26" s="12">
         <f t="shared" si="19"/>
-        <v>0.59649505729938967</v>
+        <v>0.56293054510429075</v>
       </c>
       <c r="G26" s="12">
         <f t="shared" si="20"/>
-        <v>0.67704325406474331</v>
+        <v>0.64383618089404271</v>
       </c>
       <c r="H26" s="59"/>
       <c r="I26" s="16"/>
@@ -2796,34 +2958,34 @@
         <v>32.651315419753061</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <f t="shared" si="14"/>
         <v>300</v>
       </c>
       <c r="B27" s="12">
         <f t="shared" si="15"/>
-        <v>-1.1803789999999985</v>
+        <v>-1.1991036341463008</v>
       </c>
       <c r="C27" s="12">
         <f t="shared" si="16"/>
-        <v>0.44868507265198865</v>
+        <v>0.47856129216418886</v>
       </c>
       <c r="D27" s="12">
         <f t="shared" si="17"/>
-        <v>2.1441181310187147</v>
+        <v>2.1373130822382116</v>
       </c>
       <c r="E27" s="12">
         <f t="shared" si="18"/>
-        <v>2.0627802361276428</v>
+        <v>2.0788829922252452</v>
       </c>
       <c r="F27" s="12">
         <f t="shared" si="19"/>
-        <v>2.750786117519632</v>
+        <v>2.7451122638611318</v>
       </c>
       <c r="G27" s="12">
         <f t="shared" si="20"/>
-        <v>1.9781229196252115</v>
+        <v>1.977392675722812</v>
       </c>
       <c r="H27" s="59"/>
       <c r="I27" s="16"/>
@@ -2896,34 +3058,34 @@
         <v>32.877691672839518</v>
       </c>
     </row>
-    <row r="28" spans="1:40" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <f t="shared" si="14"/>
         <v>350</v>
       </c>
       <c r="B28" s="12">
         <f t="shared" si="15"/>
-        <v>-1.8728480000000012</v>
+        <v>-1.8674877560975993</v>
       </c>
       <c r="C28" s="12">
         <f t="shared" si="16"/>
-        <v>0.52672966050113379</v>
+        <v>0.46281766050113182</v>
       </c>
       <c r="D28" s="12">
         <f t="shared" si="17"/>
-        <v>-0.22610216093519009</v>
+        <v>-0.24092918532538699</v>
       </c>
       <c r="E28" s="12">
         <f t="shared" si="18"/>
-        <v>-2.2135830637894514</v>
+        <v>-2.180962600374849</v>
       </c>
       <c r="F28" s="12">
         <f t="shared" si="19"/>
-        <v>-1.4388247310636857</v>
+        <v>-1.4573914139904851</v>
       </c>
       <c r="G28" s="12">
         <f t="shared" si="20"/>
-        <v>-1.9503320778383404</v>
+        <v>-1.9824035168627396</v>
       </c>
       <c r="H28" s="59"/>
       <c r="I28" s="16"/>
@@ -2996,34 +3158,34 @@
         <v>32.317042006172827</v>
       </c>
     </row>
-    <row r="29" spans="1:40" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="B29" s="12">
         <f t="shared" si="15"/>
-        <v>-2.3554600000000008</v>
+        <v>-2.3962379756097008</v>
       </c>
       <c r="C29" s="12">
         <f t="shared" si="16"/>
-        <v>-1.9598437733184275</v>
+        <v>-1.9771461391721294</v>
       </c>
       <c r="D29" s="12">
         <f t="shared" si="17"/>
-        <v>-2.8700603170286088</v>
+        <v>-2.9001129755652095</v>
       </c>
       <c r="E29" s="12">
         <f t="shared" si="18"/>
-        <v>-3.8924936757891757</v>
+        <v>-3.8868828953013761</v>
       </c>
       <c r="F29" s="12">
         <f t="shared" si="19"/>
-        <v>-2.3913152697830591</v>
+        <v>-2.4169200502708592</v>
       </c>
       <c r="G29" s="12">
         <f t="shared" si="20"/>
-        <v>-2.2175022708252454</v>
+        <v>-2.1831677586301437</v>
       </c>
       <c r="H29" s="59"/>
       <c r="I29" s="16"/>
@@ -3096,7 +3258,7 @@
         <v>31.954779049382708</v>
       </c>
     </row>
-    <row r="30" spans="1:40" s="40" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -3139,7 +3301,7 @@
       <c r="AM30" s="39"/>
       <c r="AN30" s="39"/>
     </row>
-    <row r="31" spans="1:40" s="40" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -3180,7 +3342,7 @@
       <c r="AM31" s="39"/>
       <c r="AN31" s="39"/>
     </row>
-    <row r="32" spans="1:40" s="40" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -3223,27 +3385,27 @@
       <c r="AM32" s="39"/>
       <c r="AN32" s="39"/>
     </row>
-    <row r="33" spans="1:55" s="40" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f>N33</f>
         <v>150</v>
       </c>
       <c r="B33" s="12">
         <f>O6-O33</f>
-        <v>-0.98927500000000101</v>
+        <v>-0.95259590243902004</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12">
         <f>Q6-Q33-(AA6-AA33)*$F$4-$G$4*(AF6+AK6-AF33-AK33)</f>
-        <v>3.2249096574213736</v>
+        <v>3.2514224866896635</v>
       </c>
       <c r="E33" s="12">
         <f>R6-R33-(AB6-AB33)*$F$5-$G$5*(AG6+AL6-AG33-AL33)</f>
-        <v>2.3362336583113508</v>
+        <v>2.3206470729454911</v>
       </c>
       <c r="F33" s="12">
         <f>S6-S33-(AC6-AC33)*$F$4-$G$4*(AH6+AM6-AH33-AM33)</f>
-        <v>0.76971255851415532</v>
+        <v>0.76336346095317542</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="60">
@@ -3340,27 +3502,27 @@
       <c r="BB33" s="32"/>
       <c r="BC33" s="32"/>
     </row>
-    <row r="34" spans="1:55" s="40" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" ref="A34:A36" si="21">N34</f>
         <v>200</v>
       </c>
       <c r="B34" s="12">
         <f t="shared" ref="B34:B36" si="22">O7-O34</f>
-        <v>-0.74738299999999924</v>
+        <v>-0.77580612195120047</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12">
         <f>Q7-Q34-(AA7-AA34)*$F$4-$G$4*(AF7+AK7-AF34-AK34)</f>
-        <v>1.3152433803404788</v>
+        <v>1.3279640144868177</v>
       </c>
       <c r="E34" s="12">
         <f>R7-R34-(AB7-AB34)*$F$5-$G$5*(AG7+AL7-AG34-AL34)</f>
-        <v>1.0550331881283443</v>
+        <v>1.0453258466649351</v>
       </c>
       <c r="F34" s="12">
         <f>S7-S34-(AC7-AC34)*$F$4-$G$4*(AH7+AM7-AH34-AM34)</f>
-        <v>-9.3074395498870421E-2</v>
+        <v>-9.5958151596428953E-2</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="60">
@@ -3457,27 +3619,27 @@
       <c r="BB34" s="32"/>
       <c r="BC34" s="32"/>
     </row>
-    <row r="35" spans="1:55" s="40" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" si="21"/>
         <v>250</v>
       </c>
       <c r="B35" s="12">
         <f t="shared" si="22"/>
-        <v>-0.82990600000000114</v>
+        <v>-0.86558399999999835</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12">
         <f>Q8-Q35-(AA8-AA35)*$F$4-$G$4*(AF8+AK8-AF35-AK35)</f>
-        <v>-0.88120202121322699</v>
+        <v>-0.90028202121322587</v>
       </c>
       <c r="E35" s="12">
         <f>R8-R35-(AB8-AB35)*$F$5-$G$5*(AG8+AL8-AG35-AL35)</f>
-        <v>-0.54747332963003625</v>
+        <v>-0.531900280849535</v>
       </c>
       <c r="F35" s="12">
         <f>S8-S35-(AC8-AC35)*$F$4-$G$4*(AH8+AM8-AH35-AM35)</f>
-        <v>-0.56686171699367649</v>
+        <v>-0.60042622918877542</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="60">
@@ -3574,27 +3736,27 @@
       <c r="BB35" s="32"/>
       <c r="BC35" s="32"/>
     </row>
-    <row r="36" spans="1:55" s="40" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:55" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f t="shared" si="21"/>
         <v>300</v>
       </c>
       <c r="B36" s="12">
         <f t="shared" si="22"/>
-        <v>-1.4065419999999982</v>
+        <v>-1.4252666341463005</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12">
         <f>Q9-Q36-(AA9-AA36)*$F$4-$G$4*(AF9+AK9-AF36-AK36)</f>
-        <v>-0.55408000636518462</v>
+        <v>-0.56088505514568776</v>
       </c>
       <c r="E36" s="12">
         <f>R9-R36-(AB9-AB36)*$F$5-$G$5*(AG9+AL9-AG36-AL36)</f>
-        <v>-0.71264407975467914</v>
+        <v>-0.69654132365707677</v>
       </c>
       <c r="F36" s="12">
         <f>S9-S36-(AC9-AC36)*$F$4-$G$4*(AH9+AM9-AH36-AM36)</f>
-        <v>-1.0283174446804997</v>
+        <v>-1.0339912983389998</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="60">
@@ -3691,7 +3853,7 @@
       <c r="BB36" s="32"/>
       <c r="BC36" s="32"/>
     </row>
-    <row r="37" spans="1:55" s="40" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:55" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -3732,7 +3894,7 @@
       <c r="AM37"/>
       <c r="AN37"/>
     </row>
-    <row r="38" spans="1:55" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -3775,7 +3937,7 @@
       <c r="AM38" s="39"/>
       <c r="AN38" s="39"/>
     </row>
-    <row r="39" spans="1:55" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:55" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -3816,7 +3978,7 @@
       <c r="AM39" s="39"/>
       <c r="AN39" s="39"/>
     </row>
-    <row r="40" spans="1:55" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:55" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -3859,27 +4021,27 @@
       <c r="AM40" s="39"/>
       <c r="AN40" s="39"/>
     </row>
-    <row r="41" spans="1:55" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:55" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f>N41</f>
         <v>150</v>
       </c>
       <c r="B41" s="12">
         <f>O6-O41</f>
-        <v>-0.55414700000000039</v>
+        <v>-0.51746790243901941</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12">
         <f>Q6-Q41-(AA6-AA41)*$F$4-$G$4*(AF6+AK6-AF41-AK41)</f>
-        <v>1.8188976312115162</v>
+        <v>1.8454104604798061</v>
       </c>
       <c r="E41" s="12">
         <f>R6-R41-(AB6-AB41)*$F$5-$G$5*(AG6+AL6-AG41-AL41)</f>
-        <v>1.4179228771996006</v>
+        <v>1.402336291833741</v>
       </c>
       <c r="F41" s="12">
         <f>S6-S41-(AC6-AC41)*$F$4-$G$4*(AH6+AM6-AH41-AM41)</f>
-        <v>6.45598045324558E-3</v>
+        <v>1.068828922656806E-4</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="60">
@@ -3976,27 +4138,27 @@
       <c r="BB41" s="32"/>
       <c r="BC41" s="32"/>
     </row>
-    <row r="42" spans="1:55" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:55" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" ref="A42:A43" si="23">N42</f>
         <v>200</v>
       </c>
       <c r="B42" s="12">
         <f>O7-O42</f>
-        <v>-0.63966399999999979</v>
+        <v>-0.66808712195120101</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12">
         <f>Q7-Q42-(AA7-AA42)*$F$4-$G$4*(AF7+AK7-AF42-AK42)</f>
-        <v>0.76793658406791165</v>
+        <v>0.78065721821425049</v>
       </c>
       <c r="E42" s="12">
         <f>R7-R42-(AB7-AB42)*$F$5-$G$5*(AG7+AL7-AG42-AL42)</f>
-        <v>1.1495651348209377</v>
+        <v>1.1398577933575285</v>
       </c>
       <c r="F42" s="12">
         <f>S7-S42-(AC7-AC42)*$F$4-$G$4*(AH7+AM7-AH42-AM42)</f>
-        <v>-0.23047463567714727</v>
+        <v>-0.2333583917747058</v>
       </c>
       <c r="G42" s="12"/>
       <c r="H42" s="60">
@@ -4093,27 +4255,27 @@
       <c r="BB42" s="32"/>
       <c r="BC42" s="32"/>
     </row>
-    <row r="43" spans="1:55" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:55" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" si="23"/>
         <v>250</v>
       </c>
       <c r="B43" s="12">
         <f>O8-O43</f>
-        <v>-0.93392500000000211</v>
+        <v>-0.96960299999999933</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12">
         <f>Q8-Q43-(AA8-AA43)*$F$4-$G$4*(AF8+AK8-AF43-AK43)</f>
-        <v>-0.74379102283884524</v>
+        <v>-0.76287102283884412</v>
       </c>
       <c r="E43" s="12">
         <f>R8-R43-(AB8-AB43)*$F$5-$G$5*(AG8+AL8-AG43-AL43)</f>
-        <v>0.38391513177978825</v>
+        <v>0.39948818056028951</v>
       </c>
       <c r="F43" s="12">
         <f>S8-S43-(AC8-AC43)*$F$4-$G$4*(AH8+AM8-AH43-AM43)</f>
-        <v>-0.36072244559119215</v>
+        <v>-0.39428695778629108</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="60">
@@ -4210,7 +4372,7 @@
       <c r="BB43" s="32"/>
       <c r="BC43" s="32"/>
     </row>
-    <row r="44" spans="1:55" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:55" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -4266,7 +4428,7 @@
       <c r="BB44" s="32"/>
       <c r="BC44" s="32"/>
     </row>
-    <row r="45" spans="1:55" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:55" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -4307,7 +4469,7 @@
       <c r="AM45"/>
       <c r="AN45"/>
     </row>
-    <row r="46" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
       <c r="I46" s="19"/>
       <c r="J46" s="19"/>
       <c r="K46" s="19"/>
@@ -4318,7 +4480,7 @@
       </c>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
       <c r="I47" s="19"/>
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
@@ -4344,27 +4506,27 @@
       </c>
       <c r="B49" s="12">
         <f>O9-O49</f>
-        <v>-1.4138449999999985</v>
+        <v>-1.4325696341463008</v>
       </c>
       <c r="C49" s="12">
         <f>P9-P49-(Z9-Z49)*$F$3-$G$3*(AE9+AJ9-AE49-AJ49)</f>
-        <v>-0.96281279983395374</v>
+        <v>-0.93293658032175353</v>
       </c>
       <c r="D49" s="12">
         <f>Q9-Q49-(AA9-AA49)*$F$4-$G$4*(AF9+AK9-AF49-AK49)</f>
-        <v>-1.4874922185311226</v>
+        <v>-1.4942972673116257</v>
       </c>
       <c r="E49" s="12">
         <f>R9-R49-(AB9-AB49)*$F$5-$G$5*(AG9+AL9-AG49-AL49)</f>
-        <v>-0.6654500764604443</v>
+        <v>-0.64934732036284193</v>
       </c>
       <c r="F49" s="12">
         <f>S9-S49-(AC9-AC49)*$F$4-$G$4*(AH9+AM9-AH49-AM49)</f>
-        <v>-1.6619004208506087</v>
+        <v>-1.6675742745091089</v>
       </c>
       <c r="G49" s="12">
         <f>T9-T49-(AD9-AD49)*$F$3-$G$3*(AI9+AN9-AI49-AN49)</f>
-        <v>-1.1382481177128683</v>
+        <v>-1.1389783616152678</v>
       </c>
       <c r="H49" s="59"/>
       <c r="I49" s="19"/>
@@ -4455,27 +4617,27 @@
       </c>
       <c r="B50" s="12">
         <f>O9-O50</f>
-        <v>-1.4138449999999985</v>
+        <v>-1.4325696341463008</v>
       </c>
       <c r="C50" s="12">
         <f>P9-P50-(Z9-Z50)*$F$3-$G$3*(AE9+AJ9-AE50-AJ50)</f>
-        <v>-0.37240806096531331</v>
+        <v>-0.34253184145311311</v>
       </c>
       <c r="D50" s="12">
         <f>Q9-Q50-(AA9-AA50)*$F$4-$G$4*(AF9+AK9-AF50-AK50)</f>
-        <v>-1.2626769716424957</v>
+        <v>-1.2694820204229988</v>
       </c>
       <c r="E50" s="12">
         <f>R9-R50-(AB9-AB50)*$F$5-$G$5*(AG9+AL9-AG50-AL50)</f>
-        <v>-0.66127575520242066</v>
+        <v>-0.64517299910481829</v>
       </c>
       <c r="F50" s="12">
         <f>S9-S50-(AC9-AC50)*$F$4-$G$4*(AH9+AM9-AH50-AM50)</f>
-        <v>-1.8105825120797454</v>
+        <v>-1.8162563657382456</v>
       </c>
       <c r="G50" s="12">
         <f>T9-T50-(AD9-AD50)*$F$3-$G$3*(AI9+AN9-AI50-AN50)</f>
-        <v>-1.3184082039938692</v>
+        <v>-1.3191384478962687</v>
       </c>
       <c r="H50" s="59"/>
       <c r="I50" s="19"/>
@@ -4670,27 +4832,27 @@
       </c>
       <c r="B54" s="12">
         <f>O9-O54</f>
-        <v>-1.4455039999999997</v>
+        <v>-1.464228634146302</v>
       </c>
       <c r="C54" s="12">
         <f>P9-P54-(Z9-Z54)*$F$3-$G$3*(AE9+AJ9-AE54-AJ54)</f>
-        <v>-2.0498580096013583</v>
+        <v>-2.0199817900891581</v>
       </c>
       <c r="D54" s="12">
         <f>Q9-Q54-(AA9-AA54)*$F$4-$G$4*(AF9+AK9-AF54-AK54)</f>
-        <v>-2.5723586371353098</v>
+        <v>-2.5791636859158129</v>
       </c>
       <c r="E54" s="12">
         <f>R9-R54-(AB9-AB54)*$F$5-$G$5*(AG9+AL9-AG54-AL54)</f>
-        <v>-1.7679528223424115</v>
+        <v>-1.7518500662448091</v>
       </c>
       <c r="F54" s="12">
         <f>S9-S54-(AC9-AC54)*$F$5-$G$5*(AH9+AM9-AH54-AM54)</f>
-        <v>-2.3465850441791343</v>
+        <v>-2.3522588978376344</v>
       </c>
       <c r="G54" s="12">
         <f>T9-T54-(AD9-AD54)*$F$3-$G$3*(AI9+AN9-AI54-AN54)</f>
-        <v>-1.6906513985599538</v>
+        <v>-1.6913816424623533</v>
       </c>
       <c r="H54" s="60">
         <v>1.2</v>
@@ -4968,27 +5130,27 @@
       </c>
       <c r="B59" s="12">
         <f t="shared" ref="B59:B64" si="25">O6-O59</f>
-        <v>-0.68091800000000013</v>
+        <v>-0.64423890243901916</v>
       </c>
       <c r="C59" s="12">
         <f t="shared" ref="C59:C64" si="26">P6-P59-(Z6-Z59)*$F$3-$G$3*(AE6+AJ6-AE59-AJ59)</f>
-        <v>1.2863805335441501</v>
+        <v>1.3814964359831703</v>
       </c>
       <c r="D59" s="12">
         <f t="shared" ref="D59:D64" si="27">Q6-Q59-(AA6-AA59)*$F$4-$G$4*(AF6+AK6-AF59-AK59)</f>
-        <v>1.0474494215583219</v>
+        <v>1.0739622508266118</v>
       </c>
       <c r="E59" s="12">
         <f t="shared" ref="E59:E64" si="28">R6-R59-(AB6-AB59)*$F$5-$G$5*(AG6+AL6-AG59-AL59)</f>
-        <v>0.61442981829062449</v>
+        <v>0.59884323292476482</v>
       </c>
       <c r="F59" s="12">
         <f t="shared" ref="F59:F64" si="29">S6-S59-(AC6-AC59)*$F$4-$G$4*(AH6+AM6-AH59-AM59)</f>
-        <v>0.11831386637835273</v>
+        <v>0.11196476881737283</v>
       </c>
       <c r="G59" s="12">
         <f t="shared" ref="G59:G64" si="30">T6-T59-(AD6-AD59)*$F$3-$G$3*(AI6+AN6-AI59-AN59)</f>
-        <v>0.56869078134640594</v>
+        <v>0.53212639110250626</v>
       </c>
       <c r="H59" s="60">
         <v>1</v>
@@ -5120,27 +5282,27 @@
       </c>
       <c r="B60" s="12">
         <f t="shared" si="25"/>
-        <v>-0.81611299999999964</v>
+        <v>-0.84453612195120087</v>
       </c>
       <c r="C60" s="12">
         <f t="shared" si="26"/>
-        <v>1.1126051337353817</v>
+        <v>1.0809553532475813</v>
       </c>
       <c r="D60" s="12">
         <f t="shared" si="27"/>
-        <v>0.40984080387711774</v>
+        <v>0.42256143802345658</v>
       </c>
       <c r="E60" s="12">
         <f t="shared" si="28"/>
-        <v>0.26930223883029059</v>
+        <v>0.25959489736688135</v>
       </c>
       <c r="F60" s="12">
         <f t="shared" si="29"/>
-        <v>-0.51161500251792424</v>
+        <v>-0.51449875861548278</v>
       </c>
       <c r="G60" s="12">
         <f t="shared" si="30"/>
-        <v>1.8898916663767196E-2</v>
+        <v>1.8614282517427583E-2</v>
       </c>
       <c r="H60" s="60">
         <v>1.06</v>
@@ -5272,27 +5434,27 @@
       </c>
       <c r="B61" s="12">
         <f t="shared" si="25"/>
-        <v>-1.1027650000000015</v>
+        <v>-1.1384429999999988</v>
       </c>
       <c r="C61" s="12">
         <f t="shared" si="26"/>
-        <v>-1.376827505326681</v>
+        <v>-1.360050895570581</v>
       </c>
       <c r="D61" s="12">
         <f t="shared" si="27"/>
-        <v>-1.9250633904971435</v>
+        <v>-1.9441433904971424</v>
       </c>
       <c r="E61" s="12">
         <f t="shared" si="28"/>
-        <v>-1.4924977215813389</v>
+        <v>-1.4769246728008376</v>
       </c>
       <c r="F61" s="12">
         <f t="shared" si="29"/>
-        <v>-0.9914127577694305</v>
+        <v>-1.0249772699645294</v>
       </c>
       <c r="G61" s="12">
         <f t="shared" si="30"/>
-        <v>-0.51408493228776742</v>
+        <v>-0.54729200545846801</v>
       </c>
       <c r="H61" s="60">
         <v>1</v>
@@ -5424,27 +5586,27 @@
       </c>
       <c r="B62" s="12">
         <f t="shared" si="25"/>
-        <v>-1.4296480000000003</v>
+        <v>-1.4483726341463026</v>
       </c>
       <c r="C62" s="12">
         <f t="shared" si="26"/>
-        <v>-1.3287895944710584</v>
+        <v>-1.2989133749588582</v>
       </c>
       <c r="D62" s="12">
         <f t="shared" si="27"/>
-        <v>-2.3771746253882751</v>
+        <v>-2.3839796741687782</v>
       </c>
       <c r="E62" s="12">
         <f t="shared" si="28"/>
-        <v>-2.3107307535152231</v>
+        <v>-2.2946279974176207</v>
       </c>
       <c r="F62" s="12">
         <f t="shared" si="29"/>
-        <v>-2.2824035495442487</v>
+        <v>-2.2880774032027489</v>
       </c>
       <c r="G62" s="12">
         <f t="shared" si="30"/>
-        <v>-1.7535859533270028</v>
+        <v>-1.7543161972294024</v>
       </c>
       <c r="H62" s="60">
         <v>1.06</v>
@@ -5576,27 +5738,27 @@
       </c>
       <c r="B63" s="12">
         <f t="shared" si="25"/>
-        <v>-1.9317400000000013</v>
+        <v>-1.9263797560975995</v>
       </c>
       <c r="C63" s="12">
         <f t="shared" si="26"/>
-        <v>-0.58144543866217768</v>
+        <v>-0.64535743866217965</v>
       </c>
       <c r="D63" s="12">
         <f t="shared" si="27"/>
-        <v>-1.8220250001328591</v>
+        <v>-1.836852024523056</v>
       </c>
       <c r="E63" s="12">
         <f t="shared" si="28"/>
-        <v>-2.4705913383838216</v>
+        <v>-2.4379708749692193</v>
       </c>
       <c r="F63" s="12">
         <f t="shared" si="29"/>
-        <v>-2.4404086306257273</v>
+        <v>-2.4589753135525267</v>
       </c>
       <c r="G63" s="12">
         <f t="shared" si="30"/>
-        <v>-1.6588989249396757</v>
+        <v>-1.690970363964075</v>
       </c>
       <c r="H63" s="60">
         <v>1</v>
@@ -5728,27 +5890,27 @@
       </c>
       <c r="B64" s="12">
         <f t="shared" si="25"/>
-        <v>-2.4245609999999971</v>
+        <v>-2.4653389756096971</v>
       </c>
       <c r="C64" s="12">
         <f t="shared" si="26"/>
-        <v>-1.9439680548184053</v>
+        <v>-1.9612704206721072</v>
       </c>
       <c r="D64" s="12">
         <f t="shared" si="27"/>
-        <v>-3.1649659423394869</v>
+        <v>-3.1950186008760877</v>
       </c>
       <c r="E64" s="12">
         <f t="shared" si="28"/>
-        <v>-3.4878556984759892</v>
+        <v>-3.4822449179881896</v>
       </c>
       <c r="F64" s="12">
         <f t="shared" si="29"/>
-        <v>-2.9380786872502096</v>
+        <v>-2.9636834677380097</v>
       </c>
       <c r="G64" s="12">
         <f t="shared" si="30"/>
-        <v>-2.0153141262129681</v>
+        <v>-1.9809796140178664</v>
       </c>
       <c r="H64" s="60">
         <v>1.06</v>
@@ -5907,20 +6069,20 @@
       </c>
       <c r="B68" s="12">
         <f>O8-O68</f>
-        <v>-0.38249500000000225</v>
+        <v>-0.41817299999999946</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12">
         <f>Q8-Q68-(AA8-AA68)*$F$4-$G$4*(AF8+AK8-AF68-AK68)</f>
-        <v>7.5598098227453674</v>
+        <v>7.5407298227453685</v>
       </c>
       <c r="E68" s="12">
         <f>R8-R68-(AB8-AB68)*$F$5-$G$5*(AG8+AL8-AG68-AL68)</f>
-        <v>6.8390949404185601</v>
+        <v>6.8546679891990614</v>
       </c>
       <c r="F68" s="12">
         <f>S8-S68-(AC8-AC68)*$F$4-$G$4*(AH8+AM8-AH68-AM68)</f>
-        <v>7.3877327281310823</v>
+        <v>7.3541682159359834</v>
       </c>
       <c r="G68" s="12"/>
       <c r="H68" s="60">
@@ -6105,20 +6267,20 @@
       </c>
       <c r="B70" s="12">
         <f>O9-O70</f>
-        <v>-0.60383799999999965</v>
+        <v>-0.62256263414630197</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="12">
         <f>Q9-Q70-(AA9-AA70)*$F$4-$G$4*(AF9+AK9-AF70-AK70)</f>
-        <v>6.3905354331486262</v>
+        <v>6.383730384368123</v>
       </c>
       <c r="E70" s="12">
         <f>R9-R70-(AB9-AB70)*$F$4-$G$4*(AG9+AL9-AG70-AL70)</f>
-        <v>5.2543903754671009</v>
+        <v>5.2704931315647032</v>
       </c>
       <c r="F70" s="12">
         <f>S9-S70-(AC9-AC70)*$F$4-$G$4*(AH9+AM9-AH70-AM70)</f>
-        <v>5.5422675297442314</v>
+        <v>5.5365936760857313</v>
       </c>
       <c r="G70" s="12"/>
       <c r="H70" s="60">
@@ -6297,20 +6459,20 @@
       </c>
       <c r="B72" s="12">
         <f>O11-O72</f>
-        <v>-0.83656099999999611</v>
+        <v>-0.87733897560969609</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12">
         <f>Q11-Q72-(AA11-AA72)*$F$4-$G$4*(AF11+AK11-AF72-AK72)</f>
-        <v>9.126325512164577</v>
+        <v>9.0962728536279762</v>
       </c>
       <c r="E72" s="12">
         <f>R11-R72-(AB11-AB72)*$F$4-$G$4*(AG11+AL11-AG72-AL72)</f>
-        <v>7.9747013578242125</v>
+        <v>7.9803121383120121</v>
       </c>
       <c r="F72" s="12">
         <f>S11-S72-(AC11-AC72)*$F$4-$G$4*(AH11+AM11-AH72-AM72)</f>
-        <v>9.1377785535710778</v>
+        <v>9.1121737730832777</v>
       </c>
       <c r="G72" s="12"/>
       <c r="H72" s="60">
@@ -6406,39 +6568,39 @@
         <f>N74</f>
         <v>250</v>
       </c>
-      <c r="D74" s="70">
+      <c r="D74" s="67">
         <f>AF74+AK74-Q74</f>
-        <v>7.1865276365989654</v>
-      </c>
-      <c r="E74" s="70">
+        <v>7.1674476365989666</v>
+      </c>
+      <c r="E74" s="67">
         <f t="shared" ref="E74:F76" si="34">AG74+AL74-R74</f>
-        <v>5.9836529224412827</v>
-      </c>
-      <c r="F74" s="70">
+        <v>5.9992259712217839</v>
+      </c>
+      <c r="F74" s="67">
         <f t="shared" si="34"/>
-        <v>6.267448328554301</v>
+        <v>6.2338838163592021</v>
       </c>
       <c r="N74" s="49">
         <v>250</v>
       </c>
       <c r="O74" s="3">
         <f>O68-O8</f>
-        <v>0.38249500000000225</v>
+        <v>0.41817299999999946</v>
       </c>
       <c r="Q74" s="3">
         <f t="shared" ref="Q74:S74" si="35">Q68-Q8</f>
-        <v>1.3367728709677014</v>
+        <v>1.3558528709677002</v>
       </c>
       <c r="R74" s="3">
         <f>R68-R8</f>
-        <v>0.74835135483870019</v>
+        <v>0.73277830605819894</v>
       </c>
       <c r="S74" s="3">
         <f t="shared" si="35"/>
-        <v>1.3624352258065002</v>
+        <v>1.3959997380015992</v>
       </c>
       <c r="AF74" s="3">
-        <f t="shared" ref="AF74:AH74" si="36">AF68-AF8</f>
+        <f t="shared" ref="AF74" si="36">AF68-AF8</f>
         <v>1.5411549432497051</v>
       </c>
       <c r="AG74" s="3">
@@ -6450,7 +6612,7 @@
         <v>1.1715657694145731</v>
       </c>
       <c r="AK74" s="3">
-        <f t="shared" ref="AK74:AM74" si="38">AK68-AK8</f>
+        <f t="shared" ref="AK74" si="38">AK68-AK8</f>
         <v>6.9821455643169621</v>
       </c>
       <c r="AL74" s="3">
@@ -6467,59 +6629,59 @@
         <f t="shared" ref="A75:A76" si="40">N75</f>
         <v>300</v>
       </c>
-      <c r="D75" s="70">
-        <f t="shared" ref="D75:D76" si="41">AF75+AK75-Q75</f>
-        <v>6.233947626841899</v>
-      </c>
-      <c r="E75" s="70">
+      <c r="D75" s="67">
+        <f t="shared" ref="D75" si="41">AF75+AK75-Q75</f>
+        <v>6.2271425780613958</v>
+      </c>
+      <c r="E75" s="67">
         <f t="shared" si="34"/>
-        <v>5.2755974997012736</v>
-      </c>
-      <c r="F75" s="70">
+        <v>5.2917002557988759</v>
+      </c>
+      <c r="F75" s="67">
         <f t="shared" si="34"/>
-        <v>5.5459489757069171</v>
+        <v>5.540275122048417</v>
       </c>
       <c r="N75" s="49">
         <v>300</v>
       </c>
-      <c r="O75" s="68">
+      <c r="O75" s="65">
         <f>O70-O9</f>
-        <v>0.60383799999999965</v>
-      </c>
-      <c r="P75" s="69"/>
-      <c r="Q75" s="68">
+        <v>0.62256263414630197</v>
+      </c>
+      <c r="P75" s="66"/>
+      <c r="Q75" s="65">
         <f>Q70-Q9</f>
-        <v>0.59736325806449742</v>
-      </c>
-      <c r="R75" s="68">
+        <v>0.60416830684500056</v>
+      </c>
+      <c r="R75" s="65">
         <f>R70-R9</f>
-        <v>-0.14582377419349868</v>
-      </c>
-      <c r="S75" s="68">
-        <f t="shared" ref="Q75:S76" si="42">S70-S9</f>
-        <v>0.6982148064516025</v>
-      </c>
-      <c r="AF75" s="68">
+        <v>-0.16192653029110105</v>
+      </c>
+      <c r="S75" s="65">
+        <f t="shared" ref="S75" si="42">S70-S9</f>
+        <v>0.70388866011010265</v>
+      </c>
+      <c r="AF75" s="65">
         <f>AF70-AF9</f>
         <v>1.0240663520509752</v>
       </c>
-      <c r="AG75" s="68">
+      <c r="AG75" s="65">
         <f>AG70-AG9</f>
         <v>0.70630548685782912</v>
       </c>
-      <c r="AH75" s="68">
+      <c r="AH75" s="65">
         <f t="shared" ref="AH75" si="43">AH70-AH9</f>
         <v>0.8028488016726425</v>
       </c>
-      <c r="AK75" s="68">
+      <c r="AK75" s="65">
         <f>AK70-AK9</f>
         <v>5.807244532855421</v>
       </c>
-      <c r="AL75" s="68">
+      <c r="AL75" s="65">
         <f>AL70-AL9</f>
         <v>4.4234682386499458</v>
       </c>
-      <c r="AM75" s="68">
+      <c r="AM75" s="65">
         <f t="shared" ref="AM75" si="44">AM70-AM9</f>
         <v>5.4413149804858776</v>
       </c>
@@ -6529,36 +6691,36 @@
         <f t="shared" si="40"/>
         <v>400</v>
       </c>
-      <c r="D76" s="70">
+      <c r="D76" s="67">
         <f>AF76+AK76-Q76</f>
-        <v>7.3323675531660779</v>
-      </c>
-      <c r="E76" s="70">
+        <v>7.3023148946294771</v>
+      </c>
+      <c r="E76" s="67">
         <f t="shared" si="34"/>
-        <v>6.9040420559272953</v>
-      </c>
-      <c r="F76" s="70">
+        <v>6.9096528364150949</v>
+      </c>
+      <c r="F76" s="67">
         <f t="shared" si="34"/>
-        <v>8.3792910428116585</v>
+        <v>8.3536862623238584</v>
       </c>
       <c r="N76" s="49">
         <v>400</v>
       </c>
       <c r="O76" s="3">
         <f>O72-O11</f>
-        <v>0.83656099999999611</v>
+        <v>0.87733897560969609</v>
       </c>
       <c r="Q76" s="3">
         <f t="shared" ref="Q76:S76" si="45">Q72-Q11</f>
-        <v>2.9489412258065038</v>
+        <v>2.9789938843431045</v>
       </c>
       <c r="R76" s="3">
         <f t="shared" si="45"/>
-        <v>2.7935610967741979</v>
+        <v>2.7879503162863983</v>
       </c>
       <c r="S76" s="3">
         <f t="shared" si="45"/>
-        <v>2.7515872903226004</v>
+        <v>2.7771920708104005</v>
       </c>
       <c r="AF76" s="3">
         <f t="shared" ref="AF76:AH76" si="46">AF72-AF11</f>
@@ -6577,7 +6739,7 @@
         <v>7.1209250045799095</v>
       </c>
       <c r="AL76" s="3">
-        <f t="shared" ref="AK76:AM76" si="47">AL72-AL11</f>
+        <f t="shared" ref="AL76:AM76" si="47">AL72-AL11</f>
         <v>6.3460688432038346</v>
       </c>
       <c r="AM76" s="3">
@@ -6586,7 +6748,7 @@
       </c>
     </row>
     <row r="77" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A77" s="71" t="s">
+      <c r="A77" s="68" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6692,8 +6854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC49" sqref="AC49"/>
+    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6712,31 +6874,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="44"/>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
       <c r="M1" s="18"/>
-      <c r="O1" s="65" t="s">
+      <c r="O1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
       <c r="U1" s="7" t="s">
         <v>39</v>
       </c>
@@ -6744,35 +6906,35 @@
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
       <c r="Y1" s="7"/>
-      <c r="Z1" s="65" t="s">
+      <c r="Z1" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65" t="s">
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65" t="s">
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65" t="s">
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="69"/>
     </row>
     <row r="2" spans="1:46" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -7516,20 +7678,20 @@
       <c r="AO11" s="3"/>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="I12" s="67" t="s">
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="I12" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
       <c r="N12" s="52" t="s">
         <v>5</v>
       </c>
@@ -9284,15 +9446,15 @@
       <c r="H38" s="48"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D39" s="70">
+      <c r="D39" s="67">
         <f>AF39+AK39-Q39</f>
         <v>0.6493401796097249</v>
       </c>
-      <c r="E39" s="70">
+      <c r="E39" s="67">
         <f>AG39+AL39-R39</f>
         <v>-0.3530878516527256</v>
       </c>
-      <c r="F39" s="70">
+      <c r="F39" s="67">
         <f t="shared" ref="E39:F40" si="16">AH39+AM39-S39</f>
         <v>-0.55252280147353616</v>
       </c>
@@ -9338,15 +9500,15 @@
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D40" s="70">
+      <c r="D40" s="67">
         <f t="shared" ref="D40" si="20">AF40+AK40-Q40</f>
         <v>0.66114389745121649</v>
       </c>
-      <c r="E40" s="70">
+      <c r="E40" s="67">
         <f t="shared" si="16"/>
         <v>5.3603040621408304E-3</v>
       </c>
-      <c r="F40" s="70">
+      <c r="F40" s="67">
         <f t="shared" si="16"/>
         <v>-6.2339598367251448E-2</v>
       </c>

--- a/report/IPB1-2-LENR-COP.xlsx
+++ b/report/IPB1-2-LENR-COP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="13860"/>
+    <workbookView xWindow="7920" yWindow="-195" windowWidth="12930" windowHeight="13860"/>
   </bookViews>
   <sheets>
     <sheet name="IPB2-LENR-COP" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>NQ</t>
   </si>
@@ -276,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -362,10 +362,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -415,13 +411,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,11 +425,52 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -939,86 +974,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC79"/>
+  <dimension ref="A1:BC83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15:Y20"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y89" sqref="Y89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="5.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.625" style="49" customWidth="1"/>
+    <col min="8" max="8" width="5.625" style="47" customWidth="1"/>
     <col min="9" max="9" width="5.625" style="15" customWidth="1"/>
     <col min="10" max="12" width="5.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.625" style="15" customWidth="1"/>
-    <col min="14" max="14" width="5.625" style="49" customWidth="1"/>
+    <col min="14" max="14" width="5.625" style="47" customWidth="1"/>
     <col min="15" max="40" width="5.625" style="1" customWidth="1"/>
     <col min="41" max="46" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="9.125" style="1"/>
+    <col min="47" max="47" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="70" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
       <c r="L1" s="35"/>
       <c r="M1" s="18"/>
-      <c r="O1" s="69" t="s">
+      <c r="O1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69" t="s">
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69" t="s">
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69" t="s">
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69" t="s">
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69" t="s">
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
     </row>
     <row r="2" spans="1:45" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -1042,7 +1078,7 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="56" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="16" t="s">
@@ -1199,7 +1235,7 @@
         <f>C3/(D3+E3)</f>
         <v>1.0664335664335665</v>
       </c>
-      <c r="H3" s="59"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="16">
         <v>150</v>
       </c>
@@ -1213,7 +1249,7 @@
       </c>
       <c r="L3" s="37"/>
       <c r="M3" s="17"/>
-      <c r="N3" s="50" t="s">
+      <c r="N3" s="48" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="2"/>
@@ -1242,7 +1278,7 @@
         <f>C4/(D4+E4)</f>
         <v>1.0702154626108997</v>
       </c>
-      <c r="H4" s="59"/>
+      <c r="H4" s="57"/>
       <c r="I4" s="16">
         <v>200</v>
       </c>
@@ -1254,7 +1290,7 @@
       </c>
       <c r="L4" s="37"/>
       <c r="M4" s="17"/>
-      <c r="N4" s="50"/>
+      <c r="N4" s="48"/>
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
@@ -1281,7 +1317,7 @@
         <f>C5/(D5+E5)</f>
         <v>1.0885978428351311</v>
       </c>
-      <c r="H5" s="59"/>
+      <c r="H5" s="57"/>
       <c r="I5" s="16">
         <v>250</v>
       </c>
@@ -1295,7 +1331,7 @@
       </c>
       <c r="L5" s="37"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="50" t="s">
+      <c r="N5" s="48" t="s">
         <v>40</v>
       </c>
       <c r="O5" s="2" t="s">
@@ -1314,7 +1350,7 @@
       </c>
       <c r="L6" s="37"/>
       <c r="M6" s="17"/>
-      <c r="N6" s="51">
+      <c r="N6" s="49">
         <v>150</v>
       </c>
       <c r="O6" s="5">
@@ -1410,7 +1446,7 @@
       </c>
       <c r="L7" s="37"/>
       <c r="M7" s="17"/>
-      <c r="N7" s="51">
+      <c r="N7" s="49">
         <v>200</v>
       </c>
       <c r="O7" s="5">
@@ -1504,7 +1540,7 @@
       </c>
       <c r="L8" s="37"/>
       <c r="M8" s="17"/>
-      <c r="N8" s="51">
+      <c r="N8" s="49">
         <v>250</v>
       </c>
       <c r="O8" s="5">
@@ -1598,7 +1634,7 @@
         <v>-1.63987599095093E-2</v>
       </c>
       <c r="L9" s="37"/>
-      <c r="N9" s="51">
+      <c r="N9" s="49">
         <v>300</v>
       </c>
       <c r="O9" s="5">
@@ -1685,7 +1721,7 @@
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
-      <c r="N10" s="51">
+      <c r="N10" s="49">
         <v>350</v>
       </c>
       <c r="O10" s="5">
@@ -1768,7 +1804,7 @@
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="N11" s="51">
+      <c r="N11" s="49">
         <v>400</v>
       </c>
       <c r="O11" s="5">
@@ -1851,7 +1887,7 @@
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="N12" s="50" t="s">
+      <c r="N12" s="48" t="s">
         <v>5</v>
       </c>
       <c r="O12" s="24"/>
@@ -1878,22 +1914,22 @@
       <c r="AN12" s="3"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="71" t="s">
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="50"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="48"/>
       <c r="O13" s="2"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -1939,7 +1975,7 @@
       <c r="G14" s="22">
         <v>300</v>
       </c>
-      <c r="H14" s="51"/>
+      <c r="H14" s="49"/>
       <c r="I14" s="16">
         <v>300</v>
       </c>
@@ -1955,7 +1991,7 @@
       <c r="M14" s="16">
         <v>300</v>
       </c>
-      <c r="N14" s="50" t="s">
+      <c r="N14" s="48" t="s">
         <v>40</v>
       </c>
       <c r="O14" s="2" t="s">
@@ -1990,10 +2026,10 @@
         <f t="shared" ref="G15:G20" si="13">T6-T15-(AD6-AD15)*$F$3-$G$3*(AI6+AN6-AI15-AN15)</f>
         <v>0.50109704794139143</v>
       </c>
-      <c r="H15" s="59"/>
+      <c r="H15" s="57"/>
       <c r="I15" s="16"/>
       <c r="M15" s="16"/>
-      <c r="N15" s="51">
+      <c r="N15" s="49">
         <v>150</v>
       </c>
       <c r="O15" s="11">
@@ -2103,10 +2139,10 @@
         <f t="shared" si="13"/>
         <v>2.0018245042521308</v>
       </c>
-      <c r="H16" s="59"/>
+      <c r="H16" s="57"/>
       <c r="I16" s="16"/>
       <c r="M16" s="16"/>
-      <c r="N16" s="51">
+      <c r="N16" s="49">
         <v>200</v>
       </c>
       <c r="O16" s="11">
@@ -2216,10 +2252,10 @@
         <f t="shared" si="13"/>
         <v>2.2527851759703541</v>
       </c>
-      <c r="H17" s="59"/>
+      <c r="H17" s="57"/>
       <c r="I17" s="16"/>
       <c r="M17" s="16"/>
-      <c r="N17" s="51">
+      <c r="N17" s="49">
         <v>250</v>
       </c>
       <c r="O17" s="11">
@@ -2329,10 +2365,10 @@
         <f t="shared" si="13"/>
         <v>3.3341612703247332</v>
       </c>
-      <c r="H18" s="59"/>
+      <c r="H18" s="57"/>
       <c r="I18" s="16"/>
       <c r="M18" s="16"/>
-      <c r="N18" s="51">
+      <c r="N18" s="49">
         <v>300</v>
       </c>
       <c r="O18" s="11">
@@ -2442,10 +2478,10 @@
         <f t="shared" si="13"/>
         <v>1.5916129949365159</v>
       </c>
-      <c r="H19" s="59"/>
+      <c r="H19" s="57"/>
       <c r="I19" s="16"/>
       <c r="M19" s="16"/>
-      <c r="N19" s="51">
+      <c r="N19" s="49">
         <v>350</v>
       </c>
       <c r="O19" s="11">
@@ -2555,10 +2591,10 @@
         <f t="shared" si="13"/>
         <v>2.0121469244486332</v>
       </c>
-      <c r="H20" s="59"/>
+      <c r="H20" s="57"/>
       <c r="I20" s="16"/>
       <c r="M20" s="16"/>
-      <c r="N20" s="51">
+      <c r="N20" s="49">
         <v>400</v>
       </c>
       <c r="O20" s="11">
@@ -2641,17 +2677,17 @@
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="N21" s="50" t="s">
+      <c r="N21" s="48" t="s">
         <v>26</v>
       </c>
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="N22" s="50"/>
+      <c r="N22" s="48"/>
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="N23" s="50" t="s">
+      <c r="N23" s="48" t="s">
         <v>40</v>
       </c>
       <c r="O23" s="2" t="s">
@@ -2687,10 +2723,10 @@
         <f t="shared" ref="G24:G29" si="20">T6-T24-(AD6-AD24)*$F$3-$G$3*(AI6+AN6-AI24-AN24)</f>
         <v>-3.4184698029324654</v>
       </c>
-      <c r="H24" s="59"/>
+      <c r="H24" s="57"/>
       <c r="I24" s="16"/>
       <c r="M24" s="16"/>
-      <c r="N24" s="54">
+      <c r="N24" s="52">
         <v>150</v>
       </c>
       <c r="O24" s="11">
@@ -2787,10 +2823,10 @@
         <f t="shared" si="20"/>
         <v>-1.3924141365482727</v>
       </c>
-      <c r="H25" s="59"/>
+      <c r="H25" s="57"/>
       <c r="I25" s="16"/>
       <c r="M25" s="16"/>
-      <c r="N25" s="54">
+      <c r="N25" s="52">
         <v>200</v>
       </c>
       <c r="O25" s="11">
@@ -2887,10 +2923,10 @@
         <f t="shared" si="20"/>
         <v>0.64383618089404271</v>
       </c>
-      <c r="H26" s="59"/>
+      <c r="H26" s="57"/>
       <c r="I26" s="16"/>
       <c r="M26" s="16"/>
-      <c r="N26" s="54">
+      <c r="N26" s="52">
         <v>250</v>
       </c>
       <c r="O26" s="11">
@@ -2987,10 +3023,10 @@
         <f t="shared" si="20"/>
         <v>1.977392675722812</v>
       </c>
-      <c r="H27" s="59"/>
+      <c r="H27" s="57"/>
       <c r="I27" s="16"/>
       <c r="M27" s="16"/>
-      <c r="N27" s="54">
+      <c r="N27" s="52">
         <v>300</v>
       </c>
       <c r="O27" s="11">
@@ -3087,10 +3123,10 @@
         <f t="shared" si="20"/>
         <v>-1.9824035168627396</v>
       </c>
-      <c r="H28" s="59"/>
+      <c r="H28" s="57"/>
       <c r="I28" s="16"/>
       <c r="M28" s="16"/>
-      <c r="N28" s="54">
+      <c r="N28" s="52">
         <v>350</v>
       </c>
       <c r="O28" s="11">
@@ -3187,10 +3223,10 @@
         <f t="shared" si="20"/>
         <v>-2.1831677586301437</v>
       </c>
-      <c r="H29" s="59"/>
+      <c r="H29" s="57"/>
       <c r="I29" s="16"/>
       <c r="M29" s="16"/>
-      <c r="N29" s="54">
+      <c r="N29" s="52">
         <v>400</v>
       </c>
       <c r="O29" s="11">
@@ -3265,13 +3301,13 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="59"/>
+      <c r="H30" s="57"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
-      <c r="N30" s="50" t="s">
+      <c r="N30" s="48" t="s">
         <v>43</v>
       </c>
       <c r="O30" s="37"/>
@@ -3308,13 +3344,13 @@
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="59"/>
+      <c r="H31" s="57"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
-      <c r="N31" s="63"/>
+      <c r="N31" s="61"/>
       <c r="O31" s="37"/>
       <c r="P31" s="39"/>
       <c r="Q31" s="39"/>
@@ -3349,30 +3385,30 @@
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="59"/>
+      <c r="H32" s="57"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="41" t="s">
+      <c r="N32" s="61"/>
+      <c r="O32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="42"/>
-      <c r="AB32" s="42"/>
-      <c r="AC32" s="42"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
       <c r="AD32" s="39"/>
       <c r="AE32" s="39"/>
       <c r="AF32" s="39"/>
@@ -3408,7 +3444,7 @@
         <v>0.76336346095317542</v>
       </c>
       <c r="G33" s="12"/>
-      <c r="H33" s="60">
+      <c r="H33" s="58">
         <v>1</v>
       </c>
       <c r="I33" s="19"/>
@@ -3425,7 +3461,7 @@
         <v>1.4011950937211404</v>
       </c>
       <c r="M33" s="19"/>
-      <c r="N33" s="56">
+      <c r="N33" s="54">
         <v>150</v>
       </c>
       <c r="O33" s="11">
@@ -3525,7 +3561,7 @@
         <v>-9.5958151596428953E-2</v>
       </c>
       <c r="G34" s="12"/>
-      <c r="H34" s="60">
+      <c r="H34" s="58">
         <v>1</v>
       </c>
       <c r="I34" s="19"/>
@@ -3542,7 +3578,7 @@
         <v>1.328286836864103</v>
       </c>
       <c r="M34" s="19"/>
-      <c r="N34" s="56">
+      <c r="N34" s="54">
         <v>200</v>
       </c>
       <c r="O34" s="11">
@@ -3642,7 +3678,7 @@
         <v>-0.60042622918877542</v>
       </c>
       <c r="G35" s="12"/>
-      <c r="H35" s="60">
+      <c r="H35" s="58">
         <v>1</v>
       </c>
       <c r="I35" s="19"/>
@@ -3659,7 +3695,7 @@
         <v>1.2833019251802766</v>
       </c>
       <c r="M35" s="19"/>
-      <c r="N35" s="56">
+      <c r="N35" s="54">
         <v>250</v>
       </c>
       <c r="O35" s="11">
@@ -3759,7 +3795,7 @@
         <v>-1.0339912983389998</v>
       </c>
       <c r="G36" s="12"/>
-      <c r="H36" s="60">
+      <c r="H36" s="58">
         <v>1</v>
       </c>
       <c r="I36" s="19"/>
@@ -3776,7 +3812,7 @@
         <v>1.3685938317163155</v>
       </c>
       <c r="M36" s="19"/>
-      <c r="N36" s="56">
+      <c r="N36" s="54">
         <v>300</v>
       </c>
       <c r="O36" s="11">
@@ -3860,13 +3896,13 @@
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="59"/>
+      <c r="H37" s="57"/>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
       <c r="M37" s="19"/>
-      <c r="N37" s="56"/>
+      <c r="N37" s="54"/>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
@@ -3901,13 +3937,13 @@
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="59"/>
+      <c r="H38" s="57"/>
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
       <c r="L38" s="19"/>
       <c r="M38" s="19"/>
-      <c r="N38" s="50" t="s">
+      <c r="N38" s="48" t="s">
         <v>42</v>
       </c>
       <c r="O38" s="37"/>
@@ -3944,13 +3980,13 @@
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="59"/>
+      <c r="H39" s="57"/>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
-      <c r="N39" s="63"/>
+      <c r="N39" s="61"/>
       <c r="O39" s="37"/>
       <c r="P39" s="39"/>
       <c r="Q39" s="39"/>
@@ -3985,30 +4021,30 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="59"/>
+      <c r="H40" s="57"/>
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
       <c r="M40" s="19"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="41" t="s">
+      <c r="N40" s="61"/>
+      <c r="O40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="42"/>
-      <c r="Y40" s="42"/>
-      <c r="Z40" s="42"/>
-      <c r="AA40" s="42"/>
-      <c r="AB40" s="42"/>
-      <c r="AC40" s="42"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="39"/>
+      <c r="AA40" s="39"/>
+      <c r="AB40" s="39"/>
+      <c r="AC40" s="39"/>
       <c r="AD40" s="39"/>
       <c r="AE40" s="39"/>
       <c r="AF40" s="39"/>
@@ -4044,7 +4080,7 @@
         <v>1.068828922656806E-4</v>
       </c>
       <c r="G41" s="12"/>
-      <c r="H41" s="60">
+      <c r="H41" s="58">
         <v>1</v>
       </c>
       <c r="I41" s="19"/>
@@ -4061,7 +4097,7 @@
         <v>1.3092809170794484</v>
       </c>
       <c r="M41" s="19"/>
-      <c r="N41" s="56">
+      <c r="N41" s="54">
         <v>150</v>
       </c>
       <c r="O41" s="11">
@@ -4161,7 +4197,7 @@
         <v>-0.2333583917747058</v>
       </c>
       <c r="G42" s="12"/>
-      <c r="H42" s="60">
+      <c r="H42" s="58">
         <v>1</v>
       </c>
       <c r="I42" s="19"/>
@@ -4178,7 +4214,7 @@
         <v>1.415339047254744</v>
       </c>
       <c r="M42" s="19"/>
-      <c r="N42" s="56">
+      <c r="N42" s="54">
         <v>200</v>
       </c>
       <c r="O42" s="11">
@@ -4278,7 +4314,7 @@
         <v>-0.39428695778629108</v>
       </c>
       <c r="G43" s="12"/>
-      <c r="H43" s="60">
+      <c r="H43" s="58">
         <v>1</v>
       </c>
       <c r="I43" s="19"/>
@@ -4295,7 +4331,7 @@
         <v>1.3983845576963732</v>
       </c>
       <c r="M43" s="19"/>
-      <c r="N43" s="56">
+      <c r="N43" s="54">
         <v>250</v>
       </c>
       <c r="O43" s="11">
@@ -4379,13 +4415,13 @@
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="49"/>
+      <c r="H44" s="47"/>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
       <c r="K44" s="19"/>
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
-      <c r="N44" s="55"/>
+      <c r="N44" s="53"/>
       <c r="O44"/>
       <c r="P44"/>
       <c r="Q44"/>
@@ -4435,13 +4471,13 @@
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
-      <c r="H45" s="49"/>
+      <c r="H45" s="47"/>
       <c r="I45" s="19"/>
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
-      <c r="N45" s="56"/>
+      <c r="N45" s="54"/>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
@@ -4475,7 +4511,7 @@
       <c r="K46" s="19"/>
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
-      <c r="N46" s="50" t="s">
+      <c r="N46" s="48" t="s">
         <v>29</v>
       </c>
       <c r="O46" s="2"/>
@@ -4486,7 +4522,7 @@
       <c r="K47" s="19"/>
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
-      <c r="N47" s="50"/>
+      <c r="N47" s="48"/>
       <c r="O47" s="2"/>
     </row>
     <row r="48" spans="1:55" x14ac:dyDescent="0.25">
@@ -4495,7 +4531,7 @@
       <c r="K48" s="19"/>
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
-      <c r="N48" s="50"/>
+      <c r="N48" s="48"/>
       <c r="O48" s="2" t="s">
         <v>27</v>
       </c>
@@ -4528,13 +4564,13 @@
         <f>T9-T49-(AD9-AD49)*$F$3-$G$3*(AI9+AN9-AI49-AN49)</f>
         <v>-1.1389783616152678</v>
       </c>
-      <c r="H49" s="59"/>
+      <c r="H49" s="57"/>
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
       <c r="K49" s="19"/>
       <c r="L49" s="19"/>
       <c r="M49" s="19"/>
-      <c r="N49" s="54">
+      <c r="N49" s="52">
         <v>300</v>
       </c>
       <c r="O49" s="11">
@@ -4639,13 +4675,13 @@
         <f>T9-T50-(AD9-AD50)*$F$3-$G$3*(AI9+AN9-AI50-AN50)</f>
         <v>-1.3191384478962687</v>
       </c>
-      <c r="H50" s="59"/>
+      <c r="H50" s="57"/>
       <c r="I50" s="19"/>
       <c r="J50" s="19"/>
       <c r="K50" s="19"/>
       <c r="L50" s="19"/>
       <c r="M50" s="19"/>
-      <c r="N50" s="51">
+      <c r="N50" s="49">
         <v>300</v>
       </c>
       <c r="O50" s="11">
@@ -4719,13 +4755,13 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="61"/>
+      <c r="H51" s="59"/>
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
       <c r="K51" s="19"/>
       <c r="L51" s="19"/>
       <c r="M51" s="19"/>
-      <c r="N51" s="50" t="s">
+      <c r="N51" s="48" t="s">
         <v>29</v>
       </c>
       <c r="O51" s="25"/>
@@ -4757,13 +4793,13 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="61"/>
+      <c r="H52" s="59"/>
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
       <c r="M52" s="19"/>
-      <c r="N52" s="50"/>
+      <c r="N52" s="48"/>
       <c r="O52" s="25"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
@@ -4793,13 +4829,13 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="61"/>
+      <c r="H53" s="59"/>
       <c r="I53" s="19"/>
       <c r="J53" s="19"/>
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>
       <c r="M53" s="19"/>
-      <c r="N53" s="50" t="s">
+      <c r="N53" s="48" t="s">
         <v>40</v>
       </c>
       <c r="O53" s="2" t="s">
@@ -4854,7 +4890,7 @@
         <f>T9-T54-(AD9-AD54)*$F$3-$G$3*(AI9+AN9-AI54-AN54)</f>
         <v>-1.6913816424623533</v>
       </c>
-      <c r="H54" s="60">
+      <c r="H54" s="58">
         <v>1.2</v>
       </c>
       <c r="I54" s="19">
@@ -4877,7 +4913,7 @@
         <f>(Y54*$H$54*$J$6+$K$6+$O54-T54)/(Y54*$H$54)</f>
         <v>1.1899907118243938</v>
       </c>
-      <c r="N54" s="56">
+      <c r="N54" s="54">
         <v>300</v>
       </c>
       <c r="O54" s="14">
@@ -4969,7 +5005,7 @@
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
-      <c r="H55" s="60">
+      <c r="H55" s="58">
         <v>1.2</v>
       </c>
       <c r="I55" s="19">
@@ -4992,7 +5028,7 @@
         <f>(Y55*$H$55*$J$9+$K$9+$O55-T55)/(Y55*$H$55)</f>
         <v>1.093823460057433</v>
       </c>
-      <c r="N55" s="56">
+      <c r="N55" s="54">
         <v>600</v>
       </c>
       <c r="O55" s="14">
@@ -5075,13 +5111,13 @@
       </c>
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="H56" s="61"/>
+      <c r="H56" s="59"/>
       <c r="I56" s="19"/>
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
       <c r="L56" s="19"/>
       <c r="M56" s="19"/>
-      <c r="N56" s="50" t="s">
+      <c r="N56" s="48" t="s">
         <v>36</v>
       </c>
       <c r="O56" s="2"/>
@@ -5092,13 +5128,13 @@
       <c r="T56"/>
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="H57" s="61"/>
+      <c r="H57" s="59"/>
       <c r="I57" s="19"/>
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
       <c r="L57" s="19"/>
       <c r="M57" s="19"/>
-      <c r="N57" s="50"/>
+      <c r="N57" s="48"/>
       <c r="O57" s="2"/>
       <c r="P57"/>
       <c r="Q57"/>
@@ -5107,13 +5143,13 @@
       <c r="T57"/>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="H58" s="61"/>
+      <c r="H58" s="59"/>
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
       <c r="L58" s="19"/>
       <c r="M58" s="19"/>
-      <c r="N58" s="50"/>
+      <c r="N58" s="48"/>
       <c r="O58" s="2" t="s">
         <v>37</v>
       </c>
@@ -5152,7 +5188,7 @@
         <f t="shared" ref="G59:G64" si="30">T6-T59-(AD6-AD59)*$F$3-$G$3*(AI6+AN6-AI59-AN59)</f>
         <v>0.53212639110250626</v>
       </c>
-      <c r="H59" s="60">
+      <c r="H59" s="58">
         <v>1</v>
       </c>
       <c r="I59" s="19">
@@ -5175,7 +5211,7 @@
         <f>(Y59*$H$59*$J$3+$K$3+$O59-T59)/(Y59*$H$59)</f>
         <v>1.1698890545648439</v>
       </c>
-      <c r="N59" s="54">
+      <c r="N59" s="52">
         <v>150</v>
       </c>
       <c r="O59" s="27">
@@ -5304,7 +5340,7 @@
         <f t="shared" si="30"/>
         <v>1.8614282517427583E-2</v>
       </c>
-      <c r="H60" s="60">
+      <c r="H60" s="58">
         <v>1.06</v>
       </c>
       <c r="I60" s="19">
@@ -5327,7 +5363,7 @@
         <f>(Y60*$H$60*$J$4+$K$4+$O60-T60)/(Y60*$H$60)</f>
         <v>1.1967727309470368</v>
       </c>
-      <c r="N60" s="54">
+      <c r="N60" s="52">
         <v>200</v>
       </c>
       <c r="O60" s="27">
@@ -5456,7 +5492,7 @@
         <f t="shared" si="30"/>
         <v>-0.54729200545846801</v>
       </c>
-      <c r="H61" s="60">
+      <c r="H61" s="58">
         <v>1</v>
       </c>
       <c r="I61" s="19">
@@ -5479,7 +5515,7 @@
         <f>(Y61*$H$61*$J$5+$K$5+$O61-T61)/(Y61*$H$61)</f>
         <v>1.2374194883977547</v>
       </c>
-      <c r="N61" s="54">
+      <c r="N61" s="52">
         <v>250</v>
       </c>
       <c r="O61" s="27">
@@ -5579,155 +5615,155 @@
         <v>42630.141782407409</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A62" s="23">
+    <row r="62" spans="1:46" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="68">
         <f t="shared" si="24"/>
         <v>300</v>
       </c>
-      <c r="B62" s="12">
+      <c r="B62" s="69">
         <f t="shared" si="25"/>
         <v>-1.4483726341463026</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="69">
         <f t="shared" si="26"/>
         <v>-1.2989133749588582</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="69">
         <f t="shared" si="27"/>
         <v>-2.3839796741687782</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="69">
         <f t="shared" si="28"/>
         <v>-2.2946279974176207</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="69">
         <f t="shared" si="29"/>
         <v>-2.2880774032027489</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G62" s="69">
         <f t="shared" si="30"/>
         <v>-1.7543161972294024</v>
       </c>
-      <c r="H62" s="60">
-        <v>1.06</v>
-      </c>
-      <c r="I62" s="19">
+      <c r="H62" s="70">
+        <v>1.08</v>
+      </c>
+      <c r="I62" s="71">
         <f>(U62*$H$62*$J$6+$K$6+$O62-P62)/(U62*$H$62)</f>
-        <v>1.2930605526455645</v>
-      </c>
-      <c r="J62" s="19">
+        <v>1.2781177280533387</v>
+      </c>
+      <c r="J62" s="71">
         <f>(V62*$H$62*$J$6+$K$6+$O62-Q62)/(V62*$H$62)</f>
-        <v>1.2137181629357161</v>
-      </c>
-      <c r="K62" s="19">
+        <v>1.2002446418566355</v>
+      </c>
+      <c r="K62" s="71">
         <f>(W62*$H$62*$J$6+$K$6+$O62-R62)/(W62*$H$62)</f>
-        <v>1.2146242983440707</v>
-      </c>
-      <c r="L62" s="19">
+        <v>1.2011339969796504</v>
+      </c>
+      <c r="L62" s="71">
         <f>(X62*$H$62*$J$6+$K$6+$O62-S62)/(X62*$H$62)</f>
-        <v>1.2430628046558734</v>
-      </c>
-      <c r="M62" s="19">
+        <v>1.2290458642856787</v>
+      </c>
+      <c r="M62" s="71">
         <f>(Y62*$H$62*$J$6+$K$6+$O62-T62)/(Y62*$H$62)</f>
-        <v>1.2381915557846961</v>
-      </c>
-      <c r="N62" s="54">
+        <v>1.2242648237269311</v>
+      </c>
+      <c r="N62" s="72">
         <v>300</v>
       </c>
-      <c r="O62" s="27">
+      <c r="O62" s="73">
         <v>24.584489000000001</v>
       </c>
-      <c r="P62" s="27">
+      <c r="P62" s="73">
         <v>21.267337999999999</v>
       </c>
-      <c r="Q62" s="27">
+      <c r="Q62" s="73">
         <v>20.948191000000001</v>
       </c>
-      <c r="R62" s="27">
+      <c r="R62" s="73">
         <v>20.243701000000001</v>
       </c>
-      <c r="S62" s="27">
+      <c r="S62" s="73">
         <v>20.788577</v>
       </c>
-      <c r="T62" s="27">
+      <c r="T62" s="73">
         <v>21.490016000000001</v>
       </c>
-      <c r="U62" s="30">
+      <c r="U62" s="73">
         <v>3.9092684044117654</v>
       </c>
-      <c r="V62" s="30">
+      <c r="V62" s="73">
         <v>4.7493974044117646</v>
       </c>
-      <c r="W62" s="30">
+      <c r="W62" s="73">
         <v>5.6558230962962952</v>
       </c>
-      <c r="X62" s="30">
+      <c r="X62" s="73">
         <v>4.7642073676470602</v>
       </c>
-      <c r="Y62" s="30">
+      <c r="Y62" s="73">
         <v>3.9151511102941159</v>
       </c>
-      <c r="Z62" s="27">
+      <c r="Z62" s="73">
         <v>49.926560110294126</v>
       </c>
-      <c r="AA62" s="27">
+      <c r="AA62" s="73">
         <v>49.929095757352961</v>
       </c>
-      <c r="AB62" s="27">
+      <c r="AB62" s="73">
         <v>49.990274825925958</v>
       </c>
-      <c r="AC62" s="27">
+      <c r="AC62" s="73">
         <v>50.040242374999991</v>
       </c>
-      <c r="AD62" s="27">
+      <c r="AD62" s="73">
         <v>50.065050161764667</v>
       </c>
-      <c r="AE62" s="30">
+      <c r="AE62" s="73">
         <v>0.2820431911764707</v>
       </c>
-      <c r="AF62" s="30">
+      <c r="AF62" s="73">
         <v>0.53424416911764705</v>
       </c>
-      <c r="AG62" s="30">
+      <c r="AG62" s="73">
         <v>1.2621952481481482</v>
       </c>
-      <c r="AH62" s="30">
+      <c r="AH62" s="73">
         <v>0.63496296323529411</v>
       </c>
-      <c r="AI62" s="30">
+      <c r="AI62" s="73">
         <v>0.45394387499999983</v>
       </c>
-      <c r="AJ62" s="27">
+      <c r="AJ62" s="73">
         <v>31.329671051470587</v>
       </c>
-      <c r="AK62" s="27">
+      <c r="AK62" s="73">
         <v>28.521643242647059</v>
       </c>
-      <c r="AL62" s="27">
+      <c r="AL62" s="73">
         <v>27.431618037037062</v>
       </c>
-      <c r="AM62" s="27">
+      <c r="AM62" s="73">
         <v>28.634437683823521</v>
       </c>
-      <c r="AN62" s="27">
+      <c r="AN62" s="73">
         <v>31.563732904411754</v>
       </c>
-      <c r="AO62" s="31">
+      <c r="AO62" s="74">
         <v>42630.245972222219</v>
       </c>
-      <c r="AP62" s="31">
+      <c r="AP62" s="74">
         <v>42630.266805555555</v>
       </c>
-      <c r="AQ62" s="31">
+      <c r="AQ62" s="74">
         <v>42630.28765046296</v>
       </c>
-      <c r="AR62" s="31">
+      <c r="AR62" s="74">
         <v>42630.329328703701</v>
       </c>
-      <c r="AS62" s="31">
+      <c r="AS62" s="74">
         <v>42630.350162037037</v>
       </c>
-      <c r="AT62" s="31">
+      <c r="AT62" s="74">
         <v>42630.370995370373</v>
       </c>
     </row>
@@ -5760,7 +5796,7 @@
         <f t="shared" si="30"/>
         <v>-1.690970363964075</v>
       </c>
-      <c r="H63" s="60">
+      <c r="H63" s="58">
         <v>1</v>
       </c>
       <c r="I63" s="19">
@@ -5769,21 +5805,21 @@
       </c>
       <c r="J63" s="19">
         <f>(V63*$H$62*$J$6+$K$6+$O63-Q63)/(V63*$H$62)</f>
-        <v>1.1490370497664577</v>
+        <v>1.1367613270794001</v>
       </c>
       <c r="K63" s="19">
         <f>(W63*$H$62*$J$6+$K$6+$O63-R63)/(W63*$H$62)</f>
-        <v>1.1198559995574884</v>
+        <v>1.1081206666891155</v>
       </c>
       <c r="L63" s="19">
         <f>(X63*$H$62*$J$6+$K$6+$O63-S63)/(X63*$H$62)</f>
-        <v>1.1329296105113278</v>
+        <v>1.1209521737364017</v>
       </c>
       <c r="M63" s="19">
         <f>(Y63*$H$62*$J$6+$K$6+$O63-T63)/(Y63*$H$62)</f>
-        <v>1.148653576391796</v>
-      </c>
-      <c r="N63" s="54">
+        <v>1.1363849550635297</v>
+      </c>
+      <c r="N63" s="52">
         <v>350</v>
       </c>
       <c r="O63" s="27">
@@ -5912,7 +5948,7 @@
         <f t="shared" si="30"/>
         <v>-1.9809796140178664</v>
       </c>
-      <c r="H64" s="60">
+      <c r="H64" s="58">
         <v>1.06</v>
       </c>
       <c r="I64" s="19">
@@ -5935,7 +5971,7 @@
         <f>(Y64*$H$64*$J$8+$K$8+$O64-T64)/(Y64*$H$64)</f>
         <v>1.0521948750550463</v>
       </c>
-      <c r="N64" s="54">
+      <c r="N64" s="52">
         <v>400</v>
       </c>
       <c r="O64" s="27">
@@ -6035,730 +6071,874 @@
         <v>42630.829328703701</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="H65" s="62"/>
-      <c r="J65" s="3"/>
-      <c r="N65" s="50" t="s">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A65" s="64"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" s="76"/>
+      <c r="Q65" s="76"/>
+      <c r="R65" s="76"/>
+      <c r="S65" s="76"/>
+      <c r="T65" s="76"/>
+      <c r="U65" s="76"/>
+      <c r="V65" s="76"/>
+      <c r="W65" s="76"/>
+      <c r="X65" s="76"/>
+      <c r="Y65" s="76"/>
+      <c r="Z65" s="76"/>
+      <c r="AA65" s="76"/>
+      <c r="AB65" s="76"/>
+      <c r="AC65" s="76"/>
+      <c r="AD65" s="76"/>
+      <c r="AE65" s="76"/>
+      <c r="AF65" s="76"/>
+      <c r="AG65" s="76"/>
+      <c r="AH65" s="76"/>
+      <c r="AI65" s="76"/>
+      <c r="AJ65" s="76"/>
+      <c r="AK65" s="76"/>
+      <c r="AL65" s="76"/>
+      <c r="AM65" s="76"/>
+      <c r="AN65" s="76"/>
+      <c r="AO65" s="77"/>
+      <c r="AP65" s="77"/>
+      <c r="AQ65" s="77"/>
+      <c r="AR65" s="77"/>
+      <c r="AS65" s="77"/>
+      <c r="AT65" s="77"/>
+    </row>
+    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A66" s="64"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="48"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="76"/>
+      <c r="Q66" s="76"/>
+      <c r="R66" s="76"/>
+      <c r="S66" s="76"/>
+      <c r="T66" s="76"/>
+      <c r="U66" s="76"/>
+      <c r="V66" s="76"/>
+      <c r="W66" s="76"/>
+      <c r="X66" s="76"/>
+      <c r="Y66" s="76"/>
+      <c r="Z66" s="76"/>
+      <c r="AA66" s="76"/>
+      <c r="AB66" s="76"/>
+      <c r="AC66" s="76"/>
+      <c r="AD66" s="76"/>
+      <c r="AE66" s="76"/>
+      <c r="AF66" s="76"/>
+      <c r="AG66" s="76"/>
+      <c r="AH66" s="76"/>
+      <c r="AI66" s="76"/>
+      <c r="AJ66" s="76"/>
+      <c r="AK66" s="76"/>
+      <c r="AL66" s="76"/>
+      <c r="AM66" s="76"/>
+      <c r="AN66" s="76"/>
+      <c r="AO66" s="77"/>
+      <c r="AP66" s="77"/>
+      <c r="AQ66" s="77"/>
+      <c r="AR66" s="77"/>
+      <c r="AS66" s="77"/>
+      <c r="AT66" s="77"/>
+    </row>
+    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A67" s="64"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P67" s="76"/>
+      <c r="Q67" s="76"/>
+      <c r="R67" s="76"/>
+      <c r="S67" s="76"/>
+      <c r="T67" s="76"/>
+      <c r="U67" s="76"/>
+      <c r="V67" s="76"/>
+      <c r="W67" s="76"/>
+      <c r="X67" s="76"/>
+      <c r="Y67" s="76"/>
+      <c r="Z67" s="76"/>
+      <c r="AA67" s="76"/>
+      <c r="AB67" s="76"/>
+      <c r="AC67" s="76"/>
+      <c r="AD67" s="76"/>
+      <c r="AE67" s="76"/>
+      <c r="AF67" s="76"/>
+      <c r="AG67" s="76"/>
+      <c r="AH67" s="76"/>
+      <c r="AI67" s="76"/>
+      <c r="AJ67" s="76"/>
+      <c r="AK67" s="76"/>
+      <c r="AL67" s="76"/>
+      <c r="AM67" s="76"/>
+      <c r="AN67" s="76"/>
+      <c r="AO67" s="77"/>
+      <c r="AP67" s="77"/>
+      <c r="AQ67" s="77"/>
+      <c r="AR67" s="77"/>
+      <c r="AS67" s="77"/>
+      <c r="AT67" s="77"/>
+    </row>
+    <row r="68" spans="1:47" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="68"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="69"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="70">
+        <v>1.08</v>
+      </c>
+      <c r="I68" s="71">
+        <f>(U68*$H$68*$J$6+$K$6+$O68-P68)/(U68*$H$68)</f>
+        <v>1.008818339245626</v>
+      </c>
+      <c r="J68" s="71">
+        <f t="shared" ref="J68:M68" si="31">(V68*$H$68*$J$6+$K$6+$O68-Q68)/(V68*$H$68)</f>
+        <v>1.004028026803965</v>
+      </c>
+      <c r="K68" s="71">
+        <f t="shared" si="31"/>
+        <v>0.993806051856991</v>
+      </c>
+      <c r="L68" s="71">
+        <f t="shared" si="31"/>
+        <v>1.0172986330905129</v>
+      </c>
+      <c r="M68" s="71">
+        <f t="shared" si="31"/>
+        <v>1.0508019925823737</v>
+      </c>
+      <c r="N68" s="72">
+        <v>600</v>
+      </c>
+      <c r="O68" s="73">
+        <v>74.032341902439001</v>
+      </c>
+      <c r="P68" s="73">
+        <v>71.060528512195106</v>
+      </c>
+      <c r="Q68" s="73">
+        <v>71.084728243902404</v>
+      </c>
+      <c r="R68" s="73">
+        <v>70.946126853658598</v>
+      </c>
+      <c r="S68" s="73">
+        <v>71.0234722195122</v>
+      </c>
+      <c r="T68" s="73">
+        <v>70.833931146341499</v>
+      </c>
+      <c r="U68" s="73">
+        <v>5.3116946097561</v>
+      </c>
+      <c r="V68" s="73">
+        <v>5.3175599024390303</v>
+      </c>
+      <c r="W68" s="73">
+        <v>5.6774292926829304</v>
+      </c>
+      <c r="X68" s="73">
+        <v>5.2914868780487803</v>
+      </c>
+      <c r="Y68" s="73">
+        <v>5.2883316829268301</v>
+      </c>
+      <c r="Z68" s="73">
+        <v>50.287989000000003</v>
+      </c>
+      <c r="AA68" s="73">
+        <v>50.295817902438998</v>
+      </c>
+      <c r="AB68" s="73">
+        <v>50.3355835121951</v>
+      </c>
+      <c r="AC68" s="73">
+        <v>50.348470390243897</v>
+      </c>
+      <c r="AD68" s="73">
+        <v>50.358690829268298</v>
+      </c>
+      <c r="AE68" s="73">
+        <v>0.48425858536585398</v>
+      </c>
+      <c r="AF68" s="73">
+        <v>0.782109146341464</v>
+      </c>
+      <c r="AG68" s="73">
+        <v>1.3459666097561001</v>
+      </c>
+      <c r="AH68" s="73">
+        <v>0.314033487804878</v>
+      </c>
+      <c r="AI68" s="73">
+        <v>0.21626400000000001</v>
+      </c>
+      <c r="AJ68" s="73">
+        <v>31.171222829268299</v>
+      </c>
+      <c r="AK68" s="73">
+        <v>28.840355146341501</v>
+      </c>
+      <c r="AL68" s="73">
+        <v>28.6199709268293</v>
+      </c>
+      <c r="AM68" s="73">
+        <v>28.685822048780501</v>
+      </c>
+      <c r="AN68" s="73">
+        <v>31.110990439024398</v>
+      </c>
+      <c r="AO68" s="74">
+        <v>42625.767060185186</v>
+      </c>
+      <c r="AP68" s="74">
+        <v>42625.780949074076</v>
+      </c>
+      <c r="AQ68" s="74">
+        <v>42625.822627314818</v>
+      </c>
+      <c r="AR68" s="74">
+        <v>42625.836527777778</v>
+      </c>
+      <c r="AS68" s="74">
+        <v>42625.850300925929</v>
+      </c>
+      <c r="AT68" s="74">
+        <v>42625.864189814813</v>
+      </c>
+      <c r="AU68" s="74"/>
+    </row>
+    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="H69" s="60"/>
+      <c r="J69" s="3"/>
+      <c r="N69" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="O65"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-    </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N66" s="55"/>
-      <c r="O66"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-    </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="O67" s="2" t="s">
+      <c r="O69"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+    </row>
+    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="N70" s="53"/>
+      <c r="O70"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+    </row>
+    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="O71" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A68" s="43">
-        <f>N68</f>
+    <row r="72" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A72" s="41">
+        <f>N72</f>
         <v>250</v>
       </c>
-      <c r="B68" s="12">
-        <f>O8-O68</f>
+      <c r="B72" s="12">
+        <f>O8-O72</f>
         <v>-0.41817299999999946</v>
-      </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12">
-        <f>Q8-Q68-(AA8-AA68)*$F$4-$G$4*(AF8+AK8-AF68-AK68)</f>
-        <v>7.5407298227453685</v>
-      </c>
-      <c r="E68" s="12">
-        <f>R8-R68-(AB8-AB68)*$F$5-$G$5*(AG8+AL8-AG68-AL68)</f>
-        <v>6.8546679891990614</v>
-      </c>
-      <c r="F68" s="12">
-        <f>S8-S68-(AC8-AC68)*$F$4-$G$4*(AH8+AM8-AH68-AM68)</f>
-        <v>7.3541682159359834</v>
-      </c>
-      <c r="G68" s="12"/>
-      <c r="H68" s="60">
-        <v>1</v>
-      </c>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19">
-        <f t="shared" ref="J68:L69" si="31">(V68*$H68*$J$5+$K$5+$O68-Q68)/(V68*$H68)</f>
-        <v>1.3485912181115975</v>
-      </c>
-      <c r="K68" s="19">
-        <f t="shared" si="31"/>
-        <v>1.3285106960110227</v>
-      </c>
-      <c r="L68" s="19">
-        <f t="shared" si="31"/>
-        <v>1.3395762959682189</v>
-      </c>
-      <c r="M68" s="19"/>
-      <c r="N68" s="49">
-        <v>250</v>
-      </c>
-      <c r="O68" s="27">
-        <v>18.228331000000001</v>
-      </c>
-      <c r="P68" s="27"/>
-      <c r="Q68" s="27">
-        <v>14.562976870967701</v>
-      </c>
-      <c r="R68" s="27">
-        <v>13.9780723548387</v>
-      </c>
-      <c r="S68" s="27">
-        <v>14.6181962258065</v>
-      </c>
-      <c r="T68" s="27"/>
-      <c r="U68" s="30"/>
-      <c r="V68" s="30">
-        <v>4.2807538709677404</v>
-      </c>
-      <c r="W68" s="30">
-        <v>5.0771617741935504</v>
-      </c>
-      <c r="X68" s="30">
-        <v>4.2612692903225797</v>
-      </c>
-      <c r="Y68" s="30"/>
-      <c r="Z68" s="27"/>
-      <c r="AA68" s="27">
-        <v>50.269216096774201</v>
-      </c>
-      <c r="AB68" s="27">
-        <v>50.300657967741898</v>
-      </c>
-      <c r="AC68" s="27">
-        <v>50.310792612903199</v>
-      </c>
-      <c r="AD68" s="27"/>
-      <c r="AE68" s="30"/>
-      <c r="AF68" s="30">
-        <v>3.2489842580645201</v>
-      </c>
-      <c r="AG68" s="30">
-        <v>3.6162459354838701</v>
-      </c>
-      <c r="AH68" s="30">
-        <v>2.77801980645161</v>
-      </c>
-      <c r="AI68" s="30"/>
-      <c r="AJ68" s="27"/>
-      <c r="AK68" s="27">
-        <v>34.781154774193503</v>
-      </c>
-      <c r="AL68" s="27">
-        <v>32.837031838709699</v>
-      </c>
-      <c r="AM68" s="27">
-        <v>34.403320451612899</v>
-      </c>
-      <c r="AN68" s="27"/>
-      <c r="AO68" s="32"/>
-      <c r="AP68" s="32"/>
-      <c r="AQ68" s="32"/>
-      <c r="AR68" s="32"/>
-      <c r="AS68" s="32"/>
-      <c r="AT68" s="32"/>
-    </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A69" s="43">
-        <f t="shared" ref="A69:A71" si="32">N69</f>
-        <v>275</v>
-      </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="60">
-        <v>1</v>
-      </c>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19">
-        <f t="shared" si="31"/>
-        <v>1.3926462731039426</v>
-      </c>
-      <c r="K69" s="19">
-        <f t="shared" si="31"/>
-        <v>1.3470351899217541</v>
-      </c>
-      <c r="L69" s="19">
-        <f t="shared" si="31"/>
-        <v>1.3611709960268525</v>
-      </c>
-      <c r="M69" s="19"/>
-      <c r="N69" s="49">
-        <v>275</v>
-      </c>
-      <c r="O69" s="27">
-        <v>20.84873</v>
-      </c>
-      <c r="P69" s="27"/>
-      <c r="Q69" s="27">
-        <v>16.720784096774199</v>
-      </c>
-      <c r="R69" s="27">
-        <v>16.165159838709702</v>
-      </c>
-      <c r="S69" s="27">
-        <v>16.8826011612903</v>
-      </c>
-      <c r="T69" s="27"/>
-      <c r="U69" s="30"/>
-      <c r="V69" s="30">
-        <v>4.5830191290322597</v>
-      </c>
-      <c r="W69" s="30">
-        <v>5.4712432258064503</v>
-      </c>
-      <c r="X69" s="30">
-        <v>4.5629450645161302</v>
-      </c>
-      <c r="Y69" s="30"/>
-      <c r="Z69" s="27"/>
-      <c r="AA69" s="27">
-        <v>50.086105032258097</v>
-      </c>
-      <c r="AB69" s="27">
-        <v>50.136324354838699</v>
-      </c>
-      <c r="AC69" s="27">
-        <v>50.154668354838698</v>
-      </c>
-      <c r="AD69" s="27"/>
-      <c r="AE69" s="30"/>
-      <c r="AF69" s="30">
-        <v>2.5931445161290299</v>
-      </c>
-      <c r="AG69" s="30">
-        <v>3.1163965161290301</v>
-      </c>
-      <c r="AH69" s="30">
-        <v>2.5255309677419402</v>
-      </c>
-      <c r="AI69" s="30"/>
-      <c r="AJ69" s="27"/>
-      <c r="AK69" s="27">
-        <v>33.880331677419399</v>
-      </c>
-      <c r="AL69" s="27">
-        <v>32.070700483871001</v>
-      </c>
-      <c r="AM69" s="27">
-        <v>33.673540258064499</v>
-      </c>
-      <c r="AN69" s="27"/>
-    </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A70" s="43">
-        <f t="shared" si="32"/>
-        <v>300</v>
-      </c>
-      <c r="B70" s="12">
-        <f>O9-O70</f>
-        <v>-0.62256263414630197</v>
-      </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12">
-        <f>Q9-Q70-(AA9-AA70)*$F$4-$G$4*(AF9+AK9-AF70-AK70)</f>
-        <v>6.383730384368123</v>
-      </c>
-      <c r="E70" s="12">
-        <f>R9-R70-(AB9-AB70)*$F$4-$G$4*(AG9+AL9-AG70-AL70)</f>
-        <v>5.2704931315647032</v>
-      </c>
-      <c r="F70" s="12">
-        <f>S9-S70-(AC9-AC70)*$F$4-$G$4*(AH9+AM9-AH70-AM70)</f>
-        <v>5.5365936760857313</v>
-      </c>
-      <c r="G70" s="12"/>
-      <c r="H70" s="60">
-        <v>1</v>
-      </c>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19">
-        <f t="shared" ref="J70:L71" si="33">(V70*$H70*$J$6+$K$6+$O70-Q70)/(V70*$H70)</f>
-        <v>1.4292088505581515</v>
-      </c>
-      <c r="K70" s="19">
-        <f t="shared" si="33"/>
-        <v>1.3996551684013179</v>
-      </c>
-      <c r="L70" s="19">
-        <f t="shared" si="33"/>
-        <v>1.3970758666353256</v>
-      </c>
-      <c r="M70" s="19"/>
-      <c r="N70" s="49">
-        <v>300</v>
-      </c>
-      <c r="O70" s="27">
-        <v>23.758679000000001</v>
-      </c>
-      <c r="P70" s="27"/>
-      <c r="Q70" s="27">
-        <v>19.245192258064499</v>
-      </c>
-      <c r="R70" s="27">
-        <v>18.4833052258065</v>
-      </c>
-      <c r="S70" s="27">
-        <v>19.404092806451601</v>
-      </c>
-      <c r="T70" s="27"/>
-      <c r="U70" s="30"/>
-      <c r="V70" s="30">
-        <v>4.8141535806451596</v>
-      </c>
-      <c r="W70" s="30">
-        <v>5.8039247096774202</v>
-      </c>
-      <c r="X70" s="30">
-        <v>4.8095347419354804</v>
-      </c>
-      <c r="Y70" s="30"/>
-      <c r="Z70" s="27"/>
-      <c r="AA70" s="27">
-        <v>49.887546516128999</v>
-      </c>
-      <c r="AB70" s="27">
-        <v>49.931536322580598</v>
-      </c>
-      <c r="AC70" s="27">
-        <v>49.955233387096797</v>
-      </c>
-      <c r="AD70" s="27"/>
-      <c r="AE70" s="30"/>
-      <c r="AF70" s="30">
-        <v>2.3391682903225801</v>
-      </c>
-      <c r="AG70" s="30">
-        <v>2.7492468387096798</v>
-      </c>
-      <c r="AH70" s="30">
-        <v>2.1072768387096801</v>
-      </c>
-      <c r="AI70" s="30"/>
-      <c r="AJ70" s="27"/>
-      <c r="AK70" s="27">
-        <v>33.354199903225798</v>
-      </c>
-      <c r="AL70" s="27">
-        <v>31.4189674516129</v>
-      </c>
-      <c r="AM70" s="27">
-        <v>33.253998548387102</v>
-      </c>
-      <c r="AN70" s="27"/>
-    </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A71" s="43">
-        <f t="shared" si="32"/>
-        <v>325</v>
-      </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="60">
-        <v>1</v>
-      </c>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19">
-        <f t="shared" si="33"/>
-        <v>1.404791706237438</v>
-      </c>
-      <c r="K71" s="19">
-        <f t="shared" si="33"/>
-        <v>1.4032432581090277</v>
-      </c>
-      <c r="L71" s="19">
-        <f t="shared" si="33"/>
-        <v>1.3999544650678855</v>
-      </c>
-      <c r="M71" s="19"/>
-      <c r="N71" s="49">
-        <v>325</v>
-      </c>
-      <c r="O71" s="27">
-        <v>26.714182000000001</v>
-      </c>
-      <c r="P71" s="27"/>
-      <c r="Q71" s="27">
-        <v>22.238615580645199</v>
-      </c>
-      <c r="R71" s="27">
-        <v>21.284031258064498</v>
-      </c>
-      <c r="S71" s="27">
-        <v>22.263480032258101</v>
-      </c>
-      <c r="T71" s="27"/>
-      <c r="U71" s="30"/>
-      <c r="V71" s="30">
-        <v>4.9008330645161298</v>
-      </c>
-      <c r="W71" s="30">
-        <v>5.9499858387096802</v>
-      </c>
-      <c r="X71" s="30">
-        <v>4.8995659032258096</v>
-      </c>
-      <c r="Y71" s="30"/>
-      <c r="Z71" s="27"/>
-      <c r="AA71" s="27">
-        <v>49.632656096774198</v>
-      </c>
-      <c r="AB71" s="27">
-        <v>49.700629967741897</v>
-      </c>
-      <c r="AC71" s="27">
-        <v>49.734550645161299</v>
-      </c>
-      <c r="AD71" s="27"/>
-      <c r="AE71" s="30"/>
-      <c r="AF71" s="30">
-        <v>2.4207534838709699</v>
-      </c>
-      <c r="AG71" s="30">
-        <v>4.0216372580645201</v>
-      </c>
-      <c r="AH71" s="30">
-        <v>3.6216999677419399</v>
-      </c>
-      <c r="AI71" s="30"/>
-      <c r="AJ71" s="27"/>
-      <c r="AK71" s="27">
-        <v>33.475266741935499</v>
-      </c>
-      <c r="AL71" s="27">
-        <v>32.1663261935484</v>
-      </c>
-      <c r="AM71" s="27">
-        <v>34.252079000000002</v>
-      </c>
-      <c r="AN71" s="27"/>
-    </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A72" s="43">
-        <f>N72</f>
-        <v>400</v>
-      </c>
-      <c r="B72" s="12">
-        <f>O11-O72</f>
-        <v>-0.87733897560969609</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12">
-        <f>Q11-Q72-(AA11-AA72)*$F$4-$G$4*(AF11+AK11-AF72-AK72)</f>
-        <v>9.0962728536279762</v>
+        <f>Q8-Q72-(AA8-AA72)*$F$4-$G$4*(AF8+AK8-AF72-AK72)</f>
+        <v>7.5407298227453685</v>
       </c>
       <c r="E72" s="12">
-        <f>R11-R72-(AB11-AB72)*$F$4-$G$4*(AG11+AL11-AG72-AL72)</f>
-        <v>7.9803121383120121</v>
+        <f>R8-R72-(AB8-AB72)*$F$5-$G$5*(AG8+AL8-AG72-AL72)</f>
+        <v>6.8546679891990614</v>
       </c>
       <c r="F72" s="12">
-        <f>S11-S72-(AC11-AC72)*$F$4-$G$4*(AH11+AM11-AH72-AM72)</f>
-        <v>9.1121737730832777</v>
+        <f>S8-S72-(AC8-AC72)*$F$4-$G$4*(AH8+AM8-AH72-AM72)</f>
+        <v>7.3541682159359834</v>
       </c>
       <c r="G72" s="12"/>
-      <c r="H72" s="60">
+      <c r="H72" s="58">
         <v>1</v>
       </c>
       <c r="I72" s="19"/>
       <c r="J72" s="19">
-        <f>(V72*$H72*$J$8+$K$8+$O72-Q72)/(V72*$H72)</f>
-        <v>1.0629715744014709</v>
+        <f t="shared" ref="J72:L73" si="32">(V72*$H72*$J$5+$K$5+$O72-Q72)/(V72*$H72)</f>
+        <v>1.3485912181115975</v>
       </c>
       <c r="K72" s="19">
-        <f>(W72*$H72*$J$8+$K$8+$O72-R72)/(W72*$H72)</f>
-        <v>1.0243987804504953</v>
+        <f t="shared" si="32"/>
+        <v>1.3285106960110227</v>
       </c>
       <c r="L72" s="19">
-        <f>(X72*$H72*$J$8+$K$8+$O72-S72)/(X72*$H72)</f>
-        <v>1.1030434792735895</v>
+        <f t="shared" si="32"/>
+        <v>1.3395762959682189</v>
       </c>
       <c r="M72" s="19"/>
-      <c r="N72" s="49">
-        <v>400</v>
+      <c r="N72" s="47">
+        <v>250</v>
       </c>
       <c r="O72" s="27">
-        <v>36.130347999999998</v>
+        <v>18.228331000000001</v>
       </c>
       <c r="P72" s="27"/>
       <c r="Q72" s="27">
-        <v>33.610354225806503</v>
+        <v>14.562976870967701</v>
       </c>
       <c r="R72" s="27">
-        <v>33.476327096774199</v>
+        <v>13.9780723548387</v>
       </c>
       <c r="S72" s="27">
-        <v>33.439099290322602</v>
+        <v>14.6181962258065</v>
       </c>
       <c r="T72" s="27"/>
       <c r="U72" s="30"/>
       <c r="V72" s="30">
-        <v>4.0154207419354799</v>
+        <v>4.2807538709677404</v>
       </c>
       <c r="W72" s="30">
-        <v>4.5013699677419403</v>
+        <v>5.0771617741935504</v>
       </c>
       <c r="X72" s="30">
-        <v>4.0307946451612899</v>
+        <v>4.2612692903225797</v>
       </c>
       <c r="Y72" s="30"/>
       <c r="Z72" s="27"/>
       <c r="AA72" s="27">
-        <v>50.4111786774194</v>
+        <v>50.269216096774201</v>
       </c>
       <c r="AB72" s="27">
-        <v>49.813302774193602</v>
+        <v>50.300657967741898</v>
       </c>
       <c r="AC72" s="27">
-        <v>49.478309000000003</v>
+        <v>50.310792612903199</v>
       </c>
       <c r="AD72" s="27"/>
       <c r="AE72" s="30"/>
       <c r="AF72" s="30">
-        <v>5.2934330645161296</v>
+        <v>3.2489842580645201</v>
       </c>
       <c r="AG72" s="30">
-        <v>6.0988026129032296</v>
+        <v>3.6162459354838701</v>
       </c>
       <c r="AH72" s="30">
-        <v>5.5709035806451599</v>
+        <v>2.77801980645161</v>
       </c>
       <c r="AI72" s="30"/>
       <c r="AJ72" s="27"/>
       <c r="AK72" s="27">
-        <v>36.272245677419399</v>
+        <v>34.781154774193503</v>
       </c>
       <c r="AL72" s="27">
-        <v>35.2183322580645</v>
+        <v>32.837031838709699</v>
       </c>
       <c r="AM72" s="27">
-        <v>36.6170531290323</v>
+        <v>34.403320451612899</v>
       </c>
       <c r="AN72" s="27"/>
-    </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A73" s="43"/>
+      <c r="AO72" s="32"/>
+      <c r="AP72" s="32"/>
+      <c r="AQ72" s="32"/>
+      <c r="AR72" s="32"/>
+      <c r="AS72" s="32"/>
+      <c r="AT72" s="32"/>
+    </row>
+    <row r="73" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A73" s="41">
+        <f t="shared" ref="A73:A75" si="33">N73</f>
+        <v>275</v>
+      </c>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
-    </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A74" s="64">
-        <f>N74</f>
-        <v>250</v>
-      </c>
-      <c r="D74" s="67">
-        <f>AF74+AK74-Q74</f>
-        <v>7.1674476365989666</v>
-      </c>
-      <c r="E74" s="67">
-        <f t="shared" ref="E74:F76" si="34">AG74+AL74-R74</f>
-        <v>5.9992259712217839</v>
-      </c>
-      <c r="F74" s="67">
+      <c r="H73" s="58">
+        <v>1</v>
+      </c>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19">
+        <f t="shared" si="32"/>
+        <v>1.3926462731039426</v>
+      </c>
+      <c r="K73" s="19">
+        <f t="shared" si="32"/>
+        <v>1.3470351899217541</v>
+      </c>
+      <c r="L73" s="19">
+        <f t="shared" si="32"/>
+        <v>1.3611709960268525</v>
+      </c>
+      <c r="M73" s="19"/>
+      <c r="N73" s="47">
+        <v>275</v>
+      </c>
+      <c r="O73" s="27">
+        <v>20.84873</v>
+      </c>
+      <c r="P73" s="27"/>
+      <c r="Q73" s="27">
+        <v>16.720784096774199</v>
+      </c>
+      <c r="R73" s="27">
+        <v>16.165159838709702</v>
+      </c>
+      <c r="S73" s="27">
+        <v>16.8826011612903</v>
+      </c>
+      <c r="T73" s="27"/>
+      <c r="U73" s="30"/>
+      <c r="V73" s="30">
+        <v>4.5830191290322597</v>
+      </c>
+      <c r="W73" s="30">
+        <v>5.4712432258064503</v>
+      </c>
+      <c r="X73" s="30">
+        <v>4.5629450645161302</v>
+      </c>
+      <c r="Y73" s="30"/>
+      <c r="Z73" s="27"/>
+      <c r="AA73" s="27">
+        <v>50.086105032258097</v>
+      </c>
+      <c r="AB73" s="27">
+        <v>50.136324354838699</v>
+      </c>
+      <c r="AC73" s="27">
+        <v>50.154668354838698</v>
+      </c>
+      <c r="AD73" s="27"/>
+      <c r="AE73" s="30"/>
+      <c r="AF73" s="30">
+        <v>2.5931445161290299</v>
+      </c>
+      <c r="AG73" s="30">
+        <v>3.1163965161290301</v>
+      </c>
+      <c r="AH73" s="30">
+        <v>2.5255309677419402</v>
+      </c>
+      <c r="AI73" s="30"/>
+      <c r="AJ73" s="27"/>
+      <c r="AK73" s="27">
+        <v>33.880331677419399</v>
+      </c>
+      <c r="AL73" s="27">
+        <v>32.070700483871001</v>
+      </c>
+      <c r="AM73" s="27">
+        <v>33.673540258064499</v>
+      </c>
+      <c r="AN73" s="27"/>
+    </row>
+    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A74" s="41">
+        <f t="shared" si="33"/>
+        <v>300</v>
+      </c>
+      <c r="B74" s="12">
+        <f>O9-O74</f>
+        <v>-0.62256263414630197</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12">
+        <f>Q9-Q74-(AA9-AA74)*$F$4-$G$4*(AF9+AK9-AF74-AK74)</f>
+        <v>6.383730384368123</v>
+      </c>
+      <c r="E74" s="12">
+        <f>R9-R74-(AB9-AB74)*$F$4-$G$4*(AG9+AL9-AG74-AL74)</f>
+        <v>5.2704931315647032</v>
+      </c>
+      <c r="F74" s="12">
+        <f>S9-S74-(AC9-AC74)*$F$4-$G$4*(AH9+AM9-AH74-AM74)</f>
+        <v>5.5365936760857313</v>
+      </c>
+      <c r="G74" s="12"/>
+      <c r="H74" s="58">
+        <v>1</v>
+      </c>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19">
+        <f t="shared" ref="J74:L75" si="34">(V74*$H74*$J$6+$K$6+$O74-Q74)/(V74*$H74)</f>
+        <v>1.4292088505581515</v>
+      </c>
+      <c r="K74" s="19">
         <f t="shared" si="34"/>
-        <v>6.2338838163592021</v>
-      </c>
-      <c r="N74" s="49">
-        <v>250</v>
-      </c>
-      <c r="O74" s="3">
-        <f>O68-O8</f>
-        <v>0.41817299999999946</v>
-      </c>
-      <c r="Q74" s="3">
-        <f t="shared" ref="Q74:S74" si="35">Q68-Q8</f>
-        <v>1.3558528709677002</v>
-      </c>
-      <c r="R74" s="3">
-        <f>R68-R8</f>
-        <v>0.73277830605819894</v>
-      </c>
-      <c r="S74" s="3">
-        <f t="shared" si="35"/>
-        <v>1.3959997380015992</v>
-      </c>
-      <c r="AF74" s="3">
-        <f t="shared" ref="AF74" si="36">AF68-AF8</f>
-        <v>1.5411549432497051</v>
-      </c>
-      <c r="AG74" s="3">
-        <f>AG68-AG8</f>
-        <v>1.2051048181999198</v>
-      </c>
-      <c r="AH74" s="3">
-        <f t="shared" ref="AH74" si="37">AH68-AH8</f>
-        <v>1.1715657694145731</v>
-      </c>
-      <c r="AK74" s="3">
-        <f t="shared" ref="AK74" si="38">AK68-AK8</f>
-        <v>6.9821455643169621</v>
-      </c>
-      <c r="AL74" s="3">
-        <f>AL68-AL8</f>
-        <v>5.5268994590800631</v>
-      </c>
-      <c r="AM74" s="3">
-        <f t="shared" ref="AM74" si="39">AM68-AM8</f>
-        <v>6.4583177849462281</v>
-      </c>
-    </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A75" s="64">
-        <f t="shared" ref="A75:A76" si="40">N75</f>
+        <v>1.3996551684013179</v>
+      </c>
+      <c r="L74" s="19">
+        <f t="shared" si="34"/>
+        <v>1.3970758666353256</v>
+      </c>
+      <c r="M74" s="19"/>
+      <c r="N74" s="47">
         <v>300</v>
       </c>
-      <c r="D75" s="67">
-        <f t="shared" ref="D75" si="41">AF75+AK75-Q75</f>
-        <v>6.2271425780613958</v>
-      </c>
-      <c r="E75" s="67">
+      <c r="O74" s="27">
+        <v>23.758679000000001</v>
+      </c>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="27">
+        <v>19.245192258064499</v>
+      </c>
+      <c r="R74" s="27">
+        <v>18.4833052258065</v>
+      </c>
+      <c r="S74" s="27">
+        <v>19.404092806451601</v>
+      </c>
+      <c r="T74" s="27"/>
+      <c r="U74" s="30"/>
+      <c r="V74" s="30">
+        <v>4.8141535806451596</v>
+      </c>
+      <c r="W74" s="30">
+        <v>5.8039247096774202</v>
+      </c>
+      <c r="X74" s="30">
+        <v>4.8095347419354804</v>
+      </c>
+      <c r="Y74" s="30"/>
+      <c r="Z74" s="27"/>
+      <c r="AA74" s="27">
+        <v>49.887546516128999</v>
+      </c>
+      <c r="AB74" s="27">
+        <v>49.931536322580598</v>
+      </c>
+      <c r="AC74" s="27">
+        <v>49.955233387096797</v>
+      </c>
+      <c r="AD74" s="27"/>
+      <c r="AE74" s="30"/>
+      <c r="AF74" s="30">
+        <v>2.3391682903225801</v>
+      </c>
+      <c r="AG74" s="30">
+        <v>2.7492468387096798</v>
+      </c>
+      <c r="AH74" s="30">
+        <v>2.1072768387096801</v>
+      </c>
+      <c r="AI74" s="30"/>
+      <c r="AJ74" s="27"/>
+      <c r="AK74" s="27">
+        <v>33.354199903225798</v>
+      </c>
+      <c r="AL74" s="27">
+        <v>31.4189674516129</v>
+      </c>
+      <c r="AM74" s="27">
+        <v>33.253998548387102</v>
+      </c>
+      <c r="AN74" s="27"/>
+    </row>
+    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A75" s="41">
+        <f t="shared" si="33"/>
+        <v>325</v>
+      </c>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="58">
+        <v>1</v>
+      </c>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19">
         <f t="shared" si="34"/>
-        <v>5.2917002557988759</v>
-      </c>
-      <c r="F75" s="67">
+        <v>1.404791706237438</v>
+      </c>
+      <c r="K75" s="19">
         <f t="shared" si="34"/>
-        <v>5.540275122048417</v>
-      </c>
-      <c r="N75" s="49">
-        <v>300</v>
-      </c>
-      <c r="O75" s="65">
-        <f>O70-O9</f>
-        <v>0.62256263414630197</v>
-      </c>
-      <c r="P75" s="66"/>
-      <c r="Q75" s="65">
-        <f>Q70-Q9</f>
-        <v>0.60416830684500056</v>
-      </c>
-      <c r="R75" s="65">
-        <f>R70-R9</f>
-        <v>-0.16192653029110105</v>
-      </c>
-      <c r="S75" s="65">
-        <f t="shared" ref="S75" si="42">S70-S9</f>
-        <v>0.70388866011010265</v>
-      </c>
-      <c r="AF75" s="65">
-        <f>AF70-AF9</f>
-        <v>1.0240663520509752</v>
-      </c>
-      <c r="AG75" s="65">
-        <f>AG70-AG9</f>
-        <v>0.70630548685782912</v>
-      </c>
-      <c r="AH75" s="65">
-        <f t="shared" ref="AH75" si="43">AH70-AH9</f>
-        <v>0.8028488016726425</v>
-      </c>
-      <c r="AK75" s="65">
-        <f>AK70-AK9</f>
-        <v>5.807244532855421</v>
-      </c>
-      <c r="AL75" s="65">
-        <f>AL70-AL9</f>
-        <v>4.4234682386499458</v>
-      </c>
-      <c r="AM75" s="65">
-        <f t="shared" ref="AM75" si="44">AM70-AM9</f>
-        <v>5.4413149804858776</v>
-      </c>
-    </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A76" s="64">
-        <f t="shared" si="40"/>
+        <v>1.4032432581090277</v>
+      </c>
+      <c r="L75" s="19">
+        <f t="shared" si="34"/>
+        <v>1.3999544650678855</v>
+      </c>
+      <c r="M75" s="19"/>
+      <c r="N75" s="47">
+        <v>325</v>
+      </c>
+      <c r="O75" s="27">
+        <v>26.714182000000001</v>
+      </c>
+      <c r="P75" s="27"/>
+      <c r="Q75" s="27">
+        <v>22.238615580645199</v>
+      </c>
+      <c r="R75" s="27">
+        <v>21.284031258064498</v>
+      </c>
+      <c r="S75" s="27">
+        <v>22.263480032258101</v>
+      </c>
+      <c r="T75" s="27"/>
+      <c r="U75" s="30"/>
+      <c r="V75" s="30">
+        <v>4.9008330645161298</v>
+      </c>
+      <c r="W75" s="30">
+        <v>5.9499858387096802</v>
+      </c>
+      <c r="X75" s="30">
+        <v>4.8995659032258096</v>
+      </c>
+      <c r="Y75" s="30"/>
+      <c r="Z75" s="27"/>
+      <c r="AA75" s="27">
+        <v>49.632656096774198</v>
+      </c>
+      <c r="AB75" s="27">
+        <v>49.700629967741897</v>
+      </c>
+      <c r="AC75" s="27">
+        <v>49.734550645161299</v>
+      </c>
+      <c r="AD75" s="27"/>
+      <c r="AE75" s="30"/>
+      <c r="AF75" s="30">
+        <v>2.4207534838709699</v>
+      </c>
+      <c r="AG75" s="30">
+        <v>4.0216372580645201</v>
+      </c>
+      <c r="AH75" s="30">
+        <v>3.6216999677419399</v>
+      </c>
+      <c r="AI75" s="30"/>
+      <c r="AJ75" s="27"/>
+      <c r="AK75" s="27">
+        <v>33.475266741935499</v>
+      </c>
+      <c r="AL75" s="27">
+        <v>32.1663261935484</v>
+      </c>
+      <c r="AM75" s="27">
+        <v>34.252079000000002</v>
+      </c>
+      <c r="AN75" s="27"/>
+    </row>
+    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A76" s="41">
+        <f>N76</f>
         <v>400</v>
       </c>
-      <c r="D76" s="67">
-        <f>AF76+AK76-Q76</f>
-        <v>7.3023148946294771</v>
-      </c>
-      <c r="E76" s="67">
-        <f t="shared" si="34"/>
-        <v>6.9096528364150949</v>
-      </c>
-      <c r="F76" s="67">
-        <f t="shared" si="34"/>
-        <v>8.3536862623238584</v>
-      </c>
-      <c r="N76" s="49">
+      <c r="B76" s="12">
+        <f>O11-O76</f>
+        <v>-0.87733897560969609</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12">
+        <f>Q11-Q76-(AA11-AA76)*$F$4-$G$4*(AF11+AK11-AF76-AK76)</f>
+        <v>9.0962728536279762</v>
+      </c>
+      <c r="E76" s="12">
+        <f>R11-R76-(AB11-AB76)*$F$4-$G$4*(AG11+AL11-AG76-AL76)</f>
+        <v>7.9803121383120121</v>
+      </c>
+      <c r="F76" s="12">
+        <f>S11-S76-(AC11-AC76)*$F$4-$G$4*(AH11+AM11-AH76-AM76)</f>
+        <v>9.1121737730832777</v>
+      </c>
+      <c r="G76" s="12"/>
+      <c r="H76" s="58">
+        <v>1</v>
+      </c>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19">
+        <f>(V76*$H76*$J$8+$K$8+$O76-Q76)/(V76*$H76)</f>
+        <v>1.0629715744014709</v>
+      </c>
+      <c r="K76" s="19">
+        <f>(W76*$H76*$J$8+$K$8+$O76-R76)/(W76*$H76)</f>
+        <v>1.0243987804504953</v>
+      </c>
+      <c r="L76" s="19">
+        <f>(X76*$H76*$J$8+$K$8+$O76-S76)/(X76*$H76)</f>
+        <v>1.1030434792735895</v>
+      </c>
+      <c r="M76" s="19"/>
+      <c r="N76" s="47">
         <v>400</v>
       </c>
-      <c r="O76" s="3">
-        <f>O72-O11</f>
-        <v>0.87733897560969609</v>
-      </c>
-      <c r="Q76" s="3">
-        <f t="shared" ref="Q76:S76" si="45">Q72-Q11</f>
-        <v>2.9789938843431045</v>
-      </c>
-      <c r="R76" s="3">
-        <f t="shared" si="45"/>
-        <v>2.7879503162863983</v>
-      </c>
-      <c r="S76" s="3">
-        <f t="shared" si="45"/>
-        <v>2.7771920708104005</v>
-      </c>
-      <c r="AF76" s="3">
-        <f t="shared" ref="AF76:AH76" si="46">AF72-AF11</f>
-        <v>3.1603837743926717</v>
-      </c>
-      <c r="AG76" s="3">
-        <f t="shared" si="46"/>
-        <v>3.3515343094976582</v>
-      </c>
-      <c r="AH76" s="3">
-        <f t="shared" si="46"/>
-        <v>3.7310038213859009</v>
-      </c>
-      <c r="AK76" s="3">
-        <f>AK72-AK11</f>
-        <v>7.1209250045799095</v>
-      </c>
-      <c r="AL76" s="3">
-        <f t="shared" ref="AL76:AM76" si="47">AL72-AL11</f>
-        <v>6.3460688432038346</v>
-      </c>
-      <c r="AM76" s="3">
-        <f t="shared" si="47"/>
-        <v>7.399874511748358</v>
-      </c>
-    </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A77" s="68" t="s">
+      <c r="O76" s="27">
+        <v>36.130347999999998</v>
+      </c>
+      <c r="P76" s="27"/>
+      <c r="Q76" s="27">
+        <v>33.610354225806503</v>
+      </c>
+      <c r="R76" s="27">
+        <v>33.476327096774199</v>
+      </c>
+      <c r="S76" s="27">
+        <v>33.439099290322602</v>
+      </c>
+      <c r="T76" s="27"/>
+      <c r="U76" s="30"/>
+      <c r="V76" s="30">
+        <v>4.0154207419354799</v>
+      </c>
+      <c r="W76" s="30">
+        <v>4.5013699677419403</v>
+      </c>
+      <c r="X76" s="30">
+        <v>4.0307946451612899</v>
+      </c>
+      <c r="Y76" s="30"/>
+      <c r="Z76" s="27"/>
+      <c r="AA76" s="27">
+        <v>50.4111786774194</v>
+      </c>
+      <c r="AB76" s="27">
+        <v>49.813302774193602</v>
+      </c>
+      <c r="AC76" s="27">
+        <v>49.478309000000003</v>
+      </c>
+      <c r="AD76" s="27"/>
+      <c r="AE76" s="30"/>
+      <c r="AF76" s="30">
+        <v>5.2934330645161296</v>
+      </c>
+      <c r="AG76" s="30">
+        <v>6.0988026129032296</v>
+      </c>
+      <c r="AH76" s="30">
+        <v>5.5709035806451599</v>
+      </c>
+      <c r="AI76" s="30"/>
+      <c r="AJ76" s="27"/>
+      <c r="AK76" s="27">
+        <v>36.272245677419399</v>
+      </c>
+      <c r="AL76" s="27">
+        <v>35.2183322580645</v>
+      </c>
+      <c r="AM76" s="27">
+        <v>36.6170531290323</v>
+      </c>
+      <c r="AN76" s="27"/>
+    </row>
+    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A77" s="41"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A78" s="64"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="O78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="AF78" s="3"/>
+      <c r="AG78" s="3"/>
+      <c r="AH78" s="3"/>
+      <c r="AK78" s="3"/>
+      <c r="AL78" s="3"/>
+      <c r="AM78" s="3"/>
+    </row>
+    <row r="79" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A79" s="64"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="62"/>
+      <c r="O79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="AF79" s="3"/>
+      <c r="AG79" s="3"/>
+      <c r="AH79" s="3"/>
+      <c r="AK79" s="3"/>
+      <c r="AL79" s="3"/>
+      <c r="AM79" s="3"/>
+    </row>
+    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A80" s="64"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="62"/>
+      <c r="O80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="AF80" s="3"/>
+      <c r="AG80" s="3"/>
+      <c r="AH80" s="3"/>
+      <c r="AK80" s="3"/>
+      <c r="AL80" s="3"/>
+      <c r="AM80" s="3"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="63" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6776,72 +6956,77 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:G20">
-    <cfRule type="cellIs" dxfId="22" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="55" operator="greaterThan">
       <formula>3.19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:G29">
-    <cfRule type="cellIs" dxfId="20" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="53" operator="greaterThan">
       <formula>3.19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54:G54">
-    <cfRule type="cellIs" dxfId="18" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="49" operator="greaterThan">
       <formula>3.19</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="greaterThan">
+  <conditionalFormatting sqref="C77">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="greaterThan">
       <formula>3.19</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73:G73">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="greaterThan">
+  <conditionalFormatting sqref="D77:G77">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="greaterThan">
       <formula>3.19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B36">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:M36">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="greaterThan">
       <formula>1.3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:M43">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThan">
       <formula>1.3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:M55">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThan">
       <formula>1.3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:M64">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="I59:M67">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
       <formula>1.3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68:M72">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="I72:M76">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+      <formula>1.3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68:M68">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>1.3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6861,11 +7046,11 @@
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="5.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.625" style="47" customWidth="1"/>
+    <col min="8" max="8" width="5.625" style="45" customWidth="1"/>
     <col min="9" max="9" width="5.625" style="15" customWidth="1"/>
     <col min="10" max="12" width="5.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.625" style="15" customWidth="1"/>
-    <col min="14" max="14" width="5.625" style="49" customWidth="1"/>
+    <col min="14" max="14" width="5.625" style="47" customWidth="1"/>
     <col min="15" max="40" width="5.625" style="1" customWidth="1"/>
     <col min="41" max="41" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="45" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -6874,31 +7059,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="70" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
       <c r="M1" s="18"/>
-      <c r="O1" s="69" t="s">
+      <c r="O1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
       <c r="U1" s="7" t="s">
         <v>39</v>
       </c>
@@ -6906,35 +7091,35 @@
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
       <c r="Y1" s="7"/>
-      <c r="Z1" s="69" t="s">
+      <c r="Z1" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69" t="s">
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69" t="s">
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69" t="s">
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="69"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
     </row>
     <row r="2" spans="1:46" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -6958,7 +7143,7 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="43" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="16" t="s">
@@ -7118,7 +7303,7 @@
         <f>C3/(D3+E3)</f>
         <v>1.1434730538922155</v>
       </c>
-      <c r="H3" s="46"/>
+      <c r="H3" s="44"/>
       <c r="I3" s="16">
         <v>150</v>
       </c>
@@ -7132,7 +7317,7 @@
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
-      <c r="N3" s="50" t="s">
+      <c r="N3" s="48" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7160,7 +7345,7 @@
         <f>C4/(D4+E4)</f>
         <v>1.1467404378157326</v>
       </c>
-      <c r="H4" s="46"/>
+      <c r="H4" s="44"/>
       <c r="I4" s="16">
         <v>200</v>
       </c>
@@ -7172,7 +7357,7 @@
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
-      <c r="N4" s="50"/>
+      <c r="N4" s="48"/>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -7198,7 +7383,7 @@
         <f>C5/(D5+E5)</f>
         <v>1.1654411764705883</v>
       </c>
-      <c r="H5" s="46"/>
+      <c r="H5" s="44"/>
       <c r="I5" s="16">
         <v>250</v>
       </c>
@@ -7212,7 +7397,7 @@
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="50"/>
+      <c r="N5" s="48"/>
       <c r="O5" s="2" t="s">
         <v>33</v>
       </c>
@@ -7229,7 +7414,7 @@
       </c>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
-      <c r="N6" s="51">
+      <c r="N6" s="49">
         <v>150</v>
       </c>
       <c r="O6" s="26">
@@ -7311,7 +7496,7 @@
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
-      <c r="N7" s="51">
+      <c r="N7" s="49">
         <v>200</v>
       </c>
       <c r="O7" s="26">
@@ -7391,7 +7576,7 @@
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
-      <c r="N8" s="51">
+      <c r="N8" s="49">
         <v>250</v>
       </c>
       <c r="O8" s="26">
@@ -7471,7 +7656,7 @@
         <v>-1.63987599095093E-2</v>
       </c>
       <c r="L9" s="17"/>
-      <c r="N9" s="51">
+      <c r="N9" s="49">
         <v>300</v>
       </c>
       <c r="O9" s="26">
@@ -7540,7 +7725,7 @@
       <c r="AO9" s="3"/>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N10" s="51">
+      <c r="N10" s="49">
         <v>350</v>
       </c>
       <c r="O10" s="26">
@@ -7609,7 +7794,7 @@
       <c r="AO10" s="3"/>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="N11" s="51">
+      <c r="N11" s="49">
         <v>400</v>
       </c>
       <c r="O11" s="26">
@@ -7678,21 +7863,21 @@
       <c r="AO11" s="3"/>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="I12" s="71" t="s">
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="I12" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="52" t="s">
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="50" t="s">
         <v>5</v>
       </c>
       <c r="O12" s="3"/>
@@ -7755,7 +7940,7 @@
       <c r="M13" s="16">
         <v>300</v>
       </c>
-      <c r="N13" s="51"/>
+      <c r="N13" s="49"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C14" s="34"/>
@@ -7768,7 +7953,7 @@
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
       <c r="M14" s="16"/>
-      <c r="N14" s="53"/>
+      <c r="N14" s="51"/>
       <c r="O14" s="2" t="s">
         <v>34</v>
       </c>
@@ -7801,10 +7986,10 @@
         <f t="shared" ref="G15:G20" si="5">T6-T15-(AD6-AD15)*$F$3-$G$3*(AI6+AN6-AI15-AN15)</f>
         <v>-1.2142054011014094</v>
       </c>
-      <c r="H15" s="46"/>
+      <c r="H15" s="44"/>
       <c r="I15" s="16"/>
       <c r="M15" s="16"/>
-      <c r="N15" s="51">
+      <c r="N15" s="49">
         <v>150</v>
       </c>
       <c r="O15" s="26">
@@ -7900,10 +8085,10 @@
         <f t="shared" si="5"/>
         <v>-0.56889870508180707</v>
       </c>
-      <c r="H16" s="46"/>
+      <c r="H16" s="44"/>
       <c r="I16" s="16"/>
       <c r="M16" s="16"/>
-      <c r="N16" s="51">
+      <c r="N16" s="49">
         <v>200</v>
       </c>
       <c r="O16" s="26">
@@ -7999,10 +8184,10 @@
         <f t="shared" si="5"/>
         <v>-1.0671519792638884</v>
       </c>
-      <c r="H17" s="46"/>
+      <c r="H17" s="44"/>
       <c r="I17" s="16"/>
       <c r="M17" s="16"/>
-      <c r="N17" s="51">
+      <c r="N17" s="49">
         <v>250</v>
       </c>
       <c r="O17" s="26">
@@ -8098,10 +8283,10 @@
         <f t="shared" si="5"/>
         <v>0.34138990693689775</v>
       </c>
-      <c r="H18" s="46"/>
+      <c r="H18" s="44"/>
       <c r="I18" s="16"/>
       <c r="M18" s="16"/>
-      <c r="N18" s="51">
+      <c r="N18" s="49">
         <v>300</v>
       </c>
       <c r="O18" s="26">
@@ -8197,10 +8382,10 @@
         <f t="shared" si="5"/>
         <v>-1.0531913820662506</v>
       </c>
-      <c r="H19" s="46"/>
+      <c r="H19" s="44"/>
       <c r="I19" s="16"/>
       <c r="M19" s="16"/>
-      <c r="N19" s="51">
+      <c r="N19" s="49">
         <v>350</v>
       </c>
       <c r="O19" s="26">
@@ -8296,10 +8481,10 @@
         <f t="shared" si="5"/>
         <v>-3.6122474310283801</v>
       </c>
-      <c r="H20" s="46"/>
+      <c r="H20" s="44"/>
       <c r="I20" s="16"/>
       <c r="M20" s="16"/>
-      <c r="N20" s="51">
+      <c r="N20" s="49">
         <v>400</v>
       </c>
       <c r="O20" s="26">
@@ -8368,15 +8553,15 @@
       <c r="AO20" s="3"/>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="N21" s="52" t="s">
+      <c r="N21" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="N22" s="53"/>
+      <c r="N22" s="51"/>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="N23" s="53"/>
+      <c r="N23" s="51"/>
       <c r="O23" s="2" t="s">
         <v>35</v>
       </c>
@@ -8410,10 +8595,10 @@
         <f t="shared" ref="G24:G29" si="12">T6-T24-(AD6-AD24)*$F$3-$G$3*(AI6+AN6-AI24-AN24)</f>
         <v>-2.2091838044552516</v>
       </c>
-      <c r="H24" s="46"/>
+      <c r="H24" s="44"/>
       <c r="I24" s="16"/>
       <c r="M24" s="16"/>
-      <c r="N24" s="54">
+      <c r="N24" s="52">
         <v>150</v>
       </c>
       <c r="O24" s="26">
@@ -8510,10 +8695,10 @@
         <f t="shared" si="12"/>
         <v>-1.8629536076591575</v>
       </c>
-      <c r="H25" s="46"/>
+      <c r="H25" s="44"/>
       <c r="I25" s="16"/>
       <c r="M25" s="16"/>
-      <c r="N25" s="54">
+      <c r="N25" s="52">
         <v>200</v>
       </c>
       <c r="O25" s="26">
@@ -8610,10 +8795,10 @@
         <f t="shared" si="12"/>
         <v>-1.7253601607741622</v>
       </c>
-      <c r="H26" s="46"/>
+      <c r="H26" s="44"/>
       <c r="I26" s="16"/>
       <c r="M26" s="16"/>
-      <c r="N26" s="54">
+      <c r="N26" s="52">
         <v>250</v>
       </c>
       <c r="O26" s="26">
@@ -8710,10 +8895,10 @@
         <f t="shared" si="12"/>
         <v>-0.56849139505752477</v>
       </c>
-      <c r="H27" s="46"/>
+      <c r="H27" s="44"/>
       <c r="I27" s="16"/>
       <c r="M27" s="16"/>
-      <c r="N27" s="54">
+      <c r="N27" s="52">
         <v>300</v>
       </c>
       <c r="O27" s="26">
@@ -8810,10 +8995,10 @@
         <f t="shared" si="12"/>
         <v>-2.256729754594355</v>
       </c>
-      <c r="H28" s="46"/>
+      <c r="H28" s="44"/>
       <c r="I28" s="16"/>
       <c r="M28" s="16"/>
-      <c r="N28" s="54">
+      <c r="N28" s="52">
         <v>350</v>
       </c>
       <c r="O28" s="26">
@@ -8910,10 +9095,10 @@
         <f t="shared" si="12"/>
         <v>-3.0653317871144354</v>
       </c>
-      <c r="H29" s="46"/>
+      <c r="H29" s="44"/>
       <c r="I29" s="16"/>
       <c r="M29" s="16"/>
-      <c r="N29" s="54">
+      <c r="N29" s="52">
         <v>400</v>
       </c>
       <c r="O29" s="26">
@@ -8982,7 +9167,7 @@
       <c r="AO29" s="3"/>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="N30" s="50" t="s">
+      <c r="N30" s="48" t="s">
         <v>47</v>
       </c>
       <c r="O30"/>
@@ -8997,7 +9182,7 @@
         <f>O34-Q34</f>
         <v>4.4644832258064007</v>
       </c>
-      <c r="N31" s="55"/>
+      <c r="N31" s="53"/>
       <c r="O31"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
@@ -9020,7 +9205,7 @@
       <c r="T32" s="5"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A33" s="43">
+      <c r="A33" s="41">
         <f>N33</f>
         <v>250</v>
       </c>
@@ -9042,7 +9227,7 @@
         <v>-0.17619232013049979</v>
       </c>
       <c r="G33" s="12"/>
-      <c r="H33" s="46">
+      <c r="H33" s="44">
         <v>1</v>
       </c>
       <c r="J33" s="19">
@@ -9057,7 +9242,7 @@
         <f t="shared" si="13"/>
         <v>1.2415914135117765</v>
       </c>
-      <c r="N33" s="56">
+      <c r="N33" s="54">
         <v>250</v>
       </c>
       <c r="O33" s="27">
@@ -9120,7 +9305,7 @@
       <c r="AN33" s="33"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A34" s="43">
+      <c r="A34" s="41">
         <f t="shared" ref="A34:A36" si="14">N34</f>
         <v>275</v>
       </c>
@@ -9130,7 +9315,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="46">
+      <c r="H34" s="44">
         <v>1</v>
       </c>
       <c r="J34" s="19">
@@ -9145,7 +9330,7 @@
         <f t="shared" si="13"/>
         <v>1.2978116854623587</v>
       </c>
-      <c r="N34" s="56">
+      <c r="N34" s="54">
         <v>275</v>
       </c>
       <c r="O34" s="27">
@@ -9208,7 +9393,7 @@
       <c r="AN34" s="33"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A35" s="43">
+      <c r="A35" s="41">
         <f t="shared" si="14"/>
         <v>300</v>
       </c>
@@ -9230,7 +9415,7 @@
         <v>8.7098625265978002E-2</v>
       </c>
       <c r="G35" s="12"/>
-      <c r="H35" s="46">
+      <c r="H35" s="44">
         <v>1</v>
       </c>
       <c r="J35" s="19">
@@ -9245,7 +9430,7 @@
         <f t="shared" si="15"/>
         <v>1.299049117594671</v>
       </c>
-      <c r="N35" s="56">
+      <c r="N35" s="54">
         <v>300</v>
       </c>
       <c r="O35" s="27">
@@ -9308,7 +9493,7 @@
       <c r="AN35" s="33"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A36" s="43">
+      <c r="A36" s="41">
         <f t="shared" si="14"/>
         <v>325</v>
       </c>
@@ -9318,7 +9503,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="46">
+      <c r="H36" s="44">
         <v>1</v>
       </c>
       <c r="J36" s="19">
@@ -9333,7 +9518,7 @@
         <f t="shared" si="15"/>
         <v>1.291971968683137</v>
       </c>
-      <c r="N36" s="56">
+      <c r="N36" s="54">
         <v>325</v>
       </c>
       <c r="O36" s="27">
@@ -9403,11 +9588,11 @@
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="46"/>
+      <c r="H37" s="44"/>
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
-      <c r="N37" s="56"/>
+      <c r="N37" s="54"/>
       <c r="O37" s="27"/>
       <c r="P37" s="27"/>
       <c r="Q37" s="27"/>
@@ -9443,18 +9628,18 @@
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="48"/>
+      <c r="H38" s="46"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D39" s="67">
+      <c r="D39" s="62">
         <f>AF39+AK39-Q39</f>
         <v>0.6493401796097249</v>
       </c>
-      <c r="E39" s="67">
+      <c r="E39" s="62">
         <f>AG39+AL39-R39</f>
         <v>-0.3530878516527256</v>
       </c>
-      <c r="F39" s="67">
+      <c r="F39" s="62">
         <f t="shared" ref="E39:F40" si="16">AH39+AM39-S39</f>
         <v>-0.55252280147353616</v>
       </c>
@@ -9500,15 +9685,15 @@
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D40" s="67">
+      <c r="D40" s="62">
         <f t="shared" ref="D40" si="20">AF40+AK40-Q40</f>
         <v>0.66114389745121649</v>
       </c>
-      <c r="E40" s="67">
+      <c r="E40" s="62">
         <f t="shared" si="16"/>
         <v>5.3603040621408304E-3</v>
       </c>
-      <c r="F40" s="67">
+      <c r="F40" s="62">
         <f t="shared" si="16"/>
         <v>-6.2339598367251448E-2</v>
       </c>
@@ -9572,33 +9757,33 @@
     <mergeCell ref="Z1:AD1"/>
   </mergeCells>
   <conditionalFormatting sqref="C37:G38 G36">
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:L36">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>1.3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="greaterThan">
       <formula>3.19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:F36">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
       <formula>3.19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:M36">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>1.3</formula>
     </cfRule>
   </conditionalFormatting>
